--- a/App_Data/XlsIO/ExcelTopdfwithChart.xlsx
+++ b/App_Data/XlsIO/ExcelTopdfwithChart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\Update Sample Icons\ej2-aspmvc-samples\App_Data\XlsIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Syncfusion\Windows\16.3.0.29\Common\Data\XlsIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9D86098F-8B63-4C6F-AA1F-2500FB238549}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EDB6F0DF-186A-40B8-87C6-A004A90FA48A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableStyle" sheetId="4" r:id="rId1"/>
@@ -19,22 +19,17 @@
     <sheet name="Excel 2016 Chart" sheetId="9" r:id="rId4"/>
     <sheet name="Autoshapes" sheetId="10" r:id="rId5"/>
     <sheet name="GroupShapes" sheetId="11" r:id="rId6"/>
+    <sheet name="Picture Recolor" sheetId="12" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="__IntlFixup" hidden="1">TRUE</definedName>
-    <definedName name="_1FLOW" localSheetId="5">#REF!</definedName>
     <definedName name="_1FLOW">#REF!</definedName>
     <definedName name="_Order1" hidden="1">0</definedName>
     <definedName name="_xlchart.v2.0" hidden="1">'Excel 2016 Chart'!$A$3:$A$8</definedName>
     <definedName name="_xlchart.v2.1" hidden="1">'Excel 2016 Chart'!$B$2</definedName>
     <definedName name="_xlchart.v2.2" hidden="1">'Excel 2016 Chart'!$B$3:$B$8</definedName>
-    <definedName name="Data.Dump" localSheetId="5" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="Data.Dump" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="HTML_CodePage" hidden="1">1252</definedName>
-    <definedName name="HTML_Control" localSheetId="5" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
     <definedName name="HTML_Control" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
     <definedName name="HTML_Description" hidden="1">""</definedName>
     <definedName name="HTML_Email" hidden="1">""</definedName>
@@ -48,11 +43,8 @@
     <definedName name="HTML_OS" hidden="1">0</definedName>
     <definedName name="HTML_PathFile" hidden="1">"C:\my documents\lever.htm"</definedName>
     <definedName name="HTML_Title" hidden="1">"leverage"</definedName>
-    <definedName name="Macro1" localSheetId="5">GroupShapes!Macro1</definedName>
     <definedName name="Macro1">Macro1</definedName>
-    <definedName name="Macro2" localSheetId="5">GroupShapes!Macro2</definedName>
     <definedName name="Macro2">Macro2</definedName>
-    <definedName name="Ownership" localSheetId="5" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="Ownership" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
@@ -60,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="195">
   <si>
     <t>3 Self-Promotion</t>
   </si>
@@ -627,6 +619,24 @@
   </si>
   <si>
     <t>Closed Sales</t>
+  </si>
+  <si>
+    <t>Gray Scale</t>
+  </si>
+  <si>
+    <t>Color Change</t>
+  </si>
+  <si>
+    <t>Original Picture</t>
+  </si>
+  <si>
+    <t>Black And White</t>
+  </si>
+  <si>
+    <t>Duotone</t>
+  </si>
+  <si>
+    <t>Picture Recolor</t>
   </si>
 </sst>
 </file>
@@ -646,7 +656,7 @@
     <numFmt numFmtId="170" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="171" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -802,8 +812,20 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -891,6 +913,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5786B9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1211,7 +1239,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="34" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="34" applyFont="1" applyFill="1"/>
@@ -1314,6 +1342,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4209,10 +4243,10 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1">
+        <xdr:cNvPr id="27" name="Group 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0809E3DB-E415-46CF-AE55-49F6FDB74B95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8903FF00-2DE8-4C78-A54C-90573AF6861B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4228,10 +4262,10 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="" fLocksText="0">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Management">
+          <xdr:cNvPr id="2" name="Management">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{042E2229-A2DC-48D4-A1AF-44B1F6B49936}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4029621E-D239-4A42-A3B7-2608CA84C2BC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4291,10 +4325,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="" fLocksText="0">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="DownArrow 2">
+          <xdr:cNvPr id="3" name="DownArrow 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CA487D0-6593-4E81-B17A-BB6BC7900850}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2309DA9C-909B-4F68-9D01-A42A1CB2FAFD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4340,10 +4374,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="" fLocksText="0">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Arrow: Bent-Up 4">
+          <xdr:cNvPr id="4" name="Arrow: Bent-Up 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE74A34-D73C-440C-ADD8-B7D893400630}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE449134-EC85-4D19-A1EE-54929A8D59CA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4404,10 +4438,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="" fLocksText="0">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Arrow: Bent-Up 5">
+          <xdr:cNvPr id="5" name="Arrow: Bent-Up 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE4F3EF-50FA-4F08-8330-3DA243688431}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62601172-0865-457F-B649-8230144F3CDB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4468,10 +4502,10 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="7" name="Group 6">
+          <xdr:cNvPr id="24" name="Group 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6344F7AE-EAEB-41A5-9370-C9A304E6EE63}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1DA14D1-3B93-49F0-A043-3C46691BD93B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4487,10 +4521,10 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="" fLocksText="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="22" name="Development">
+            <xdr:cNvPr id="6" name="Development">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09EFCED3-1DEF-4ED4-950B-1525CF3F8785}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0AE4FE1-6C57-4EA6-9E89-FF40671DEC3F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4550,10 +4584,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="" fLocksText="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="23" name="DownArrow 4">
+            <xdr:cNvPr id="7" name="DownArrow 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE53AE38-9A22-4D16-8055-6E5D43528095}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A7A2BA-D6FF-444D-B522-2D7EC75296E6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4599,10 +4633,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="" fLocksText="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="24" name="Arrow: Bent-Up 23">
+            <xdr:cNvPr id="8" name="Arrow: Bent-Up 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{990CE8E2-2F42-42FF-9759-E5C1F5D62247}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95FD2922-CE63-44BB-A6DB-6F4672168A62}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4663,10 +4697,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="" fLocksText="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="25" name="Arrow: Bent-Up 24">
+            <xdr:cNvPr id="9" name="Arrow: Bent-Up 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B8FBEBF-7BC7-4D96-BF32-0A85936E7226}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67EAE103-88D6-4C93-A009-3950300BE64B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4727,10 +4761,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="" fLocksText="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="26" name="Software">
+            <xdr:cNvPr id="10" name="Software">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E419C5E2-F12F-4444-8E39-B94C9C292745}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73319F6-FB3E-4544-A7EB-69EB7B70A459}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4790,10 +4824,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="" fLocksText="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="27" name="Hardware">
+            <xdr:cNvPr id="11" name="Hardware">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8DC39F9-AF81-4D4D-8E3B-EDAE14D7FF59}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BC01295-7A44-40B5-B278-A9DBD14878A6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4854,10 +4888,10 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="8" name="Group 7">
+          <xdr:cNvPr id="25" name="Group 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C29318D-283C-40BD-9FE3-26B557A77526}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{221605F6-8ECD-4C25-8B0F-9F2A5EAA0053}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4873,10 +4907,10 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="" fLocksText="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="Production">
+            <xdr:cNvPr id="12" name="Production">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0320CE18-4673-427C-95F4-79842EA99944}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC236970-04DB-4FB9-867D-BFB694AB72D9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4936,10 +4970,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="" fLocksText="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="17" name="DownArrow 4">
+            <xdr:cNvPr id="13" name="DownArrow 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F9A296-26E8-4CBA-A359-46D4ED863AA6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0C3BCC7-7D19-4D5E-8880-DAB677C1BD28}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4985,10 +5019,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="" fLocksText="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="Arrow: Bent-Up 17">
+            <xdr:cNvPr id="14" name="Arrow: Bent-Up 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE370085-82F0-4E3D-99E7-D767236726C6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E8B896C-4540-4EF3-AA95-278ABBD09F6E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5049,10 +5083,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="" fLocksText="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="Arrow: Bent-Up 18">
+            <xdr:cNvPr id="15" name="Arrow: Bent-Up 14">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CEFBA23-28AB-4E12-933E-D9F8423F2C8A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74CDD96F-8591-402B-8D4E-BE8F1A2CFB33}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5113,10 +5147,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="" fLocksText="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="Series">
+            <xdr:cNvPr id="16" name="Series">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5157D173-1FCB-400A-AC8E-1EC1ECA1D248}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79D53694-6C79-4084-9564-F3214ACBD13B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5176,10 +5210,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="" fLocksText="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="21" name="Parts">
+            <xdr:cNvPr id="17" name="Parts">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9287DC59-2195-4AA0-A17A-D06C95964674}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA330DF5-734B-42F2-AA30-DB0CD416C5C7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5240,10 +5274,10 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="9" name="Group 8">
+          <xdr:cNvPr id="26" name="Group 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC02153-22FB-461A-933A-81D22347ECE5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87303953-DB82-4195-AEB7-AEA4701A5556}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5259,10 +5293,10 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="" fLocksText="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="Sales">
+            <xdr:cNvPr id="18" name="Sales">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{634B29D6-5287-4088-85DA-9B40DE1A5CD2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25716E27-F9C8-4EE9-ABF5-9350DD2D7CF5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5322,10 +5356,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="" fLocksText="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="DownArrow 4">
+            <xdr:cNvPr id="19" name="DownArrow 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7915D5B-3263-4A0D-B201-0B40155E65DA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE0A9011-487D-4383-AF80-4CD25E83DE42}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5371,10 +5405,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="" fLocksText="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="Arrow: Bent-Up 11">
+            <xdr:cNvPr id="20" name="Arrow: Bent-Up 19">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95D48495-C6FE-484D-BD2E-4397BAAEF6C3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2ACD158-8548-4ED8-9036-9CF1A754936E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5435,10 +5469,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="" fLocksText="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="Arrow: Bent-Up 12">
+            <xdr:cNvPr id="21" name="Arrow: Bent-Up 20">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72DF65C9-66EC-412C-B1D7-010D956BAE86}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61BE7263-E661-40CC-BC73-4AA0E21F254F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5499,10 +5533,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="" fLocksText="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="North">
+            <xdr:cNvPr id="22" name="North">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A2CBF7-9231-4AF8-AC60-FFC011015D13}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{306B7B4A-52D6-451B-96CA-1A9A05C44ACA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5562,10 +5596,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="" fLocksText="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="South">
+            <xdr:cNvPr id="23" name="South">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF3ACE89-8C91-4ABC-B2D3-4A0D331B2425}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDAEB74A-2697-4AA9-8CAC-F1BB84534B65}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5630,25 +5664,518 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="TableStyle"/>
-      <sheetName val="Data"/>
-      <sheetName val="BarChart"/>
-      <sheetName val="Excel 2016 Chart"/>
-      <sheetName val="Autoshapes"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3907</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>109085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>604958</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>158435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD78E1BB-B739-42EC-BF2D-1FF28856518A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FF0000"/>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7319107" y="4776335"/>
+          <a:ext cx="1820251" cy="1636850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6930</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>18453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>607945</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>150353</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A092C8-3942-4099-8D93-D73067BA01DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="616530" y="6273203"/>
+          <a:ext cx="1820215" cy="1624150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>10429</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>116599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>405</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>154699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C136BF78-8D97-4DD6-B1AE-176DE5C7C00E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:grayscl/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7406311" y="9697628"/>
+          <a:ext cx="1838947" cy="1718982"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>13144</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>105051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3120</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>149501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BAD3D00-4243-45F7-A100-D1E02EDF63C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:biLevel thresh="50000"/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7409026" y="2626375"/>
+          <a:ext cx="1838947" cy="1725332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7039</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>23826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>154288</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5325517C-678D-443B-A9A0-2DA9A045A259}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:schemeClr val="accent1">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7322239" y="7135826"/>
+          <a:ext cx="1822103" cy="1622712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>62914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>65802</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE52841B-32DF-4FA7-852C-CA330AAB1E65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="2481169" y="4097032"/>
+          <a:ext cx="4914713" cy="3196564"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>606137</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>11546</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>80813</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E107341B-B9F1-409B-82ED-7508EC071BBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="2455108" y="6108896"/>
+          <a:ext cx="4952320" cy="1199711"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>608446</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>83122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>62916</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B7A17F-0E2D-44AA-891D-83C13286C161}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2457417" y="7310916"/>
+          <a:ext cx="4938465" cy="2669206"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9580</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7039</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>35083</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D1C7A28-D4D9-4F2F-AAC6-93370F691114}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="26" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2447980" y="7086400"/>
+          <a:ext cx="4874259" cy="854433"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6014,11 +6541,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -6053,7 +6580,7 @@
   </sheetPr>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -11381,7 +11908,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9DA5B8-B34B-4F6E-9C3B-D662ED12390B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
@@ -11396,10 +11925,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1944C4EB-B713-4A8B-ADDA-0A7E8577178E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3B4258-EABF-44CA-93FA-8274679CD328}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
@@ -11409,4 +11938,154 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F13C84E-E0AC-4332-A65E-80C5971F909C}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+    </row>
+    <row r="27" spans="13:15" ht="17.5">
+      <c r="M27" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+    </row>
+    <row r="41" spans="13:15" ht="17.5">
+      <c r="M41" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+    </row>
+    <row r="50" spans="2:15" ht="17.5">
+      <c r="B50" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+    </row>
+    <row r="55" spans="2:15" ht="17.5">
+      <c r="M55" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="N55" s="41"/>
+      <c r="O55" s="41"/>
+    </row>
+    <row r="69" spans="13:15" ht="17.5">
+      <c r="M69" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="N69" s="41"/>
+      <c r="O69" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:O5"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="M69:O69"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M55:O55"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="66" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/App_Data/XlsIO/ExcelTopdfwithChart.xlsx
+++ b/App_Data/XlsIO/ExcelTopdfwithChart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Syncfusion\Windows\16.3.0.29\Common\Data\XlsIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gitlab\EJ2-27843-XlsIOChangesHotFix\App_Data\XlsIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EDB6F0DF-186A-40B8-87C6-A004A90FA48A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F24B26F-1BAA-486F-AE99-C0BC63B1653B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableStyle" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Excel 2016 Chart" sheetId="9" r:id="rId4"/>
     <sheet name="Autoshapes" sheetId="10" r:id="rId5"/>
     <sheet name="GroupShapes" sheetId="11" r:id="rId6"/>
-    <sheet name="Picture Recolor" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="__IntlFixup" hidden="1">TRUE</definedName>
@@ -47,12 +46,19 @@
     <definedName name="Macro2">Macro2</definedName>
     <definedName name="Ownership" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="189">
   <si>
     <t>3 Self-Promotion</t>
   </si>
@@ -619,24 +625,6 @@
   </si>
   <si>
     <t>Closed Sales</t>
-  </si>
-  <si>
-    <t>Gray Scale</t>
-  </si>
-  <si>
-    <t>Color Change</t>
-  </si>
-  <si>
-    <t>Original Picture</t>
-  </si>
-  <si>
-    <t>Black And White</t>
-  </si>
-  <si>
-    <t>Duotone</t>
-  </si>
-  <si>
-    <t>Picture Recolor</t>
   </si>
 </sst>
 </file>
@@ -656,7 +644,7 @@
     <numFmt numFmtId="170" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="171" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -812,20 +800,8 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <b/>
-      <sz val="36"/>
-      <color rgb="FF0070C0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -913,12 +889,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5786B9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,7 +1209,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="34" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="34" applyFont="1" applyFill="1"/>
@@ -1342,12 +1312,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5664,520 +5628,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>3907</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>109085</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>604958</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>158435</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD78E1BB-B739-42EC-BF2D-1FF28856518A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FF0000"/>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7319107" y="4776335"/>
-          <a:ext cx="1820251" cy="1636850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6930</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>18453</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>607945</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>150353</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A092C8-3942-4099-8D93-D73067BA01DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="616530" y="6273203"/>
-          <a:ext cx="1820215" cy="1624150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>10429</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>116599</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>405</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>154699</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C136BF78-8D97-4DD6-B1AE-176DE5C7C00E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:grayscl/>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7406311" y="9697628"/>
-          <a:ext cx="1838947" cy="1718982"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>13144</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>105051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>3120</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>149501</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BAD3D00-4243-45F7-A100-D1E02EDF63C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:biLevel thresh="50000"/>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7409026" y="2626375"/>
-          <a:ext cx="1838947" cy="1725332"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>7039</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>23826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>342</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>154288</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5325517C-678D-443B-A9A0-2DA9A045A259}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:duotone>
-            <a:schemeClr val="accent1">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7322239" y="7135826"/>
-          <a:ext cx="1822103" cy="1622712"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>62914</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>65802</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE52841B-32DF-4FA7-852C-CA330AAB1E65}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="2481169" y="4097032"/>
-          <a:ext cx="4914713" cy="3196564"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>606137</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>57720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>11546</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>80813</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E107341B-B9F1-409B-82ED-7508EC071BBE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="2455108" y="6108896"/>
-          <a:ext cx="4952320" cy="1199711"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>608446</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>83122</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>62916</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B7A17F-0E2D-44AA-891D-83C13286C161}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2457417" y="7310916"/>
-          <a:ext cx="4938465" cy="2669206"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9580</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>133150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>7039</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>35083</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D1C7A28-D4D9-4F2F-AAC6-93370F691114}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="26" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2447980" y="7086400"/>
-          <a:ext cx="4874259" cy="854433"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F99" totalsRowShown="0">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
@@ -11928,7 +11378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3B4258-EABF-44CA-93FA-8274679CD328}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
@@ -11938,154 +11388,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F13C84E-E0AC-4332-A65E-80C5971F909C}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:O69"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-    </row>
-    <row r="27" spans="13:15" ht="17.5">
-      <c r="M27" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-    </row>
-    <row r="41" spans="13:15" ht="17.5">
-      <c r="M41" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-    </row>
-    <row r="50" spans="2:15" ht="17.5">
-      <c r="B50" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-    </row>
-    <row r="55" spans="2:15" ht="17.5">
-      <c r="M55" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="N55" s="41"/>
-      <c r="O55" s="41"/>
-    </row>
-    <row r="69" spans="13:15" ht="17.5">
-      <c r="M69" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="N69" s="41"/>
-      <c r="O69" s="41"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:O5"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="M69:O69"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M55:O55"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="66" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/App_Data/XlsIO/ExcelTopdfwithChart.xlsx
+++ b/App_Data/XlsIO/ExcelTopdfwithChart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gitlab\EJ2-27843-XlsIOChangesHotFix\App_Data\XlsIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Syncfusion\Tasks\2020_June2\ExcelToPDF\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F24B26F-1BAA-486F-AE99-C0BC63B1653B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAADBA9F-973F-4AFE-9293-C6D0CC7F7ABE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableStyle" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Excel 2016 Chart" sheetId="9" r:id="rId4"/>
     <sheet name="Autoshapes" sheetId="10" r:id="rId5"/>
     <sheet name="GroupShapes" sheetId="11" r:id="rId6"/>
+    <sheet name="Picture Recolor" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="__IntlFixup" hidden="1">TRUE</definedName>
@@ -51,14 +52,87 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Johnson Manohar</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{5E59C1D0-BA08-489E-8DE3-3C5DE1E40B7B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column shows the awards:
+1. Merit
+2. Rosey
+3. Excellence
+4. Best in Show</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Johnson Manohar</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{3454C0D7-1F35-4E18-A79E-B68D6CE565BB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This Total column comment will be printed at the end of sheet.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="195">
   <si>
     <t>3 Self-Promotion</t>
   </si>
@@ -625,6 +699,24 @@
   </si>
   <si>
     <t>Closed Sales</t>
+  </si>
+  <si>
+    <t>Gray Scale</t>
+  </si>
+  <si>
+    <t>Color Change</t>
+  </si>
+  <si>
+    <t>Original Picture</t>
+  </si>
+  <si>
+    <t>Black And White</t>
+  </si>
+  <si>
+    <t>Duotone</t>
+  </si>
+  <si>
+    <t>Picture Recolor</t>
   </si>
 </sst>
 </file>
@@ -644,7 +736,7 @@
     <numFmt numFmtId="170" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="171" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -800,8 +892,46 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -889,6 +1019,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5786B9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1209,7 +1345,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="34" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="34" applyFont="1" applyFill="1"/>
@@ -1312,6 +1448,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3503,7 +3645,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="en-IN" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -4218,8 +4360,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="727075" y="666750"/>
-          <a:ext cx="10893424" cy="3121025"/>
+          <a:off x="695325" y="685800"/>
+          <a:ext cx="10353674" cy="3228975"/>
           <a:chOff x="695325" y="685800"/>
           <a:chExt cx="10353674" cy="3228975"/>
         </a:xfrm>
@@ -5628,6 +5770,518 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3907</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>109085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>604958</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>158435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD78E1BB-B739-42EC-BF2D-1FF28856518A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FF0000"/>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7319107" y="4776335"/>
+          <a:ext cx="1820251" cy="1636850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6930</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>18453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>607945</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>150353</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A092C8-3942-4099-8D93-D73067BA01DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="616530" y="6273203"/>
+          <a:ext cx="1820215" cy="1624150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>10429</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>116599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>405</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>154699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C136BF78-8D97-4DD6-B1AE-176DE5C7C00E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:grayscl/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7406311" y="9697628"/>
+          <a:ext cx="1838947" cy="1718982"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>13144</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>105051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3120</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>149501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BAD3D00-4243-45F7-A100-D1E02EDF63C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:biLevel thresh="50000"/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7409026" y="2626375"/>
+          <a:ext cx="1838947" cy="1725332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7039</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>23826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>154288</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5325517C-678D-443B-A9A0-2DA9A045A259}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:schemeClr val="accent1">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7322239" y="7135826"/>
+          <a:ext cx="1822103" cy="1622712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>69264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>72152</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE52841B-32DF-4FA7-852C-CA330AAB1E65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="2454275" y="3879264"/>
+          <a:ext cx="4860925" cy="3146138"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2887</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17896</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>80813</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E107341B-B9F1-409B-82ED-7508EC071BBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="2441287" y="5836220"/>
+          <a:ext cx="4891809" cy="1197843"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>608446</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>83122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>62916</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B7A17F-0E2D-44AA-891D-83C13286C161}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2457417" y="7310916"/>
+          <a:ext cx="4938465" cy="2669206"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9580</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>82350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7039</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>143033</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D1C7A28-D4D9-4F2F-AAC6-93370F691114}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2447980" y="7035600"/>
+          <a:ext cx="4874259" cy="854433"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F99" totalsRowShown="0">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
@@ -6024,15 +6678,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -9730,23 +10384,27 @@
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="54" fitToWidth="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="43" fitToHeight="0" orientation="portrait" cellComments="asDisplayed" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;L
 </oddHeader>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -11161,7 +11819,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup fitToHeight="0" orientation="portrait" cellComments="atEnd" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11347,9 +12006,10 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -11378,7 +12038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3B4258-EABF-44CA-93FA-8274679CD328}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
@@ -11386,6 +12046,157 @@
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F13C84E-E0AC-4332-A65E-80C5971F909C}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O69"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+    </row>
+    <row r="27" spans="13:15" ht="17.5">
+      <c r="M27" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+    </row>
+    <row r="41" spans="13:15" ht="17.5">
+      <c r="M41" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+    </row>
+    <row r="50" spans="2:15" ht="17.5">
+      <c r="B50" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+    </row>
+    <row r="55" spans="2:15" ht="17.5">
+      <c r="M55" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="N55" s="41"/>
+      <c r="O55" s="41"/>
+    </row>
+    <row r="69" spans="13:15" ht="17.5">
+      <c r="M69" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="N69" s="41"/>
+      <c r="O69" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:O5"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="M69:O69"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M55:O55"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="63" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/App_Data/XlsIO/ExcelTopdfwithChart.xlsx
+++ b/App_Data/XlsIO/ExcelTopdfwithChart.xlsx
@@ -1,35 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Syncfusion\Windows\16.3.0.29\Common\Data\XlsIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KonduruKeerthiKondur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EDB6F0DF-186A-40B8-87C6-A004A90FA48A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B7BC74-9788-45FC-A7B5-D6A4F61AD06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="709" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableStyle" sheetId="4" r:id="rId1"/>
     <sheet name="Data" sheetId="5" r:id="rId2"/>
-    <sheet name="BarChart" sheetId="8" r:id="rId3"/>
-    <sheet name="Excel 2016 Chart" sheetId="9" r:id="rId4"/>
-    <sheet name="Autoshapes" sheetId="10" r:id="rId5"/>
-    <sheet name="GroupShapes" sheetId="11" r:id="rId6"/>
+    <sheet name="Autoshapes" sheetId="22" r:id="rId3"/>
+    <sheet name="GroupShapes" sheetId="11" r:id="rId4"/>
+    <sheet name="BarChart" sheetId="8" r:id="rId5"/>
+    <sheet name="Excel 2016 Chart" sheetId="9" r:id="rId6"/>
     <sheet name="Picture Recolor" sheetId="12" r:id="rId7"/>
+    <sheet name="Input" sheetId="21" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="__IntlFixup" hidden="1">TRUE</definedName>
+    <definedName name="_1FLOW" localSheetId="7">#REF!</definedName>
     <definedName name="_1FLOW">#REF!</definedName>
     <definedName name="_Order1" hidden="1">0</definedName>
     <definedName name="_xlchart.v2.0" hidden="1">'Excel 2016 Chart'!$A$3:$A$8</definedName>
     <definedName name="_xlchart.v2.1" hidden="1">'Excel 2016 Chart'!$B$2</definedName>
     <definedName name="_xlchart.v2.2" hidden="1">'Excel 2016 Chart'!$B$3:$B$8</definedName>
+    <definedName name="Data.Dump" localSheetId="2" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
+    <definedName name="Data.Dump" localSheetId="7" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="Data.Dump" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="HTML_CodePage" hidden="1">1252</definedName>
+    <definedName name="HTML_Control" localSheetId="2" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
+    <definedName name="HTML_Control" localSheetId="7" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
     <definedName name="HTML_Control" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
     <definedName name="HTML_Description" hidden="1">""</definedName>
     <definedName name="HTML_Email" hidden="1">""</definedName>
@@ -43,16 +49,104 @@
     <definedName name="HTML_OS" hidden="1">0</definedName>
     <definedName name="HTML_PathFile" hidden="1">"C:\my documents\lever.htm"</definedName>
     <definedName name="HTML_Title" hidden="1">"leverage"</definedName>
+    <definedName name="Macro1" localSheetId="2">Autoshapes!Macro1</definedName>
+    <definedName name="Macro1" localSheetId="7">Input!Macro1</definedName>
     <definedName name="Macro1">Macro1</definedName>
+    <definedName name="Macro2" localSheetId="2">Autoshapes!Macro2</definedName>
+    <definedName name="Macro2" localSheetId="7">Input!Macro2</definedName>
     <definedName name="Macro2">Macro2</definedName>
+    <definedName name="Ownership" localSheetId="2" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
+    <definedName name="Ownership" localSheetId="7" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="Ownership" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Johnson Manohar</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{5E59C1D0-BA08-489E-8DE3-3C5DE1E40B7B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column shows the awards:
+1. Merit
+2. Rosey
+3. Excellence
+4. Best in Show</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Johnson Manohar</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{3454C0D7-1F35-4E18-A79E-B68D6CE565BB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This Total column comment will be printed at the end of sheet.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="197">
   <si>
     <t>3 Self-Promotion</t>
   </si>
@@ -637,6 +731,12 @@
   </si>
   <si>
     <t>Picture Recolor</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>Net Banking</t>
   </si>
 </sst>
 </file>
@@ -656,7 +756,7 @@
     <numFmt numFmtId="170" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="171" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -786,6 +886,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -795,6 +896,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -811,6 +913,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -822,6 +925,26 @@
     <font>
       <sz val="14"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1168,7 +1291,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="37" fontId="2" fillId="3" borderId="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -1238,8 +1361,10 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="34" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="34" applyFont="1" applyFill="1"/>
@@ -1338,20 +1463,21 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="40"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="43">
     <cellStyle name="amount" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Blank" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Body text" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1372,6 +1498,7 @@
     <cellStyle name="Header1" xfId="16" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Header2" xfId="17" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="Header3" xfId="18" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="41" xr:uid="{47FDA7D1-C42A-41F0-B731-8FA649559330}"/>
     <cellStyle name="Level 2 Total" xfId="19" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="Major Total" xfId="20" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="NonPrint_TemTitle" xfId="21" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
@@ -1379,6 +1506,7 @@
     <cellStyle name="Normal 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
     <cellStyle name="Normal 3" xfId="34" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="Normal 4" xfId="40" xr:uid="{F6E41AC8-ED7C-4F42-A334-373180B7070F}"/>
+    <cellStyle name="Normal 5" xfId="42" xr:uid="{5326CA95-5B6B-4F51-B6B3-3D3D2A34F2FA}"/>
     <cellStyle name="Normal_PivotSizeTest" xfId="36" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="Normal_Sheet1" xfId="39" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Normal_TapePivot" xfId="37" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
@@ -1484,6 +1612,14 @@
       <rgbColor rgb="00424242"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFA63B26"/>
+      <color rgb="FF339966"/>
+      <color rgb="FFFFFF00"/>
+      <color rgb="FFF5F5F5"/>
+      <color rgb="FFFFC0CB"/>
+      <color rgb="FFFFC7CE"/>
+      <color rgb="FF9ACD32"/>
+      <color rgb="FF9CD0F3"/>
       <color rgb="FF5786B9"/>
       <color rgb="FF538DC8"/>
     </mruColors>
@@ -3433,147 +3569,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>156935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3360</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>148771</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>68037</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>27894</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>36741</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>18369</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" Requires="cx2">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Chart 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFC1482A-5609-4AEB-BDAE-09B1347A617D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="68037" y="1634444"/>
-              <a:ext cx="4794704" cy="2689225"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>37449</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>586132</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="RoundedRectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4054A059-9C4F-4F0B-8C96-F164D8C6E0AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3581,17 +3593,27 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2526649" y="1006475"/>
-          <a:ext cx="1170983" cy="542925"/>
+          <a:off x="1856014" y="2550885"/>
+          <a:ext cx="1823357" cy="544286"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="3366FF"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="18000">
+              <a:srgbClr val="EC1C24"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="bg1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:ln cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
@@ -3616,23 +3638,24 @@
         <a:bodyPr wrap="square" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1500" b="1" i="1">
+            <a:rPr lang="en-US" sz="2000" b="0" i="1">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
+              <a:latin typeface="Segoe UI"/>
             </a:rPr>
-            <a:t>R</a:t>
+            <a:t>E</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" i="1">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
+              <a:latin typeface="Segoe UI"/>
             </a:rPr>
-            <a:t>equirement</a:t>
+            <a:t>xecution</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3642,22 +3665,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>358034</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>148771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>358034</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>23586</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>143328</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="DownArrow 2">
+        <xdr:cNvPr id="3" name="Arrow: Down 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{711F73F7-58D8-4AA3-B22E-45BF8EBD52CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3665,8 +3688,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2847234" y="1554162"/>
-          <a:ext cx="622300" cy="368300"/>
+          <a:off x="2463800" y="3095171"/>
+          <a:ext cx="607786" cy="362857"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -3676,7 +3699,7 @@
         </a:solidFill>
         <a:ln w="12700" cmpd="sng">
           <a:solidFill>
-            <a:srgbClr val="0070C0"/>
+            <a:srgbClr val="0000FF"/>
           </a:solidFill>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
@@ -3703,23 +3726,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>45960</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>143328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>577053</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>135164</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="RoundedRectangle 3">
+        <xdr:cNvPr id="4" name="Rectangle: Rounded Corners 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD32421D-CE74-4024-BAC8-CF2F3871BC1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3727,17 +3750,27 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2535160" y="1922462"/>
-          <a:ext cx="1153393" cy="552450"/>
+          <a:off x="1856014" y="3458028"/>
+          <a:ext cx="1823357" cy="544286"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF9900"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="18000">
+              <a:srgbClr val="F8BC19"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="bg1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:ln cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
@@ -3762,23 +3795,24 @@
         <a:bodyPr wrap="square" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1500" b="1" i="1">
+            <a:rPr lang="en-US" sz="2000" b="0" i="0" u="sng">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:srgbClr val="800000"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
+              <a:latin typeface="Segoe UI"/>
             </a:rPr>
-            <a:t>D</a:t>
+            <a:t>T</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" i="1">
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="sng">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="800000"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
+              <a:latin typeface="Segoe UI"/>
             </a:rPr>
-            <a:t>esign</a:t>
+            <a:t>esting</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3788,22 +3822,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>358034</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>135164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>358034</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>23586</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>129721</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="DownArrow 4">
+        <xdr:cNvPr id="5" name="Arrow: Down 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41443183-8022-4B88-A72F-3755A5F425CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3811,8 +3845,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2847234" y="2474912"/>
-          <a:ext cx="622300" cy="368300"/>
+          <a:off x="2463800" y="4002314"/>
+          <a:ext cx="607786" cy="362857"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -3822,7 +3856,7 @@
         </a:solidFill>
         <a:ln w="12700" cmpd="sng">
           <a:solidFill>
-            <a:srgbClr val="0070C0"/>
+            <a:srgbClr val="0000FF"/>
           </a:solidFill>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
@@ -3849,23 +3883,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>45960</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>129721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>577053</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>121557</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="RoundedRectangle 5">
+        <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FC996FA-710F-4D49-8D8C-DB13F575E67B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3873,17 +3907,27 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2535160" y="2843212"/>
-          <a:ext cx="1153393" cy="552450"/>
+          <a:off x="1856014" y="4365171"/>
+          <a:ext cx="1823357" cy="544286"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="0000FF"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="18000">
+              <a:srgbClr val="5DC1D0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="bg1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:ln cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="5786B9"/>
+          </a:solidFill>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
@@ -3908,23 +3952,24 @@
         <a:bodyPr wrap="square" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1500" b="1" i="1">
+            <a:rPr lang="en-US" sz="2000" b="0" i="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
+              <a:latin typeface="Segoe UI"/>
             </a:rPr>
-            <a:t>E</a:t>
+            <a:t>R</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" i="1">
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
+              <a:latin typeface="Segoe UI"/>
             </a:rPr>
-            <a:t>xecution</a:t>
+            <a:t>elease</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3933,23 +3978,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>358034</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>358034</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>604157</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175985</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="DownArrow 6">
+        <xdr:cNvPr id="7" name="Rectangle: Rounded Corners 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F94C2F-F2F1-4EDB-813A-148898F0ED67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3957,8 +4002,103 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2847234" y="3395662"/>
-          <a:ext cx="622300" cy="368300"/>
+          <a:off x="1828800" y="736600"/>
+          <a:ext cx="1823357" cy="544285"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="21000">
+              <a:srgbClr val="F5931E"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="bg1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:ln cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI"/>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI"/>
+            </a:rPr>
+            <a:t>equirement</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>607786</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>605972</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>170542</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Arrow: Down 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2436586" y="1280885"/>
+          <a:ext cx="607786" cy="362857"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -3968,7 +4108,7 @@
         </a:solidFill>
         <a:ln w="12700" cmpd="sng">
           <a:solidFill>
-            <a:srgbClr val="0070C0"/>
+            <a:srgbClr val="0000FF"/>
           </a:solidFill>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
@@ -3995,23 +4135,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>45960</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>170542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>577053</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>604157</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>162378</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="RoundedRectangle 7">
+        <xdr:cNvPr id="9" name="Rectangle: Rounded Corners 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{417DA52D-2934-4F9F-845A-8B3F7810D69F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4019,17 +4159,27 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2535160" y="3763962"/>
-          <a:ext cx="1153393" cy="552450"/>
+          <a:off x="1828800" y="1643742"/>
+          <a:ext cx="1823357" cy="544286"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="008000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="18000">
+              <a:srgbClr val="99AF3C"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="bg1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:ln cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
@@ -4054,23 +4204,24 @@
         <a:bodyPr wrap="square" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1500" b="1" i="1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>T</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" i="1">
+            <a:rPr lang="en-US" sz="2000" b="0" i="0">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
+              <a:latin typeface="Segoe UI"/>
             </a:rPr>
-            <a:t>esting</a:t>
+            <a:t>D</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI"/>
+            </a:rPr>
+            <a:t>esign</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4079,23 +4230,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>358034</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>607786</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>162378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>358034</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>605972</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>156935</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="DownArrow 8">
+        <xdr:cNvPr id="10" name="Arrow: Down 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{296EC5CD-0280-45DB-84AD-15DE251EDAB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4103,8 +4254,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2847234" y="4316412"/>
-          <a:ext cx="622300" cy="368300"/>
+          <a:off x="2436586" y="2188028"/>
+          <a:ext cx="607786" cy="362857"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -4114,7 +4265,7 @@
         </a:solidFill>
         <a:ln w="12700" cmpd="sng">
           <a:solidFill>
-            <a:srgbClr val="0070C0"/>
+            <a:srgbClr val="0000FF"/>
           </a:solidFill>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
@@ -4139,94 +4290,10 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>45960</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>577053</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="RoundedRectangle 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63060578-5469-448C-B1F4-81EEB20E9A54}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2535160" y="4684712"/>
-          <a:ext cx="1153393" cy="552450"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="CC99FF"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1500" b="1" i="1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>R</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" i="1">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>elease</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4246,7 +4313,7 @@
         <xdr:cNvPr id="27" name="Group 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8903FF00-2DE8-4C78-A54C-90573AF6861B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4265,7 +4332,7 @@
           <xdr:cNvPr id="2" name="Management">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4029621E-D239-4A42-A3B7-2608CA84C2BC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4328,7 +4395,7 @@
           <xdr:cNvPr id="3" name="DownArrow 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2309DA9C-909B-4F68-9D01-A42A1CB2FAFD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4377,7 +4444,7 @@
           <xdr:cNvPr id="4" name="Arrow: Bent-Up 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE449134-EC85-4D19-A1EE-54929A8D59CA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4441,7 +4508,7 @@
           <xdr:cNvPr id="5" name="Arrow: Bent-Up 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62601172-0865-457F-B649-8230144F3CDB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4505,7 +4572,7 @@
           <xdr:cNvPr id="24" name="Group 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1DA14D1-3B93-49F0-A043-3C46691BD93B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4524,7 +4591,7 @@
             <xdr:cNvPr id="6" name="Development">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0AE4FE1-6C57-4EA6-9E89-FF40671DEC3F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4587,7 +4654,7 @@
             <xdr:cNvPr id="7" name="DownArrow 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A7A2BA-D6FF-444D-B522-2D7EC75296E6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4636,7 +4703,7 @@
             <xdr:cNvPr id="8" name="Arrow: Bent-Up 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95FD2922-CE63-44BB-A6DB-6F4672168A62}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4700,7 +4767,7 @@
             <xdr:cNvPr id="9" name="Arrow: Bent-Up 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67EAE103-88D6-4C93-A009-3950300BE64B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4764,7 +4831,7 @@
             <xdr:cNvPr id="10" name="Software">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73319F6-FB3E-4544-A7EB-69EB7B70A459}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4827,7 +4894,7 @@
             <xdr:cNvPr id="11" name="Hardware">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BC01295-7A44-40B5-B278-A9DBD14878A6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4891,7 +4958,7 @@
           <xdr:cNvPr id="25" name="Group 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{221605F6-8ECD-4C25-8B0F-9F2A5EAA0053}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4910,7 +4977,7 @@
             <xdr:cNvPr id="12" name="Production">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC236970-04DB-4FB9-867D-BFB694AB72D9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4973,7 +5040,7 @@
             <xdr:cNvPr id="13" name="DownArrow 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0C3BCC7-7D19-4D5E-8880-DAB677C1BD28}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5022,7 +5089,7 @@
             <xdr:cNvPr id="14" name="Arrow: Bent-Up 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E8B896C-4540-4EF3-AA95-278ABBD09F6E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5086,7 +5153,7 @@
             <xdr:cNvPr id="15" name="Arrow: Bent-Up 14">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74CDD96F-8591-402B-8D4E-BE8F1A2CFB33}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5150,7 +5217,7 @@
             <xdr:cNvPr id="16" name="Series">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79D53694-6C79-4084-9564-F3214ACBD13B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5213,7 +5280,7 @@
             <xdr:cNvPr id="17" name="Parts">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA330DF5-734B-42F2-AA30-DB0CD416C5C7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5277,7 +5344,7 @@
           <xdr:cNvPr id="26" name="Group 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87303953-DB82-4195-AEB7-AEA4701A5556}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5296,7 +5363,7 @@
             <xdr:cNvPr id="18" name="Sales">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25716E27-F9C8-4EE9-ABF5-9350DD2D7CF5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5359,7 +5426,7 @@
             <xdr:cNvPr id="19" name="DownArrow 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE0A9011-487D-4383-AF80-4CD25E83DE42}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5408,7 +5475,7 @@
             <xdr:cNvPr id="20" name="Arrow: Bent-Up 19">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2ACD158-8548-4ED8-9036-9CF1A754936E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5472,7 +5539,7 @@
             <xdr:cNvPr id="21" name="Arrow: Bent-Up 20">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61BE7263-E661-40CC-BC73-4AA0E21F254F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5536,7 +5603,7 @@
             <xdr:cNvPr id="22" name="North">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{306B7B4A-52D6-451B-96CA-1A9A05C44ACA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5599,7 +5666,7 @@
             <xdr:cNvPr id="23" name="South">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDAEB74A-2697-4AA9-8CAC-F1BB84534B65}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5664,6 +5731,130 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3360</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>68037</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>27894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>36741</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>18369</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" Requires="cx2">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="68037" y="1634444"/>
+              <a:ext cx="4794704" cy="2689225"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -5684,7 +5875,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD78E1BB-B739-42EC-BF2D-1FF28856518A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5742,7 +5933,7 @@
         <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A092C8-3942-4099-8D93-D73067BA01DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5792,7 +5983,7 @@
         <xdr:cNvPr id="22" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C136BF78-8D97-4DD6-B1AE-176DE5C7C00E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5843,7 +6034,7 @@
         <xdr:cNvPr id="24" name="Picture 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BAD3D00-4243-45F7-A100-D1E02EDF63C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5894,7 +6085,7 @@
         <xdr:cNvPr id="26" name="Picture 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5325517C-678D-443B-A9A0-2DA9A045A259}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5938,20 +6129,20 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>62914</xdr:rowOff>
+      <xdr:rowOff>69264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>65802</xdr:rowOff>
+      <xdr:rowOff>72152</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE52841B-32DF-4FA7-852C-CA330AAB1E65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5959,8 +6150,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="2481169" y="4097032"/>
-          <a:ext cx="4914713" cy="3196564"/>
+          <a:off x="2454275" y="3879264"/>
+          <a:ext cx="4860925" cy="3146138"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5995,14 +6186,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>606137</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2887</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>57720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>11546</xdr:colOff>
+      <xdr:colOff>17896</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>80813</xdr:rowOff>
     </xdr:to>
@@ -6011,7 +6202,7 @@
         <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E107341B-B9F1-409B-82ED-7508EC071BBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6019,8 +6210,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="2455108" y="6108896"/>
-          <a:ext cx="4952320" cy="1199711"/>
+          <a:off x="2441287" y="5836220"/>
+          <a:ext cx="4891809" cy="1197843"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6071,7 +6262,7 @@
         <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B7A17F-0E2D-44AA-891D-83C13286C161}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6118,30 +6309,28 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>9580</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>133150</xdr:rowOff>
+      <xdr:rowOff>82350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7039</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>35083</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>143033</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D1C7A28-D4D9-4F2F-AAC6-93370F691114}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="26" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2447980" y="7086400"/>
+          <a:off x="2447980" y="7035600"/>
           <a:ext cx="4874259" cy="854433"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6574,18 +6763,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="42.7265625" style="3" customWidth="1"/>
@@ -8297,7 +8486,7 @@
     <col min="16135" max="16384" width="9.1796875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.5">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>136</v>
       </c>
@@ -8317,7 +8506,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8337,7 +8526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -8357,7 +8546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -8377,7 +8566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -8397,7 +8586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -8417,7 +8606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -8437,7 +8626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -8457,7 +8646,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -8477,7 +8666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -8497,7 +8686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -8517,7 +8706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -8537,7 +8726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -8557,7 +8746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -8577,7 +8766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -8597,7 +8786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -8617,7 +8806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -8637,7 +8826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -8657,7 +8846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -8677,7 +8866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -8697,7 +8886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -8717,7 +8906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -8737,7 +8926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -8757,7 +8946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -8777,7 +8966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -8797,7 +8986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -8817,7 +9006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -8837,7 +9026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -8857,7 +9046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -8877,7 +9066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -8897,7 +9086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -8917,7 +9106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>89</v>
       </c>
@@ -8937,7 +9126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -8957,7 +9146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -8977,7 +9166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>100</v>
       </c>
@@ -8997,7 +9186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -9017,7 +9206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -9037,7 +9226,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>110</v>
       </c>
@@ -9057,7 +9246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -9077,7 +9266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -9097,7 +9286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -9117,7 +9306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>124</v>
       </c>
@@ -9137,7 +9326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>124</v>
       </c>
@@ -9157,7 +9346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -9177,7 +9366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>130</v>
       </c>
@@ -9197,7 +9386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>133</v>
       </c>
@@ -9217,7 +9406,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -9237,7 +9426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>71</v>
       </c>
@@ -9257,7 +9446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -9277,7 +9466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>76</v>
       </c>
@@ -9297,7 +9486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>133</v>
       </c>
@@ -9317,7 +9506,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -9337,7 +9526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>71</v>
       </c>
@@ -9357,7 +9546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>76</v>
       </c>
@@ -9377,7 +9566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -9397,7 +9586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -9417,7 +9606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -9437,7 +9626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>89</v>
       </c>
@@ -9457,7 +9646,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>89</v>
       </c>
@@ -9477,7 +9666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>89</v>
       </c>
@@ -9497,7 +9686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>95</v>
       </c>
@@ -9517,7 +9706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>100</v>
       </c>
@@ -9537,7 +9726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>100</v>
       </c>
@@ -9557,7 +9746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>106</v>
       </c>
@@ -9577,7 +9766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>110</v>
       </c>
@@ -9597,7 +9786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>115</v>
       </c>
@@ -9617,7 +9806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>115</v>
       </c>
@@ -9637,7 +9826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>115</v>
       </c>
@@ -9657,7 +9846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>124</v>
       </c>
@@ -9677,7 +9866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>124</v>
       </c>
@@ -9697,7 +9886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>124</v>
       </c>
@@ -9717,7 +9906,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>130</v>
       </c>
@@ -9737,7 +9926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -9757,7 +9946,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>67</v>
       </c>
@@ -9777,7 +9966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>133</v>
       </c>
@@ -9797,7 +9986,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>67</v>
       </c>
@@ -9817,7 +10006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>71</v>
       </c>
@@ -9837,7 +10026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -9857,7 +10046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -9877,7 +10066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -9897,7 +10086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -9917,7 +10106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>89</v>
       </c>
@@ -9937,7 +10126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -9957,7 +10146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -9977,7 +10166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>95</v>
       </c>
@@ -9997,7 +10186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -10017,7 +10206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -10037,7 +10226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>106</v>
       </c>
@@ -10057,7 +10246,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>110</v>
       </c>
@@ -10077,7 +10266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>115</v>
       </c>
@@ -10097,7 +10286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>115</v>
       </c>
@@ -10117,7 +10306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>115</v>
       </c>
@@ -10137,7 +10326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>124</v>
       </c>
@@ -10157,7 +10346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>124</v>
       </c>
@@ -10177,7 +10366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>124</v>
       </c>
@@ -10197,7 +10386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>130</v>
       </c>
@@ -10217,7 +10406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>133</v>
       </c>
@@ -10237,7 +10426,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>67</v>
       </c>
@@ -10257,7 +10446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>71</v>
       </c>
@@ -10280,26 +10469,30 @@
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="54" fitToWidth="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="43" fitToHeight="0" orientation="portrait" cellComments="asDisplayed" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;L
 </oddHeader>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
@@ -10311,7 +10504,7 @@
     <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.5" thickBot="1">
+    <row r="1" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>145</v>
       </c>
@@ -10337,7 +10530,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13" thickTop="1">
+    <row r="2" spans="1:8" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>39431</v>
       </c>
@@ -10365,7 +10558,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>39434</v>
       </c>
@@ -10393,7 +10586,7 @@
         <v>1699.1499999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>39437</v>
       </c>
@@ -10421,7 +10614,7 @@
         <v>309.38</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>39440</v>
       </c>
@@ -10449,7 +10642,7 @@
         <v>1159.4199999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>39443</v>
       </c>
@@ -10477,7 +10670,7 @@
         <v>49.900000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>39446</v>
       </c>
@@ -10505,7 +10698,7 @@
         <v>56.81</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>39449</v>
       </c>
@@ -10533,7 +10726,7 @@
         <v>11.94</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>39452</v>
       </c>
@@ -10561,7 +10754,7 @@
         <v>49.900000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>39455</v>
       </c>
@@ -10589,7 +10782,7 @@
         <v>77.61</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>39458</v>
       </c>
@@ -10617,7 +10810,7 @@
         <v>8.99</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>39461</v>
       </c>
@@ -10645,7 +10838,7 @@
         <v>399.20000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>39464</v>
       </c>
@@ -10673,7 +10866,7 @@
         <v>101.49</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>39467</v>
       </c>
@@ -10701,7 +10894,7 @@
         <v>199.89999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>39470</v>
       </c>
@@ -10729,7 +10922,7 @@
         <v>74.850000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>39473</v>
       </c>
@@ -10757,7 +10950,7 @@
         <v>3875</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>39476</v>
       </c>
@@ -10785,7 +10978,7 @@
         <v>735.54</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>39479</v>
       </c>
@@ -10813,7 +11006,7 @@
         <v>548.39</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>39482</v>
       </c>
@@ -10841,7 +11034,7 @@
         <v>809.1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>39485</v>
       </c>
@@ -10869,7 +11062,7 @@
         <v>859.56999999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>39488</v>
       </c>
@@ -10897,7 +11090,7 @@
         <v>159.68</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>39491</v>
       </c>
@@ -10925,7 +11118,7 @@
         <v>47.730000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>39494</v>
       </c>
@@ -10953,7 +11146,7 @@
         <v>415.74</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>39497</v>
       </c>
@@ -10981,7 +11174,7 @@
         <v>710.21</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>39500</v>
       </c>
@@ -11009,7 +11202,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>39503</v>
       </c>
@@ -11037,7 +11230,7 @@
         <v>134.73000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>39506</v>
       </c>
@@ -11065,7 +11258,7 @@
         <v>99.949999999999989</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>39509</v>
       </c>
@@ -11093,7 +11286,7 @@
         <v>294.41000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>39512</v>
       </c>
@@ -11121,7 +11314,7 @@
         <v>81.59</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>39515</v>
       </c>
@@ -11149,7 +11342,7 @@
         <v>424.15000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>39518</v>
       </c>
@@ -11177,7 +11370,7 @@
         <v>78.69</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>39521</v>
       </c>
@@ -11205,7 +11398,7 @@
         <v>80.91</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>39524</v>
       </c>
@@ -11233,7 +11426,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>39527</v>
       </c>
@@ -11261,7 +11454,7 @@
         <v>374.25</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>39530</v>
       </c>
@@ -11289,7 +11482,7 @@
         <v>1211.53</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>39533</v>
       </c>
@@ -11317,7 +11510,7 @@
         <v>2059.6999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>39536</v>
       </c>
@@ -11345,7 +11538,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>39539</v>
       </c>
@@ -11373,7 +11566,7 @@
         <v>116.10000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>39542</v>
       </c>
@@ -11401,7 +11594,7 @@
         <v>65.67</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>39545</v>
       </c>
@@ -11429,7 +11622,7 @@
         <v>1059.47</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>39548</v>
       </c>
@@ -11457,7 +11650,7 @@
         <v>32.25</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>39551</v>
       </c>
@@ -11485,7 +11678,7 @@
         <v>434.13</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>39554</v>
       </c>
@@ -11513,7 +11706,7 @@
         <v>1899.05</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>39557</v>
       </c>
@@ -11541,7 +11734,7 @@
         <v>339.32</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>39560</v>
       </c>
@@ -11569,7 +11762,7 @@
         <v>94.81</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>39563</v>
       </c>
@@ -11597,7 +11790,7 @@
         <v>113.81</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>39566</v>
       </c>
@@ -11625,7 +11818,7 @@
         <v>113.81</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>39569</v>
       </c>
@@ -11653,7 +11846,7 @@
         <v>94.81</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>39572</v>
       </c>
@@ -11681,7 +11874,7 @@
         <v>94.81</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>39575</v>
       </c>
@@ -11711,208 +11904,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup fitToHeight="0" orientation="portrait" cellComments="atEnd" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2278449D-F453-4FC2-893C-55C31FE64070}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
-  <cols>
-    <col min="1" max="1" width="17.81640625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" style="32" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="32"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A1" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A2" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.5">
-      <c r="A3" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="35">
-        <v>2776</v>
-      </c>
-      <c r="C3" s="36">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.5">
-      <c r="A4" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" s="35">
-        <v>1077</v>
-      </c>
-      <c r="C4" s="36">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.5">
-      <c r="A5" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="35">
-        <v>2287</v>
-      </c>
-      <c r="C5" s="36">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.5">
-      <c r="A6" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" s="35">
-        <v>1368</v>
-      </c>
-      <c r="C6" s="36">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.5">
-      <c r="A7" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="35">
-        <v>3325</v>
-      </c>
-      <c r="C7" s="36">
-        <v>189</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
-  <cols>
-    <col min="1" max="1" width="16.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.54296875" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="30"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="14">
-      <c r="A1" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="39"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="31">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="31">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="31">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" s="31">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="B7" s="31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" s="31">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9DA5B8-B34B-4F6E-9C3B-D662ED12390B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="8.7265625" style="37"/>
   </cols>
@@ -11924,19 +11929,210 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3B4258-EABF-44CA-93FA-8274679CD328}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="9.1796875" style="37"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.81640625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+    </row>
+    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="35">
+        <v>2776</v>
+      </c>
+      <c r="C3" s="36">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="35">
+        <v>1077</v>
+      </c>
+      <c r="C4" s="36">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="35">
+        <v>2287</v>
+      </c>
+      <c r="C5" s="36">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="35">
+        <v>1368</v>
+      </c>
+      <c r="C6" s="36">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="35">
+        <v>3325</v>
+      </c>
+      <c r="C7" s="36">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.81640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="42"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="31">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="31">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="31">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="31">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="31">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -11947,133 +12143,133 @@
   </sheetPr>
   <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-    </row>
-    <row r="27" spans="13:15" ht="17.5">
-      <c r="M27" s="41" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+    </row>
+    <row r="27" spans="13:15" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="M27" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-    </row>
-    <row r="41" spans="13:15" ht="17.5">
-      <c r="M41" s="41" t="s">
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+    </row>
+    <row r="41" spans="13:15" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="M41" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-    </row>
-    <row r="50" spans="2:15" ht="17.5">
-      <c r="B50" s="41" t="s">
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+    </row>
+    <row r="50" spans="2:15" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B50" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-    </row>
-    <row r="55" spans="2:15" ht="17.5">
-      <c r="M55" s="41" t="s">
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+    </row>
+    <row r="55" spans="2:15" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="M55" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="N55" s="41"/>
-      <c r="O55" s="41"/>
-    </row>
-    <row r="69" spans="13:15" ht="17.5">
-      <c r="M69" s="41" t="s">
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
+    </row>
+    <row r="69" spans="13:15" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="M69" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="N69" s="41"/>
-      <c r="O69" s="41"/>
+      <c r="N69" s="40"/>
+      <c r="O69" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -12085,7 +12281,35 @@
     <mergeCell ref="M55:O55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="66" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="63" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C48CC7A-679D-488A-B18E-9E773EC24015}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/App_Data/XlsIO/ExcelTopdfwithChart.xlsx
+++ b/App_Data/XlsIO/ExcelTopdfwithChart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sample browser soruces for change\ej2-aspmvc-samples\App_Data\XlsIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuildSampleBrowserBranch\ej2-aspmvc-samples\App_Data\XlsIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8832F579-CE2C-4FF3-AEF1-1DC9871A36F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9018C40A-F62E-4B5B-AC13-6C3C057A1175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="709" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableStyle" sheetId="4" r:id="rId1"/>
@@ -20,21 +20,24 @@
     <sheet name="BarChart" sheetId="8" r:id="rId5"/>
     <sheet name="Excel 2016 Chart" sheetId="9" r:id="rId6"/>
     <sheet name="Picture Recolor" sheetId="12" r:id="rId7"/>
-    <sheet name="Input" sheetId="21" state="hidden" r:id="rId8"/>
+    <sheet name="Top-Bottom Rules" sheetId="23" r:id="rId8"/>
+    <sheet name="Input" sheetId="21" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="__IntlFixup" hidden="1">TRUE</definedName>
-    <definedName name="_1FLOW" localSheetId="7">#REF!</definedName>
+    <definedName name="_1FLOW" localSheetId="8">#REF!</definedName>
     <definedName name="_1FLOW">#REF!</definedName>
     <definedName name="_Order1" hidden="1">0</definedName>
     <definedName name="_xlchart.v2.0" hidden="1">'Excel 2016 Chart'!$A$3:$A$8</definedName>
     <definedName name="_xlchart.v2.1" hidden="1">'Excel 2016 Chart'!$B$2</definedName>
     <definedName name="_xlchart.v2.2" hidden="1">'Excel 2016 Chart'!$B$3:$B$8</definedName>
     <definedName name="Data.Dump" localSheetId="2" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
+    <definedName name="Data.Dump" localSheetId="8" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="Data.Dump" localSheetId="7" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="Data.Dump" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="HTML_CodePage" hidden="1">1252</definedName>
     <definedName name="HTML_Control" localSheetId="2" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
+    <definedName name="HTML_Control" localSheetId="8" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
     <definedName name="HTML_Control" localSheetId="7" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
     <definedName name="HTML_Control" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
     <definedName name="HTML_Description" hidden="1">""</definedName>
@@ -50,12 +53,15 @@
     <definedName name="HTML_PathFile" hidden="1">"C:\my documents\lever.htm"</definedName>
     <definedName name="HTML_Title" hidden="1">"leverage"</definedName>
     <definedName name="Macro1" localSheetId="2">Autoshapes!Macro1</definedName>
-    <definedName name="Macro1" localSheetId="7">Input!Macro1</definedName>
+    <definedName name="Macro1" localSheetId="8">Input!Macro1</definedName>
+    <definedName name="Macro1" localSheetId="7">'Top-Bottom Rules'!Macro1</definedName>
     <definedName name="Macro1">Macro1</definedName>
     <definedName name="Macro2" localSheetId="2">Autoshapes!Macro2</definedName>
-    <definedName name="Macro2" localSheetId="7">Input!Macro2</definedName>
+    <definedName name="Macro2" localSheetId="8">Input!Macro2</definedName>
+    <definedName name="Macro2" localSheetId="7">'Top-Bottom Rules'!Macro2</definedName>
     <definedName name="Macro2">Macro2</definedName>
     <definedName name="Ownership" localSheetId="2" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
+    <definedName name="Ownership" localSheetId="8" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="Ownership" localSheetId="7" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="Ownership" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
   </definedNames>
@@ -146,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="244">
   <si>
     <t>3 Self-Promotion</t>
   </si>
@@ -737,6 +743,147 @@
   </si>
   <si>
     <t>Net Banking</t>
+  </si>
+  <si>
+    <t>Student 30</t>
+  </si>
+  <si>
+    <t>Student 29</t>
+  </si>
+  <si>
+    <t>Student 28</t>
+  </si>
+  <si>
+    <t>Student 27</t>
+  </si>
+  <si>
+    <t>Student 26</t>
+  </si>
+  <si>
+    <t>Student 25</t>
+  </si>
+  <si>
+    <t>Student 24</t>
+  </si>
+  <si>
+    <t>Student 23</t>
+  </si>
+  <si>
+    <t>Student 22</t>
+  </si>
+  <si>
+    <t>Student 21</t>
+  </si>
+  <si>
+    <t>Student 20</t>
+  </si>
+  <si>
+    <t>Student 19</t>
+  </si>
+  <si>
+    <t>Student 18</t>
+  </si>
+  <si>
+    <t>Student 17</t>
+  </si>
+  <si>
+    <t>Student 16</t>
+  </si>
+  <si>
+    <t>Student 15</t>
+  </si>
+  <si>
+    <t>Student 14</t>
+  </si>
+  <si>
+    <t>Student 13</t>
+  </si>
+  <si>
+    <t>Student 12</t>
+  </si>
+  <si>
+    <t>Student 11</t>
+  </si>
+  <si>
+    <t>Student 10</t>
+  </si>
+  <si>
+    <t>Student 9</t>
+  </si>
+  <si>
+    <t>Student 8</t>
+  </si>
+  <si>
+    <t>Student 7</t>
+  </si>
+  <si>
+    <t>Student 6</t>
+  </si>
+  <si>
+    <t>Student 5</t>
+  </si>
+  <si>
+    <t>Student 4</t>
+  </si>
+  <si>
+    <t>Student 3</t>
+  </si>
+  <si>
+    <t>Student 2</t>
+  </si>
+  <si>
+    <t>Student 1</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Subject 10</t>
+  </si>
+  <si>
+    <t>Subject 9</t>
+  </si>
+  <si>
+    <t>Subject 8</t>
+  </si>
+  <si>
+    <t>Subject 7</t>
+  </si>
+  <si>
+    <t>Subject 6</t>
+  </si>
+  <si>
+    <t>Subject 5</t>
+  </si>
+  <si>
+    <t>Subject 4</t>
+  </si>
+  <si>
+    <t>Subject 3</t>
+  </si>
+  <si>
+    <t>Subject 2</t>
+  </si>
+  <si>
+    <t>Subject 1</t>
+  </si>
+  <si>
+    <t>Students</t>
+  </si>
+  <si>
+    <t>Highlighted by Top 10 / Below Average</t>
+  </si>
+  <si>
+    <t>Top 10 Rank</t>
+  </si>
+  <si>
+    <t>Below Average</t>
+  </si>
+  <si>
+    <t>Students Marks Report</t>
   </si>
 </sst>
 </file>
@@ -756,10 +903,17 @@
     <numFmt numFmtId="170" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="171" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -947,8 +1101,60 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF339966"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA63B26"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1042,6 +1248,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,189 +1511,212 @@
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="37" fontId="2" fillId="3" borderId="1" applyBorder="0" applyProtection="0">
+    <xf numFmtId="37" fontId="3" fillId="3" borderId="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="8" fillId="0" borderId="2">
+    <xf numFmtId="5" fontId="9" fillId="0" borderId="2">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyBorder="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyBorder="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3"/>
-    <xf numFmtId="4" fontId="8" fillId="5" borderId="3">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3"/>
+    <xf numFmtId="4" fontId="9" fillId="5" borderId="3">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="8" fillId="6" borderId="3"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="4"/>
-    <xf numFmtId="37" fontId="5" fillId="7" borderId="2" applyBorder="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="9" fillId="6" borderId="3"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="4"/>
+    <xf numFmtId="37" fontId="6" fillId="7" borderId="2" applyBorder="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="37" fontId="6" fillId="2" borderId="5" applyFill="0">
+    <xf numFmtId="37" fontId="7" fillId="2" borderId="5" applyFill="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" applyNumberFormat="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyBorder="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyBorder="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="7"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="8"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="7"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="8"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="3" borderId="9" applyBorder="0">
+    <xf numFmtId="37" fontId="3" fillId="3" borderId="9" applyBorder="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="13" fillId="9" borderId="10"/>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="10" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="14" fillId="9" borderId="10"/>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="10" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="34" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="34" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="34" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="34" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="34" applyFont="1"/>
-    <xf numFmtId="170" fontId="20" fillId="11" borderId="11" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="21" fillId="11" borderId="11" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="20" fillId="11" borderId="12" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="21" fillId="11" borderId="12" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="11" borderId="12" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="21" fillId="11" borderId="12" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="12" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="11" borderId="12" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="21" fillId="11" borderId="12" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="11" borderId="13" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="21" fillId="11" borderId="13" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="13" borderId="14" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="5" fillId="13" borderId="14" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="13" borderId="15" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="5" fillId="13" borderId="15" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="15" xfId="39" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="15" xfId="39" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="15" xfId="37" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="15" xfId="37" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="15" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="15" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="13" borderId="15" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="13" borderId="15" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="13" borderId="16" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="13" borderId="16" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="12" borderId="14" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="5" fillId="12" borderId="14" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="12" borderId="15" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="5" fillId="12" borderId="15" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="39" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="15" xfId="39" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="37" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="15" xfId="37" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="15" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="12" borderId="15" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="12" borderId="15" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="12" borderId="16" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="12" borderId="16" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="13" borderId="17" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="5" fillId="13" borderId="17" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="13" borderId="18" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="5" fillId="13" borderId="18" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="18" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="37" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="18" xfId="37" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="13" borderId="18" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="13" borderId="18" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="13" borderId="19" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="13" borderId="19" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="26" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="27" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="40"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="40"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="37" fontId="3" fillId="3" borderId="0" xfId="22" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="35" fillId="17" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="35" fillId="17" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="18" borderId="0" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="36" fillId="18" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="37" fillId="3" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="38" fillId="3" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="1" fillId="3" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="34" fillId="3" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="3" fillId="3" borderId="0" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="39" fillId="3" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="40" fillId="3" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="amount" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1522,7 +1763,26 @@
     <cellStyle name="Währung [0]_Compiling Utility Macros" xfId="32" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="Währung_Compiling Utility Macros" xfId="33" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFA63B26"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFFF00"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4348,8 +4608,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="695325" y="685800"/>
-          <a:ext cx="10353674" cy="3228975"/>
+          <a:off x="727075" y="666750"/>
+          <a:ext cx="10893424" cy="3121025"/>
           <a:chOff x="695325" y="685800"/>
           <a:chExt cx="10353674" cy="3228975"/>
         </a:xfrm>
@@ -5848,8 +6108,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="68037" y="1675719"/>
-              <a:ext cx="4569279" cy="2743200"/>
+              <a:off x="68037" y="1634444"/>
+              <a:ext cx="4794704" cy="2689225"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6413,7 +6673,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table5" displayName="Table5" ref="A2:B8" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Stage"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Amount in USD" dataDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Amount in USD" dataDxfId="2" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6801,1719 +7061,1719 @@
       <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
-    <col min="7" max="236" width="9.140625" style="3" customWidth="1"/>
-    <col min="237" max="237" width="27.7109375" style="3" customWidth="1"/>
-    <col min="238" max="238" width="42.7109375" style="3" customWidth="1"/>
-    <col min="239" max="239" width="40.7109375" style="3" customWidth="1"/>
-    <col min="240" max="240" width="25.7109375" style="3" customWidth="1"/>
-    <col min="241" max="241" width="30.7109375" style="3" customWidth="1"/>
-    <col min="242" max="242" width="15.7109375" style="3" customWidth="1"/>
-    <col min="243" max="243" width="21.42578125" style="3" customWidth="1"/>
-    <col min="244" max="244" width="35.7109375" style="3" customWidth="1"/>
-    <col min="245" max="245" width="15.7109375" style="3" customWidth="1"/>
-    <col min="246" max="246" width="20.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="42.7265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="40.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.7265625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" style="2" customWidth="1"/>
+    <col min="7" max="236" width="9.1796875" style="3" customWidth="1"/>
+    <col min="237" max="237" width="27.7265625" style="3" customWidth="1"/>
+    <col min="238" max="238" width="42.7265625" style="3" customWidth="1"/>
+    <col min="239" max="239" width="40.7265625" style="3" customWidth="1"/>
+    <col min="240" max="240" width="25.7265625" style="3" customWidth="1"/>
+    <col min="241" max="241" width="30.7265625" style="3" customWidth="1"/>
+    <col min="242" max="242" width="15.7265625" style="3" customWidth="1"/>
+    <col min="243" max="243" width="21.453125" style="3" customWidth="1"/>
+    <col min="244" max="244" width="35.7265625" style="3" customWidth="1"/>
+    <col min="245" max="245" width="15.7265625" style="3" customWidth="1"/>
+    <col min="246" max="246" width="20.7265625" style="3" customWidth="1"/>
     <col min="247" max="247" width="13" style="3" customWidth="1"/>
-    <col min="248" max="248" width="13.42578125" style="3" customWidth="1"/>
-    <col min="249" max="249" width="18.28515625" style="3" customWidth="1"/>
-    <col min="250" max="250" width="20.85546875" style="3" customWidth="1"/>
-    <col min="251" max="251" width="22.28515625" style="3" customWidth="1"/>
-    <col min="252" max="252" width="26.42578125" style="3" customWidth="1"/>
-    <col min="253" max="253" width="35.7109375" style="3" customWidth="1"/>
-    <col min="254" max="254" width="15.7109375" style="3" customWidth="1"/>
-    <col min="255" max="255" width="14.140625" style="3" customWidth="1"/>
-    <col min="256" max="256" width="19.7109375" style="3" customWidth="1"/>
-    <col min="257" max="257" width="25.85546875" style="3" customWidth="1"/>
-    <col min="258" max="258" width="24.5703125" style="3" customWidth="1"/>
-    <col min="259" max="259" width="13.140625" style="3" customWidth="1"/>
-    <col min="260" max="260" width="10.42578125" style="3" customWidth="1"/>
-    <col min="261" max="261" width="26.85546875" style="3" customWidth="1"/>
-    <col min="262" max="262" width="22.5703125" style="3" customWidth="1"/>
-    <col min="263" max="492" width="9.140625" style="3" customWidth="1"/>
-    <col min="493" max="493" width="27.7109375" style="3" customWidth="1"/>
-    <col min="494" max="494" width="42.7109375" style="3" customWidth="1"/>
-    <col min="495" max="495" width="40.7109375" style="3" customWidth="1"/>
-    <col min="496" max="496" width="25.7109375" style="3" customWidth="1"/>
-    <col min="497" max="497" width="30.7109375" style="3" customWidth="1"/>
-    <col min="498" max="498" width="15.7109375" style="3" customWidth="1"/>
-    <col min="499" max="499" width="21.42578125" style="3" customWidth="1"/>
-    <col min="500" max="500" width="35.7109375" style="3" customWidth="1"/>
-    <col min="501" max="501" width="15.7109375" style="3" customWidth="1"/>
-    <col min="502" max="502" width="20.7109375" style="3" customWidth="1"/>
+    <col min="248" max="248" width="13.453125" style="3" customWidth="1"/>
+    <col min="249" max="249" width="18.26953125" style="3" customWidth="1"/>
+    <col min="250" max="250" width="20.81640625" style="3" customWidth="1"/>
+    <col min="251" max="251" width="22.26953125" style="3" customWidth="1"/>
+    <col min="252" max="252" width="26.453125" style="3" customWidth="1"/>
+    <col min="253" max="253" width="35.7265625" style="3" customWidth="1"/>
+    <col min="254" max="254" width="15.7265625" style="3" customWidth="1"/>
+    <col min="255" max="255" width="14.1796875" style="3" customWidth="1"/>
+    <col min="256" max="256" width="19.7265625" style="3" customWidth="1"/>
+    <col min="257" max="257" width="25.81640625" style="3" customWidth="1"/>
+    <col min="258" max="258" width="24.54296875" style="3" customWidth="1"/>
+    <col min="259" max="259" width="13.1796875" style="3" customWidth="1"/>
+    <col min="260" max="260" width="10.453125" style="3" customWidth="1"/>
+    <col min="261" max="261" width="26.81640625" style="3" customWidth="1"/>
+    <col min="262" max="262" width="22.54296875" style="3" customWidth="1"/>
+    <col min="263" max="492" width="9.1796875" style="3" customWidth="1"/>
+    <col min="493" max="493" width="27.7265625" style="3" customWidth="1"/>
+    <col min="494" max="494" width="42.7265625" style="3" customWidth="1"/>
+    <col min="495" max="495" width="40.7265625" style="3" customWidth="1"/>
+    <col min="496" max="496" width="25.7265625" style="3" customWidth="1"/>
+    <col min="497" max="497" width="30.7265625" style="3" customWidth="1"/>
+    <col min="498" max="498" width="15.7265625" style="3" customWidth="1"/>
+    <col min="499" max="499" width="21.453125" style="3" customWidth="1"/>
+    <col min="500" max="500" width="35.7265625" style="3" customWidth="1"/>
+    <col min="501" max="501" width="15.7265625" style="3" customWidth="1"/>
+    <col min="502" max="502" width="20.7265625" style="3" customWidth="1"/>
     <col min="503" max="503" width="13" style="3" customWidth="1"/>
-    <col min="504" max="504" width="13.42578125" style="3" customWidth="1"/>
-    <col min="505" max="505" width="18.28515625" style="3" customWidth="1"/>
-    <col min="506" max="506" width="20.85546875" style="3" customWidth="1"/>
-    <col min="507" max="507" width="22.28515625" style="3" customWidth="1"/>
-    <col min="508" max="508" width="26.42578125" style="3" customWidth="1"/>
-    <col min="509" max="509" width="35.7109375" style="3" customWidth="1"/>
-    <col min="510" max="510" width="15.7109375" style="3" customWidth="1"/>
-    <col min="511" max="511" width="14.140625" style="3" customWidth="1"/>
-    <col min="512" max="512" width="19.7109375" style="3" customWidth="1"/>
-    <col min="513" max="513" width="25.85546875" style="3" customWidth="1"/>
-    <col min="514" max="514" width="24.5703125" style="3" customWidth="1"/>
-    <col min="515" max="515" width="13.140625" style="3" customWidth="1"/>
-    <col min="516" max="516" width="10.42578125" style="3" customWidth="1"/>
-    <col min="517" max="517" width="26.85546875" style="3" customWidth="1"/>
-    <col min="518" max="518" width="22.5703125" style="3" customWidth="1"/>
-    <col min="519" max="748" width="9.140625" style="3" customWidth="1"/>
-    <col min="749" max="749" width="27.7109375" style="3" customWidth="1"/>
-    <col min="750" max="750" width="42.7109375" style="3" customWidth="1"/>
-    <col min="751" max="751" width="40.7109375" style="3" customWidth="1"/>
-    <col min="752" max="752" width="25.7109375" style="3" customWidth="1"/>
-    <col min="753" max="753" width="30.7109375" style="3" customWidth="1"/>
-    <col min="754" max="754" width="15.7109375" style="3" customWidth="1"/>
-    <col min="755" max="755" width="21.42578125" style="3" customWidth="1"/>
-    <col min="756" max="756" width="35.7109375" style="3" customWidth="1"/>
-    <col min="757" max="757" width="15.7109375" style="3" customWidth="1"/>
-    <col min="758" max="758" width="20.7109375" style="3" customWidth="1"/>
+    <col min="504" max="504" width="13.453125" style="3" customWidth="1"/>
+    <col min="505" max="505" width="18.26953125" style="3" customWidth="1"/>
+    <col min="506" max="506" width="20.81640625" style="3" customWidth="1"/>
+    <col min="507" max="507" width="22.26953125" style="3" customWidth="1"/>
+    <col min="508" max="508" width="26.453125" style="3" customWidth="1"/>
+    <col min="509" max="509" width="35.7265625" style="3" customWidth="1"/>
+    <col min="510" max="510" width="15.7265625" style="3" customWidth="1"/>
+    <col min="511" max="511" width="14.1796875" style="3" customWidth="1"/>
+    <col min="512" max="512" width="19.7265625" style="3" customWidth="1"/>
+    <col min="513" max="513" width="25.81640625" style="3" customWidth="1"/>
+    <col min="514" max="514" width="24.54296875" style="3" customWidth="1"/>
+    <col min="515" max="515" width="13.1796875" style="3" customWidth="1"/>
+    <col min="516" max="516" width="10.453125" style="3" customWidth="1"/>
+    <col min="517" max="517" width="26.81640625" style="3" customWidth="1"/>
+    <col min="518" max="518" width="22.54296875" style="3" customWidth="1"/>
+    <col min="519" max="748" width="9.1796875" style="3" customWidth="1"/>
+    <col min="749" max="749" width="27.7265625" style="3" customWidth="1"/>
+    <col min="750" max="750" width="42.7265625" style="3" customWidth="1"/>
+    <col min="751" max="751" width="40.7265625" style="3" customWidth="1"/>
+    <col min="752" max="752" width="25.7265625" style="3" customWidth="1"/>
+    <col min="753" max="753" width="30.7265625" style="3" customWidth="1"/>
+    <col min="754" max="754" width="15.7265625" style="3" customWidth="1"/>
+    <col min="755" max="755" width="21.453125" style="3" customWidth="1"/>
+    <col min="756" max="756" width="35.7265625" style="3" customWidth="1"/>
+    <col min="757" max="757" width="15.7265625" style="3" customWidth="1"/>
+    <col min="758" max="758" width="20.7265625" style="3" customWidth="1"/>
     <col min="759" max="759" width="13" style="3" customWidth="1"/>
-    <col min="760" max="760" width="13.42578125" style="3" customWidth="1"/>
-    <col min="761" max="761" width="18.28515625" style="3" customWidth="1"/>
-    <col min="762" max="762" width="20.85546875" style="3" customWidth="1"/>
-    <col min="763" max="763" width="22.28515625" style="3" customWidth="1"/>
-    <col min="764" max="764" width="26.42578125" style="3" customWidth="1"/>
-    <col min="765" max="765" width="35.7109375" style="3" customWidth="1"/>
-    <col min="766" max="766" width="15.7109375" style="3" customWidth="1"/>
-    <col min="767" max="767" width="14.140625" style="3" customWidth="1"/>
-    <col min="768" max="768" width="19.7109375" style="3" customWidth="1"/>
-    <col min="769" max="769" width="25.85546875" style="3" customWidth="1"/>
-    <col min="770" max="770" width="24.5703125" style="3" customWidth="1"/>
-    <col min="771" max="771" width="13.140625" style="3" customWidth="1"/>
-    <col min="772" max="772" width="10.42578125" style="3" customWidth="1"/>
-    <col min="773" max="773" width="26.85546875" style="3" customWidth="1"/>
-    <col min="774" max="774" width="22.5703125" style="3" customWidth="1"/>
-    <col min="775" max="1004" width="9.140625" style="3" customWidth="1"/>
-    <col min="1005" max="1005" width="27.7109375" style="3" customWidth="1"/>
-    <col min="1006" max="1006" width="42.7109375" style="3" customWidth="1"/>
-    <col min="1007" max="1007" width="40.7109375" style="3" customWidth="1"/>
-    <col min="1008" max="1008" width="25.7109375" style="3" customWidth="1"/>
-    <col min="1009" max="1009" width="30.7109375" style="3" customWidth="1"/>
-    <col min="1010" max="1010" width="15.7109375" style="3" customWidth="1"/>
-    <col min="1011" max="1011" width="21.42578125" style="3" customWidth="1"/>
-    <col min="1012" max="1012" width="35.7109375" style="3" customWidth="1"/>
-    <col min="1013" max="1013" width="15.7109375" style="3" customWidth="1"/>
-    <col min="1014" max="1014" width="20.7109375" style="3" customWidth="1"/>
+    <col min="760" max="760" width="13.453125" style="3" customWidth="1"/>
+    <col min="761" max="761" width="18.26953125" style="3" customWidth="1"/>
+    <col min="762" max="762" width="20.81640625" style="3" customWidth="1"/>
+    <col min="763" max="763" width="22.26953125" style="3" customWidth="1"/>
+    <col min="764" max="764" width="26.453125" style="3" customWidth="1"/>
+    <col min="765" max="765" width="35.7265625" style="3" customWidth="1"/>
+    <col min="766" max="766" width="15.7265625" style="3" customWidth="1"/>
+    <col min="767" max="767" width="14.1796875" style="3" customWidth="1"/>
+    <col min="768" max="768" width="19.7265625" style="3" customWidth="1"/>
+    <col min="769" max="769" width="25.81640625" style="3" customWidth="1"/>
+    <col min="770" max="770" width="24.54296875" style="3" customWidth="1"/>
+    <col min="771" max="771" width="13.1796875" style="3" customWidth="1"/>
+    <col min="772" max="772" width="10.453125" style="3" customWidth="1"/>
+    <col min="773" max="773" width="26.81640625" style="3" customWidth="1"/>
+    <col min="774" max="774" width="22.54296875" style="3" customWidth="1"/>
+    <col min="775" max="1004" width="9.1796875" style="3" customWidth="1"/>
+    <col min="1005" max="1005" width="27.7265625" style="3" customWidth="1"/>
+    <col min="1006" max="1006" width="42.7265625" style="3" customWidth="1"/>
+    <col min="1007" max="1007" width="40.7265625" style="3" customWidth="1"/>
+    <col min="1008" max="1008" width="25.7265625" style="3" customWidth="1"/>
+    <col min="1009" max="1009" width="30.7265625" style="3" customWidth="1"/>
+    <col min="1010" max="1010" width="15.7265625" style="3" customWidth="1"/>
+    <col min="1011" max="1011" width="21.453125" style="3" customWidth="1"/>
+    <col min="1012" max="1012" width="35.7265625" style="3" customWidth="1"/>
+    <col min="1013" max="1013" width="15.7265625" style="3" customWidth="1"/>
+    <col min="1014" max="1014" width="20.7265625" style="3" customWidth="1"/>
     <col min="1015" max="1015" width="13" style="3" customWidth="1"/>
-    <col min="1016" max="1016" width="13.42578125" style="3" customWidth="1"/>
-    <col min="1017" max="1017" width="18.28515625" style="3" customWidth="1"/>
-    <col min="1018" max="1018" width="20.85546875" style="3" customWidth="1"/>
-    <col min="1019" max="1019" width="22.28515625" style="3" customWidth="1"/>
-    <col min="1020" max="1020" width="26.42578125" style="3" customWidth="1"/>
-    <col min="1021" max="1021" width="35.7109375" style="3" customWidth="1"/>
-    <col min="1022" max="1022" width="15.7109375" style="3" customWidth="1"/>
-    <col min="1023" max="1023" width="14.140625" style="3" customWidth="1"/>
-    <col min="1024" max="1024" width="19.7109375" style="3" customWidth="1"/>
-    <col min="1025" max="1025" width="25.85546875" style="3" customWidth="1"/>
-    <col min="1026" max="1026" width="24.5703125" style="3" customWidth="1"/>
-    <col min="1027" max="1027" width="13.140625" style="3" customWidth="1"/>
-    <col min="1028" max="1028" width="10.42578125" style="3" customWidth="1"/>
-    <col min="1029" max="1029" width="26.85546875" style="3" customWidth="1"/>
-    <col min="1030" max="1030" width="22.5703125" style="3" customWidth="1"/>
-    <col min="1031" max="1260" width="9.140625" style="3" customWidth="1"/>
-    <col min="1261" max="1261" width="27.7109375" style="3" customWidth="1"/>
-    <col min="1262" max="1262" width="42.7109375" style="3" customWidth="1"/>
-    <col min="1263" max="1263" width="40.7109375" style="3" customWidth="1"/>
-    <col min="1264" max="1264" width="25.7109375" style="3" customWidth="1"/>
-    <col min="1265" max="1265" width="30.7109375" style="3" customWidth="1"/>
-    <col min="1266" max="1266" width="15.7109375" style="3" customWidth="1"/>
-    <col min="1267" max="1267" width="21.42578125" style="3" customWidth="1"/>
-    <col min="1268" max="1268" width="35.7109375" style="3" customWidth="1"/>
-    <col min="1269" max="1269" width="15.7109375" style="3" customWidth="1"/>
-    <col min="1270" max="1270" width="20.7109375" style="3" customWidth="1"/>
+    <col min="1016" max="1016" width="13.453125" style="3" customWidth="1"/>
+    <col min="1017" max="1017" width="18.26953125" style="3" customWidth="1"/>
+    <col min="1018" max="1018" width="20.81640625" style="3" customWidth="1"/>
+    <col min="1019" max="1019" width="22.26953125" style="3" customWidth="1"/>
+    <col min="1020" max="1020" width="26.453125" style="3" customWidth="1"/>
+    <col min="1021" max="1021" width="35.7265625" style="3" customWidth="1"/>
+    <col min="1022" max="1022" width="15.7265625" style="3" customWidth="1"/>
+    <col min="1023" max="1023" width="14.1796875" style="3" customWidth="1"/>
+    <col min="1024" max="1024" width="19.7265625" style="3" customWidth="1"/>
+    <col min="1025" max="1025" width="25.81640625" style="3" customWidth="1"/>
+    <col min="1026" max="1026" width="24.54296875" style="3" customWidth="1"/>
+    <col min="1027" max="1027" width="13.1796875" style="3" customWidth="1"/>
+    <col min="1028" max="1028" width="10.453125" style="3" customWidth="1"/>
+    <col min="1029" max="1029" width="26.81640625" style="3" customWidth="1"/>
+    <col min="1030" max="1030" width="22.54296875" style="3" customWidth="1"/>
+    <col min="1031" max="1260" width="9.1796875" style="3" customWidth="1"/>
+    <col min="1261" max="1261" width="27.7265625" style="3" customWidth="1"/>
+    <col min="1262" max="1262" width="42.7265625" style="3" customWidth="1"/>
+    <col min="1263" max="1263" width="40.7265625" style="3" customWidth="1"/>
+    <col min="1264" max="1264" width="25.7265625" style="3" customWidth="1"/>
+    <col min="1265" max="1265" width="30.7265625" style="3" customWidth="1"/>
+    <col min="1266" max="1266" width="15.7265625" style="3" customWidth="1"/>
+    <col min="1267" max="1267" width="21.453125" style="3" customWidth="1"/>
+    <col min="1268" max="1268" width="35.7265625" style="3" customWidth="1"/>
+    <col min="1269" max="1269" width="15.7265625" style="3" customWidth="1"/>
+    <col min="1270" max="1270" width="20.7265625" style="3" customWidth="1"/>
     <col min="1271" max="1271" width="13" style="3" customWidth="1"/>
-    <col min="1272" max="1272" width="13.42578125" style="3" customWidth="1"/>
-    <col min="1273" max="1273" width="18.28515625" style="3" customWidth="1"/>
-    <col min="1274" max="1274" width="20.85546875" style="3" customWidth="1"/>
-    <col min="1275" max="1275" width="22.28515625" style="3" customWidth="1"/>
-    <col min="1276" max="1276" width="26.42578125" style="3" customWidth="1"/>
-    <col min="1277" max="1277" width="35.7109375" style="3" customWidth="1"/>
-    <col min="1278" max="1278" width="15.7109375" style="3" customWidth="1"/>
-    <col min="1279" max="1279" width="14.140625" style="3" customWidth="1"/>
-    <col min="1280" max="1280" width="19.7109375" style="3" customWidth="1"/>
-    <col min="1281" max="1281" width="25.85546875" style="3" customWidth="1"/>
-    <col min="1282" max="1282" width="24.5703125" style="3" customWidth="1"/>
-    <col min="1283" max="1283" width="13.140625" style="3" customWidth="1"/>
-    <col min="1284" max="1284" width="10.42578125" style="3" customWidth="1"/>
-    <col min="1285" max="1285" width="26.85546875" style="3" customWidth="1"/>
-    <col min="1286" max="1286" width="22.5703125" style="3" customWidth="1"/>
-    <col min="1287" max="1516" width="9.140625" style="3" customWidth="1"/>
-    <col min="1517" max="1517" width="27.7109375" style="3" customWidth="1"/>
-    <col min="1518" max="1518" width="42.7109375" style="3" customWidth="1"/>
-    <col min="1519" max="1519" width="40.7109375" style="3" customWidth="1"/>
-    <col min="1520" max="1520" width="25.7109375" style="3" customWidth="1"/>
-    <col min="1521" max="1521" width="30.7109375" style="3" customWidth="1"/>
-    <col min="1522" max="1522" width="15.7109375" style="3" customWidth="1"/>
-    <col min="1523" max="1523" width="21.42578125" style="3" customWidth="1"/>
-    <col min="1524" max="1524" width="35.7109375" style="3" customWidth="1"/>
-    <col min="1525" max="1525" width="15.7109375" style="3" customWidth="1"/>
-    <col min="1526" max="1526" width="20.7109375" style="3" customWidth="1"/>
+    <col min="1272" max="1272" width="13.453125" style="3" customWidth="1"/>
+    <col min="1273" max="1273" width="18.26953125" style="3" customWidth="1"/>
+    <col min="1274" max="1274" width="20.81640625" style="3" customWidth="1"/>
+    <col min="1275" max="1275" width="22.26953125" style="3" customWidth="1"/>
+    <col min="1276" max="1276" width="26.453125" style="3" customWidth="1"/>
+    <col min="1277" max="1277" width="35.7265625" style="3" customWidth="1"/>
+    <col min="1278" max="1278" width="15.7265625" style="3" customWidth="1"/>
+    <col min="1279" max="1279" width="14.1796875" style="3" customWidth="1"/>
+    <col min="1280" max="1280" width="19.7265625" style="3" customWidth="1"/>
+    <col min="1281" max="1281" width="25.81640625" style="3" customWidth="1"/>
+    <col min="1282" max="1282" width="24.54296875" style="3" customWidth="1"/>
+    <col min="1283" max="1283" width="13.1796875" style="3" customWidth="1"/>
+    <col min="1284" max="1284" width="10.453125" style="3" customWidth="1"/>
+    <col min="1285" max="1285" width="26.81640625" style="3" customWidth="1"/>
+    <col min="1286" max="1286" width="22.54296875" style="3" customWidth="1"/>
+    <col min="1287" max="1516" width="9.1796875" style="3" customWidth="1"/>
+    <col min="1517" max="1517" width="27.7265625" style="3" customWidth="1"/>
+    <col min="1518" max="1518" width="42.7265625" style="3" customWidth="1"/>
+    <col min="1519" max="1519" width="40.7265625" style="3" customWidth="1"/>
+    <col min="1520" max="1520" width="25.7265625" style="3" customWidth="1"/>
+    <col min="1521" max="1521" width="30.7265625" style="3" customWidth="1"/>
+    <col min="1522" max="1522" width="15.7265625" style="3" customWidth="1"/>
+    <col min="1523" max="1523" width="21.453125" style="3" customWidth="1"/>
+    <col min="1524" max="1524" width="35.7265625" style="3" customWidth="1"/>
+    <col min="1525" max="1525" width="15.7265625" style="3" customWidth="1"/>
+    <col min="1526" max="1526" width="20.7265625" style="3" customWidth="1"/>
     <col min="1527" max="1527" width="13" style="3" customWidth="1"/>
-    <col min="1528" max="1528" width="13.42578125" style="3" customWidth="1"/>
-    <col min="1529" max="1529" width="18.28515625" style="3" customWidth="1"/>
-    <col min="1530" max="1530" width="20.85546875" style="3" customWidth="1"/>
-    <col min="1531" max="1531" width="22.28515625" style="3" customWidth="1"/>
-    <col min="1532" max="1532" width="26.42578125" style="3" customWidth="1"/>
-    <col min="1533" max="1533" width="35.7109375" style="3" customWidth="1"/>
-    <col min="1534" max="1534" width="15.7109375" style="3" customWidth="1"/>
-    <col min="1535" max="1535" width="14.140625" style="3" customWidth="1"/>
-    <col min="1536" max="1536" width="19.7109375" style="3" customWidth="1"/>
-    <col min="1537" max="1537" width="25.85546875" style="3" customWidth="1"/>
-    <col min="1538" max="1538" width="24.5703125" style="3" customWidth="1"/>
-    <col min="1539" max="1539" width="13.140625" style="3" customWidth="1"/>
-    <col min="1540" max="1540" width="10.42578125" style="3" customWidth="1"/>
-    <col min="1541" max="1541" width="26.85546875" style="3" customWidth="1"/>
-    <col min="1542" max="1542" width="22.5703125" style="3" customWidth="1"/>
-    <col min="1543" max="1772" width="9.140625" style="3" customWidth="1"/>
-    <col min="1773" max="1773" width="27.7109375" style="3" customWidth="1"/>
-    <col min="1774" max="1774" width="42.7109375" style="3" customWidth="1"/>
-    <col min="1775" max="1775" width="40.7109375" style="3" customWidth="1"/>
-    <col min="1776" max="1776" width="25.7109375" style="3" customWidth="1"/>
-    <col min="1777" max="1777" width="30.7109375" style="3" customWidth="1"/>
-    <col min="1778" max="1778" width="15.7109375" style="3" customWidth="1"/>
-    <col min="1779" max="1779" width="21.42578125" style="3" customWidth="1"/>
-    <col min="1780" max="1780" width="35.7109375" style="3" customWidth="1"/>
-    <col min="1781" max="1781" width="15.7109375" style="3" customWidth="1"/>
-    <col min="1782" max="1782" width="20.7109375" style="3" customWidth="1"/>
+    <col min="1528" max="1528" width="13.453125" style="3" customWidth="1"/>
+    <col min="1529" max="1529" width="18.26953125" style="3" customWidth="1"/>
+    <col min="1530" max="1530" width="20.81640625" style="3" customWidth="1"/>
+    <col min="1531" max="1531" width="22.26953125" style="3" customWidth="1"/>
+    <col min="1532" max="1532" width="26.453125" style="3" customWidth="1"/>
+    <col min="1533" max="1533" width="35.7265625" style="3" customWidth="1"/>
+    <col min="1534" max="1534" width="15.7265625" style="3" customWidth="1"/>
+    <col min="1535" max="1535" width="14.1796875" style="3" customWidth="1"/>
+    <col min="1536" max="1536" width="19.7265625" style="3" customWidth="1"/>
+    <col min="1537" max="1537" width="25.81640625" style="3" customWidth="1"/>
+    <col min="1538" max="1538" width="24.54296875" style="3" customWidth="1"/>
+    <col min="1539" max="1539" width="13.1796875" style="3" customWidth="1"/>
+    <col min="1540" max="1540" width="10.453125" style="3" customWidth="1"/>
+    <col min="1541" max="1541" width="26.81640625" style="3" customWidth="1"/>
+    <col min="1542" max="1542" width="22.54296875" style="3" customWidth="1"/>
+    <col min="1543" max="1772" width="9.1796875" style="3" customWidth="1"/>
+    <col min="1773" max="1773" width="27.7265625" style="3" customWidth="1"/>
+    <col min="1774" max="1774" width="42.7265625" style="3" customWidth="1"/>
+    <col min="1775" max="1775" width="40.7265625" style="3" customWidth="1"/>
+    <col min="1776" max="1776" width="25.7265625" style="3" customWidth="1"/>
+    <col min="1777" max="1777" width="30.7265625" style="3" customWidth="1"/>
+    <col min="1778" max="1778" width="15.7265625" style="3" customWidth="1"/>
+    <col min="1779" max="1779" width="21.453125" style="3" customWidth="1"/>
+    <col min="1780" max="1780" width="35.7265625" style="3" customWidth="1"/>
+    <col min="1781" max="1781" width="15.7265625" style="3" customWidth="1"/>
+    <col min="1782" max="1782" width="20.7265625" style="3" customWidth="1"/>
     <col min="1783" max="1783" width="13" style="3" customWidth="1"/>
-    <col min="1784" max="1784" width="13.42578125" style="3" customWidth="1"/>
-    <col min="1785" max="1785" width="18.28515625" style="3" customWidth="1"/>
-    <col min="1786" max="1786" width="20.85546875" style="3" customWidth="1"/>
-    <col min="1787" max="1787" width="22.28515625" style="3" customWidth="1"/>
-    <col min="1788" max="1788" width="26.42578125" style="3" customWidth="1"/>
-    <col min="1789" max="1789" width="35.7109375" style="3" customWidth="1"/>
-    <col min="1790" max="1790" width="15.7109375" style="3" customWidth="1"/>
-    <col min="1791" max="1791" width="14.140625" style="3" customWidth="1"/>
-    <col min="1792" max="1792" width="19.7109375" style="3" customWidth="1"/>
-    <col min="1793" max="1793" width="25.85546875" style="3" customWidth="1"/>
-    <col min="1794" max="1794" width="24.5703125" style="3" customWidth="1"/>
-    <col min="1795" max="1795" width="13.140625" style="3" customWidth="1"/>
-    <col min="1796" max="1796" width="10.42578125" style="3" customWidth="1"/>
-    <col min="1797" max="1797" width="26.85546875" style="3" customWidth="1"/>
-    <col min="1798" max="1798" width="22.5703125" style="3" customWidth="1"/>
-    <col min="1799" max="2028" width="9.140625" style="3" customWidth="1"/>
-    <col min="2029" max="2029" width="27.7109375" style="3" customWidth="1"/>
-    <col min="2030" max="2030" width="42.7109375" style="3" customWidth="1"/>
-    <col min="2031" max="2031" width="40.7109375" style="3" customWidth="1"/>
-    <col min="2032" max="2032" width="25.7109375" style="3" customWidth="1"/>
-    <col min="2033" max="2033" width="30.7109375" style="3" customWidth="1"/>
-    <col min="2034" max="2034" width="15.7109375" style="3" customWidth="1"/>
-    <col min="2035" max="2035" width="21.42578125" style="3" customWidth="1"/>
-    <col min="2036" max="2036" width="35.7109375" style="3" customWidth="1"/>
-    <col min="2037" max="2037" width="15.7109375" style="3" customWidth="1"/>
-    <col min="2038" max="2038" width="20.7109375" style="3" customWidth="1"/>
+    <col min="1784" max="1784" width="13.453125" style="3" customWidth="1"/>
+    <col min="1785" max="1785" width="18.26953125" style="3" customWidth="1"/>
+    <col min="1786" max="1786" width="20.81640625" style="3" customWidth="1"/>
+    <col min="1787" max="1787" width="22.26953125" style="3" customWidth="1"/>
+    <col min="1788" max="1788" width="26.453125" style="3" customWidth="1"/>
+    <col min="1789" max="1789" width="35.7265625" style="3" customWidth="1"/>
+    <col min="1790" max="1790" width="15.7265625" style="3" customWidth="1"/>
+    <col min="1791" max="1791" width="14.1796875" style="3" customWidth="1"/>
+    <col min="1792" max="1792" width="19.7265625" style="3" customWidth="1"/>
+    <col min="1793" max="1793" width="25.81640625" style="3" customWidth="1"/>
+    <col min="1794" max="1794" width="24.54296875" style="3" customWidth="1"/>
+    <col min="1795" max="1795" width="13.1796875" style="3" customWidth="1"/>
+    <col min="1796" max="1796" width="10.453125" style="3" customWidth="1"/>
+    <col min="1797" max="1797" width="26.81640625" style="3" customWidth="1"/>
+    <col min="1798" max="1798" width="22.54296875" style="3" customWidth="1"/>
+    <col min="1799" max="2028" width="9.1796875" style="3" customWidth="1"/>
+    <col min="2029" max="2029" width="27.7265625" style="3" customWidth="1"/>
+    <col min="2030" max="2030" width="42.7265625" style="3" customWidth="1"/>
+    <col min="2031" max="2031" width="40.7265625" style="3" customWidth="1"/>
+    <col min="2032" max="2032" width="25.7265625" style="3" customWidth="1"/>
+    <col min="2033" max="2033" width="30.7265625" style="3" customWidth="1"/>
+    <col min="2034" max="2034" width="15.7265625" style="3" customWidth="1"/>
+    <col min="2035" max="2035" width="21.453125" style="3" customWidth="1"/>
+    <col min="2036" max="2036" width="35.7265625" style="3" customWidth="1"/>
+    <col min="2037" max="2037" width="15.7265625" style="3" customWidth="1"/>
+    <col min="2038" max="2038" width="20.7265625" style="3" customWidth="1"/>
     <col min="2039" max="2039" width="13" style="3" customWidth="1"/>
-    <col min="2040" max="2040" width="13.42578125" style="3" customWidth="1"/>
-    <col min="2041" max="2041" width="18.28515625" style="3" customWidth="1"/>
-    <col min="2042" max="2042" width="20.85546875" style="3" customWidth="1"/>
-    <col min="2043" max="2043" width="22.28515625" style="3" customWidth="1"/>
-    <col min="2044" max="2044" width="26.42578125" style="3" customWidth="1"/>
-    <col min="2045" max="2045" width="35.7109375" style="3" customWidth="1"/>
-    <col min="2046" max="2046" width="15.7109375" style="3" customWidth="1"/>
-    <col min="2047" max="2047" width="14.140625" style="3" customWidth="1"/>
-    <col min="2048" max="2048" width="19.7109375" style="3" customWidth="1"/>
-    <col min="2049" max="2049" width="25.85546875" style="3" customWidth="1"/>
-    <col min="2050" max="2050" width="24.5703125" style="3" customWidth="1"/>
-    <col min="2051" max="2051" width="13.140625" style="3" customWidth="1"/>
-    <col min="2052" max="2052" width="10.42578125" style="3" customWidth="1"/>
-    <col min="2053" max="2053" width="26.85546875" style="3" customWidth="1"/>
-    <col min="2054" max="2054" width="22.5703125" style="3" customWidth="1"/>
-    <col min="2055" max="2284" width="9.140625" style="3" customWidth="1"/>
-    <col min="2285" max="2285" width="27.7109375" style="3" customWidth="1"/>
-    <col min="2286" max="2286" width="42.7109375" style="3" customWidth="1"/>
-    <col min="2287" max="2287" width="40.7109375" style="3" customWidth="1"/>
-    <col min="2288" max="2288" width="25.7109375" style="3" customWidth="1"/>
-    <col min="2289" max="2289" width="30.7109375" style="3" customWidth="1"/>
-    <col min="2290" max="2290" width="15.7109375" style="3" customWidth="1"/>
-    <col min="2291" max="2291" width="21.42578125" style="3" customWidth="1"/>
-    <col min="2292" max="2292" width="35.7109375" style="3" customWidth="1"/>
-    <col min="2293" max="2293" width="15.7109375" style="3" customWidth="1"/>
-    <col min="2294" max="2294" width="20.7109375" style="3" customWidth="1"/>
+    <col min="2040" max="2040" width="13.453125" style="3" customWidth="1"/>
+    <col min="2041" max="2041" width="18.26953125" style="3" customWidth="1"/>
+    <col min="2042" max="2042" width="20.81640625" style="3" customWidth="1"/>
+    <col min="2043" max="2043" width="22.26953125" style="3" customWidth="1"/>
+    <col min="2044" max="2044" width="26.453125" style="3" customWidth="1"/>
+    <col min="2045" max="2045" width="35.7265625" style="3" customWidth="1"/>
+    <col min="2046" max="2046" width="15.7265625" style="3" customWidth="1"/>
+    <col min="2047" max="2047" width="14.1796875" style="3" customWidth="1"/>
+    <col min="2048" max="2048" width="19.7265625" style="3" customWidth="1"/>
+    <col min="2049" max="2049" width="25.81640625" style="3" customWidth="1"/>
+    <col min="2050" max="2050" width="24.54296875" style="3" customWidth="1"/>
+    <col min="2051" max="2051" width="13.1796875" style="3" customWidth="1"/>
+    <col min="2052" max="2052" width="10.453125" style="3" customWidth="1"/>
+    <col min="2053" max="2053" width="26.81640625" style="3" customWidth="1"/>
+    <col min="2054" max="2054" width="22.54296875" style="3" customWidth="1"/>
+    <col min="2055" max="2284" width="9.1796875" style="3" customWidth="1"/>
+    <col min="2285" max="2285" width="27.7265625" style="3" customWidth="1"/>
+    <col min="2286" max="2286" width="42.7265625" style="3" customWidth="1"/>
+    <col min="2287" max="2287" width="40.7265625" style="3" customWidth="1"/>
+    <col min="2288" max="2288" width="25.7265625" style="3" customWidth="1"/>
+    <col min="2289" max="2289" width="30.7265625" style="3" customWidth="1"/>
+    <col min="2290" max="2290" width="15.7265625" style="3" customWidth="1"/>
+    <col min="2291" max="2291" width="21.453125" style="3" customWidth="1"/>
+    <col min="2292" max="2292" width="35.7265625" style="3" customWidth="1"/>
+    <col min="2293" max="2293" width="15.7265625" style="3" customWidth="1"/>
+    <col min="2294" max="2294" width="20.7265625" style="3" customWidth="1"/>
     <col min="2295" max="2295" width="13" style="3" customWidth="1"/>
-    <col min="2296" max="2296" width="13.42578125" style="3" customWidth="1"/>
-    <col min="2297" max="2297" width="18.28515625" style="3" customWidth="1"/>
-    <col min="2298" max="2298" width="20.85546875" style="3" customWidth="1"/>
-    <col min="2299" max="2299" width="22.28515625" style="3" customWidth="1"/>
-    <col min="2300" max="2300" width="26.42578125" style="3" customWidth="1"/>
-    <col min="2301" max="2301" width="35.7109375" style="3" customWidth="1"/>
-    <col min="2302" max="2302" width="15.7109375" style="3" customWidth="1"/>
-    <col min="2303" max="2303" width="14.140625" style="3" customWidth="1"/>
-    <col min="2304" max="2304" width="19.7109375" style="3" customWidth="1"/>
-    <col min="2305" max="2305" width="25.85546875" style="3" customWidth="1"/>
-    <col min="2306" max="2306" width="24.5703125" style="3" customWidth="1"/>
-    <col min="2307" max="2307" width="13.140625" style="3" customWidth="1"/>
-    <col min="2308" max="2308" width="10.42578125" style="3" customWidth="1"/>
-    <col min="2309" max="2309" width="26.85546875" style="3" customWidth="1"/>
-    <col min="2310" max="2310" width="22.5703125" style="3" customWidth="1"/>
-    <col min="2311" max="2540" width="9.140625" style="3" customWidth="1"/>
-    <col min="2541" max="2541" width="27.7109375" style="3" customWidth="1"/>
-    <col min="2542" max="2542" width="42.7109375" style="3" customWidth="1"/>
-    <col min="2543" max="2543" width="40.7109375" style="3" customWidth="1"/>
-    <col min="2544" max="2544" width="25.7109375" style="3" customWidth="1"/>
-    <col min="2545" max="2545" width="30.7109375" style="3" customWidth="1"/>
-    <col min="2546" max="2546" width="15.7109375" style="3" customWidth="1"/>
-    <col min="2547" max="2547" width="21.42578125" style="3" customWidth="1"/>
-    <col min="2548" max="2548" width="35.7109375" style="3" customWidth="1"/>
-    <col min="2549" max="2549" width="15.7109375" style="3" customWidth="1"/>
-    <col min="2550" max="2550" width="20.7109375" style="3" customWidth="1"/>
+    <col min="2296" max="2296" width="13.453125" style="3" customWidth="1"/>
+    <col min="2297" max="2297" width="18.26953125" style="3" customWidth="1"/>
+    <col min="2298" max="2298" width="20.81640625" style="3" customWidth="1"/>
+    <col min="2299" max="2299" width="22.26953125" style="3" customWidth="1"/>
+    <col min="2300" max="2300" width="26.453125" style="3" customWidth="1"/>
+    <col min="2301" max="2301" width="35.7265625" style="3" customWidth="1"/>
+    <col min="2302" max="2302" width="15.7265625" style="3" customWidth="1"/>
+    <col min="2303" max="2303" width="14.1796875" style="3" customWidth="1"/>
+    <col min="2304" max="2304" width="19.7265625" style="3" customWidth="1"/>
+    <col min="2305" max="2305" width="25.81640625" style="3" customWidth="1"/>
+    <col min="2306" max="2306" width="24.54296875" style="3" customWidth="1"/>
+    <col min="2307" max="2307" width="13.1796875" style="3" customWidth="1"/>
+    <col min="2308" max="2308" width="10.453125" style="3" customWidth="1"/>
+    <col min="2309" max="2309" width="26.81640625" style="3" customWidth="1"/>
+    <col min="2310" max="2310" width="22.54296875" style="3" customWidth="1"/>
+    <col min="2311" max="2540" width="9.1796875" style="3" customWidth="1"/>
+    <col min="2541" max="2541" width="27.7265625" style="3" customWidth="1"/>
+    <col min="2542" max="2542" width="42.7265625" style="3" customWidth="1"/>
+    <col min="2543" max="2543" width="40.7265625" style="3" customWidth="1"/>
+    <col min="2544" max="2544" width="25.7265625" style="3" customWidth="1"/>
+    <col min="2545" max="2545" width="30.7265625" style="3" customWidth="1"/>
+    <col min="2546" max="2546" width="15.7265625" style="3" customWidth="1"/>
+    <col min="2547" max="2547" width="21.453125" style="3" customWidth="1"/>
+    <col min="2548" max="2548" width="35.7265625" style="3" customWidth="1"/>
+    <col min="2549" max="2549" width="15.7265625" style="3" customWidth="1"/>
+    <col min="2550" max="2550" width="20.7265625" style="3" customWidth="1"/>
     <col min="2551" max="2551" width="13" style="3" customWidth="1"/>
-    <col min="2552" max="2552" width="13.42578125" style="3" customWidth="1"/>
-    <col min="2553" max="2553" width="18.28515625" style="3" customWidth="1"/>
-    <col min="2554" max="2554" width="20.85546875" style="3" customWidth="1"/>
-    <col min="2555" max="2555" width="22.28515625" style="3" customWidth="1"/>
-    <col min="2556" max="2556" width="26.42578125" style="3" customWidth="1"/>
-    <col min="2557" max="2557" width="35.7109375" style="3" customWidth="1"/>
-    <col min="2558" max="2558" width="15.7109375" style="3" customWidth="1"/>
-    <col min="2559" max="2559" width="14.140625" style="3" customWidth="1"/>
-    <col min="2560" max="2560" width="19.7109375" style="3" customWidth="1"/>
-    <col min="2561" max="2561" width="25.85546875" style="3" customWidth="1"/>
-    <col min="2562" max="2562" width="24.5703125" style="3" customWidth="1"/>
-    <col min="2563" max="2563" width="13.140625" style="3" customWidth="1"/>
-    <col min="2564" max="2564" width="10.42578125" style="3" customWidth="1"/>
-    <col min="2565" max="2565" width="26.85546875" style="3" customWidth="1"/>
-    <col min="2566" max="2566" width="22.5703125" style="3" customWidth="1"/>
-    <col min="2567" max="2796" width="9.140625" style="3" customWidth="1"/>
-    <col min="2797" max="2797" width="27.7109375" style="3" customWidth="1"/>
-    <col min="2798" max="2798" width="42.7109375" style="3" customWidth="1"/>
-    <col min="2799" max="2799" width="40.7109375" style="3" customWidth="1"/>
-    <col min="2800" max="2800" width="25.7109375" style="3" customWidth="1"/>
-    <col min="2801" max="2801" width="30.7109375" style="3" customWidth="1"/>
-    <col min="2802" max="2802" width="15.7109375" style="3" customWidth="1"/>
-    <col min="2803" max="2803" width="21.42578125" style="3" customWidth="1"/>
-    <col min="2804" max="2804" width="35.7109375" style="3" customWidth="1"/>
-    <col min="2805" max="2805" width="15.7109375" style="3" customWidth="1"/>
-    <col min="2806" max="2806" width="20.7109375" style="3" customWidth="1"/>
+    <col min="2552" max="2552" width="13.453125" style="3" customWidth="1"/>
+    <col min="2553" max="2553" width="18.26953125" style="3" customWidth="1"/>
+    <col min="2554" max="2554" width="20.81640625" style="3" customWidth="1"/>
+    <col min="2555" max="2555" width="22.26953125" style="3" customWidth="1"/>
+    <col min="2556" max="2556" width="26.453125" style="3" customWidth="1"/>
+    <col min="2557" max="2557" width="35.7265625" style="3" customWidth="1"/>
+    <col min="2558" max="2558" width="15.7265625" style="3" customWidth="1"/>
+    <col min="2559" max="2559" width="14.1796875" style="3" customWidth="1"/>
+    <col min="2560" max="2560" width="19.7265625" style="3" customWidth="1"/>
+    <col min="2561" max="2561" width="25.81640625" style="3" customWidth="1"/>
+    <col min="2562" max="2562" width="24.54296875" style="3" customWidth="1"/>
+    <col min="2563" max="2563" width="13.1796875" style="3" customWidth="1"/>
+    <col min="2564" max="2564" width="10.453125" style="3" customWidth="1"/>
+    <col min="2565" max="2565" width="26.81640625" style="3" customWidth="1"/>
+    <col min="2566" max="2566" width="22.54296875" style="3" customWidth="1"/>
+    <col min="2567" max="2796" width="9.1796875" style="3" customWidth="1"/>
+    <col min="2797" max="2797" width="27.7265625" style="3" customWidth="1"/>
+    <col min="2798" max="2798" width="42.7265625" style="3" customWidth="1"/>
+    <col min="2799" max="2799" width="40.7265625" style="3" customWidth="1"/>
+    <col min="2800" max="2800" width="25.7265625" style="3" customWidth="1"/>
+    <col min="2801" max="2801" width="30.7265625" style="3" customWidth="1"/>
+    <col min="2802" max="2802" width="15.7265625" style="3" customWidth="1"/>
+    <col min="2803" max="2803" width="21.453125" style="3" customWidth="1"/>
+    <col min="2804" max="2804" width="35.7265625" style="3" customWidth="1"/>
+    <col min="2805" max="2805" width="15.7265625" style="3" customWidth="1"/>
+    <col min="2806" max="2806" width="20.7265625" style="3" customWidth="1"/>
     <col min="2807" max="2807" width="13" style="3" customWidth="1"/>
-    <col min="2808" max="2808" width="13.42578125" style="3" customWidth="1"/>
-    <col min="2809" max="2809" width="18.28515625" style="3" customWidth="1"/>
-    <col min="2810" max="2810" width="20.85546875" style="3" customWidth="1"/>
-    <col min="2811" max="2811" width="22.28515625" style="3" customWidth="1"/>
-    <col min="2812" max="2812" width="26.42578125" style="3" customWidth="1"/>
-    <col min="2813" max="2813" width="35.7109375" style="3" customWidth="1"/>
-    <col min="2814" max="2814" width="15.7109375" style="3" customWidth="1"/>
-    <col min="2815" max="2815" width="14.140625" style="3" customWidth="1"/>
-    <col min="2816" max="2816" width="19.7109375" style="3" customWidth="1"/>
-    <col min="2817" max="2817" width="25.85546875" style="3" customWidth="1"/>
-    <col min="2818" max="2818" width="24.5703125" style="3" customWidth="1"/>
-    <col min="2819" max="2819" width="13.140625" style="3" customWidth="1"/>
-    <col min="2820" max="2820" width="10.42578125" style="3" customWidth="1"/>
-    <col min="2821" max="2821" width="26.85546875" style="3" customWidth="1"/>
-    <col min="2822" max="2822" width="22.5703125" style="3" customWidth="1"/>
-    <col min="2823" max="3052" width="9.140625" style="3" customWidth="1"/>
-    <col min="3053" max="3053" width="27.7109375" style="3" customWidth="1"/>
-    <col min="3054" max="3054" width="42.7109375" style="3" customWidth="1"/>
-    <col min="3055" max="3055" width="40.7109375" style="3" customWidth="1"/>
-    <col min="3056" max="3056" width="25.7109375" style="3" customWidth="1"/>
-    <col min="3057" max="3057" width="30.7109375" style="3" customWidth="1"/>
-    <col min="3058" max="3058" width="15.7109375" style="3" customWidth="1"/>
-    <col min="3059" max="3059" width="21.42578125" style="3" customWidth="1"/>
-    <col min="3060" max="3060" width="35.7109375" style="3" customWidth="1"/>
-    <col min="3061" max="3061" width="15.7109375" style="3" customWidth="1"/>
-    <col min="3062" max="3062" width="20.7109375" style="3" customWidth="1"/>
+    <col min="2808" max="2808" width="13.453125" style="3" customWidth="1"/>
+    <col min="2809" max="2809" width="18.26953125" style="3" customWidth="1"/>
+    <col min="2810" max="2810" width="20.81640625" style="3" customWidth="1"/>
+    <col min="2811" max="2811" width="22.26953125" style="3" customWidth="1"/>
+    <col min="2812" max="2812" width="26.453125" style="3" customWidth="1"/>
+    <col min="2813" max="2813" width="35.7265625" style="3" customWidth="1"/>
+    <col min="2814" max="2814" width="15.7265625" style="3" customWidth="1"/>
+    <col min="2815" max="2815" width="14.1796875" style="3" customWidth="1"/>
+    <col min="2816" max="2816" width="19.7265625" style="3" customWidth="1"/>
+    <col min="2817" max="2817" width="25.81640625" style="3" customWidth="1"/>
+    <col min="2818" max="2818" width="24.54296875" style="3" customWidth="1"/>
+    <col min="2819" max="2819" width="13.1796875" style="3" customWidth="1"/>
+    <col min="2820" max="2820" width="10.453125" style="3" customWidth="1"/>
+    <col min="2821" max="2821" width="26.81640625" style="3" customWidth="1"/>
+    <col min="2822" max="2822" width="22.54296875" style="3" customWidth="1"/>
+    <col min="2823" max="3052" width="9.1796875" style="3" customWidth="1"/>
+    <col min="3053" max="3053" width="27.7265625" style="3" customWidth="1"/>
+    <col min="3054" max="3054" width="42.7265625" style="3" customWidth="1"/>
+    <col min="3055" max="3055" width="40.7265625" style="3" customWidth="1"/>
+    <col min="3056" max="3056" width="25.7265625" style="3" customWidth="1"/>
+    <col min="3057" max="3057" width="30.7265625" style="3" customWidth="1"/>
+    <col min="3058" max="3058" width="15.7265625" style="3" customWidth="1"/>
+    <col min="3059" max="3059" width="21.453125" style="3" customWidth="1"/>
+    <col min="3060" max="3060" width="35.7265625" style="3" customWidth="1"/>
+    <col min="3061" max="3061" width="15.7265625" style="3" customWidth="1"/>
+    <col min="3062" max="3062" width="20.7265625" style="3" customWidth="1"/>
     <col min="3063" max="3063" width="13" style="3" customWidth="1"/>
-    <col min="3064" max="3064" width="13.42578125" style="3" customWidth="1"/>
-    <col min="3065" max="3065" width="18.28515625" style="3" customWidth="1"/>
-    <col min="3066" max="3066" width="20.85546875" style="3" customWidth="1"/>
-    <col min="3067" max="3067" width="22.28515625" style="3" customWidth="1"/>
-    <col min="3068" max="3068" width="26.42578125" style="3" customWidth="1"/>
-    <col min="3069" max="3069" width="35.7109375" style="3" customWidth="1"/>
-    <col min="3070" max="3070" width="15.7109375" style="3" customWidth="1"/>
-    <col min="3071" max="3071" width="14.140625" style="3" customWidth="1"/>
-    <col min="3072" max="3072" width="19.7109375" style="3" customWidth="1"/>
-    <col min="3073" max="3073" width="25.85546875" style="3" customWidth="1"/>
-    <col min="3074" max="3074" width="24.5703125" style="3" customWidth="1"/>
-    <col min="3075" max="3075" width="13.140625" style="3" customWidth="1"/>
-    <col min="3076" max="3076" width="10.42578125" style="3" customWidth="1"/>
-    <col min="3077" max="3077" width="26.85546875" style="3" customWidth="1"/>
-    <col min="3078" max="3078" width="22.5703125" style="3" customWidth="1"/>
-    <col min="3079" max="3308" width="9.140625" style="3" customWidth="1"/>
-    <col min="3309" max="3309" width="27.7109375" style="3" customWidth="1"/>
-    <col min="3310" max="3310" width="42.7109375" style="3" customWidth="1"/>
-    <col min="3311" max="3311" width="40.7109375" style="3" customWidth="1"/>
-    <col min="3312" max="3312" width="25.7109375" style="3" customWidth="1"/>
-    <col min="3313" max="3313" width="30.7109375" style="3" customWidth="1"/>
-    <col min="3314" max="3314" width="15.7109375" style="3" customWidth="1"/>
-    <col min="3315" max="3315" width="21.42578125" style="3" customWidth="1"/>
-    <col min="3316" max="3316" width="35.7109375" style="3" customWidth="1"/>
-    <col min="3317" max="3317" width="15.7109375" style="3" customWidth="1"/>
-    <col min="3318" max="3318" width="20.7109375" style="3" customWidth="1"/>
+    <col min="3064" max="3064" width="13.453125" style="3" customWidth="1"/>
+    <col min="3065" max="3065" width="18.26953125" style="3" customWidth="1"/>
+    <col min="3066" max="3066" width="20.81640625" style="3" customWidth="1"/>
+    <col min="3067" max="3067" width="22.26953125" style="3" customWidth="1"/>
+    <col min="3068" max="3068" width="26.453125" style="3" customWidth="1"/>
+    <col min="3069" max="3069" width="35.7265625" style="3" customWidth="1"/>
+    <col min="3070" max="3070" width="15.7265625" style="3" customWidth="1"/>
+    <col min="3071" max="3071" width="14.1796875" style="3" customWidth="1"/>
+    <col min="3072" max="3072" width="19.7265625" style="3" customWidth="1"/>
+    <col min="3073" max="3073" width="25.81640625" style="3" customWidth="1"/>
+    <col min="3074" max="3074" width="24.54296875" style="3" customWidth="1"/>
+    <col min="3075" max="3075" width="13.1796875" style="3" customWidth="1"/>
+    <col min="3076" max="3076" width="10.453125" style="3" customWidth="1"/>
+    <col min="3077" max="3077" width="26.81640625" style="3" customWidth="1"/>
+    <col min="3078" max="3078" width="22.54296875" style="3" customWidth="1"/>
+    <col min="3079" max="3308" width="9.1796875" style="3" customWidth="1"/>
+    <col min="3309" max="3309" width="27.7265625" style="3" customWidth="1"/>
+    <col min="3310" max="3310" width="42.7265625" style="3" customWidth="1"/>
+    <col min="3311" max="3311" width="40.7265625" style="3" customWidth="1"/>
+    <col min="3312" max="3312" width="25.7265625" style="3" customWidth="1"/>
+    <col min="3313" max="3313" width="30.7265625" style="3" customWidth="1"/>
+    <col min="3314" max="3314" width="15.7265625" style="3" customWidth="1"/>
+    <col min="3315" max="3315" width="21.453125" style="3" customWidth="1"/>
+    <col min="3316" max="3316" width="35.7265625" style="3" customWidth="1"/>
+    <col min="3317" max="3317" width="15.7265625" style="3" customWidth="1"/>
+    <col min="3318" max="3318" width="20.7265625" style="3" customWidth="1"/>
     <col min="3319" max="3319" width="13" style="3" customWidth="1"/>
-    <col min="3320" max="3320" width="13.42578125" style="3" customWidth="1"/>
-    <col min="3321" max="3321" width="18.28515625" style="3" customWidth="1"/>
-    <col min="3322" max="3322" width="20.85546875" style="3" customWidth="1"/>
-    <col min="3323" max="3323" width="22.28515625" style="3" customWidth="1"/>
-    <col min="3324" max="3324" width="26.42578125" style="3" customWidth="1"/>
-    <col min="3325" max="3325" width="35.7109375" style="3" customWidth="1"/>
-    <col min="3326" max="3326" width="15.7109375" style="3" customWidth="1"/>
-    <col min="3327" max="3327" width="14.140625" style="3" customWidth="1"/>
-    <col min="3328" max="3328" width="19.7109375" style="3" customWidth="1"/>
-    <col min="3329" max="3329" width="25.85546875" style="3" customWidth="1"/>
-    <col min="3330" max="3330" width="24.5703125" style="3" customWidth="1"/>
-    <col min="3331" max="3331" width="13.140625" style="3" customWidth="1"/>
-    <col min="3332" max="3332" width="10.42578125" style="3" customWidth="1"/>
-    <col min="3333" max="3333" width="26.85546875" style="3" customWidth="1"/>
-    <col min="3334" max="3334" width="22.5703125" style="3" customWidth="1"/>
-    <col min="3335" max="3564" width="9.140625" style="3" customWidth="1"/>
-    <col min="3565" max="3565" width="27.7109375" style="3" customWidth="1"/>
-    <col min="3566" max="3566" width="42.7109375" style="3" customWidth="1"/>
-    <col min="3567" max="3567" width="40.7109375" style="3" customWidth="1"/>
-    <col min="3568" max="3568" width="25.7109375" style="3" customWidth="1"/>
-    <col min="3569" max="3569" width="30.7109375" style="3" customWidth="1"/>
-    <col min="3570" max="3570" width="15.7109375" style="3" customWidth="1"/>
-    <col min="3571" max="3571" width="21.42578125" style="3" customWidth="1"/>
-    <col min="3572" max="3572" width="35.7109375" style="3" customWidth="1"/>
-    <col min="3573" max="3573" width="15.7109375" style="3" customWidth="1"/>
-    <col min="3574" max="3574" width="20.7109375" style="3" customWidth="1"/>
+    <col min="3320" max="3320" width="13.453125" style="3" customWidth="1"/>
+    <col min="3321" max="3321" width="18.26953125" style="3" customWidth="1"/>
+    <col min="3322" max="3322" width="20.81640625" style="3" customWidth="1"/>
+    <col min="3323" max="3323" width="22.26953125" style="3" customWidth="1"/>
+    <col min="3324" max="3324" width="26.453125" style="3" customWidth="1"/>
+    <col min="3325" max="3325" width="35.7265625" style="3" customWidth="1"/>
+    <col min="3326" max="3326" width="15.7265625" style="3" customWidth="1"/>
+    <col min="3327" max="3327" width="14.1796875" style="3" customWidth="1"/>
+    <col min="3328" max="3328" width="19.7265625" style="3" customWidth="1"/>
+    <col min="3329" max="3329" width="25.81640625" style="3" customWidth="1"/>
+    <col min="3330" max="3330" width="24.54296875" style="3" customWidth="1"/>
+    <col min="3331" max="3331" width="13.1796875" style="3" customWidth="1"/>
+    <col min="3332" max="3332" width="10.453125" style="3" customWidth="1"/>
+    <col min="3333" max="3333" width="26.81640625" style="3" customWidth="1"/>
+    <col min="3334" max="3334" width="22.54296875" style="3" customWidth="1"/>
+    <col min="3335" max="3564" width="9.1796875" style="3" customWidth="1"/>
+    <col min="3565" max="3565" width="27.7265625" style="3" customWidth="1"/>
+    <col min="3566" max="3566" width="42.7265625" style="3" customWidth="1"/>
+    <col min="3567" max="3567" width="40.7265625" style="3" customWidth="1"/>
+    <col min="3568" max="3568" width="25.7265625" style="3" customWidth="1"/>
+    <col min="3569" max="3569" width="30.7265625" style="3" customWidth="1"/>
+    <col min="3570" max="3570" width="15.7265625" style="3" customWidth="1"/>
+    <col min="3571" max="3571" width="21.453125" style="3" customWidth="1"/>
+    <col min="3572" max="3572" width="35.7265625" style="3" customWidth="1"/>
+    <col min="3573" max="3573" width="15.7265625" style="3" customWidth="1"/>
+    <col min="3574" max="3574" width="20.7265625" style="3" customWidth="1"/>
     <col min="3575" max="3575" width="13" style="3" customWidth="1"/>
-    <col min="3576" max="3576" width="13.42578125" style="3" customWidth="1"/>
-    <col min="3577" max="3577" width="18.28515625" style="3" customWidth="1"/>
-    <col min="3578" max="3578" width="20.85546875" style="3" customWidth="1"/>
-    <col min="3579" max="3579" width="22.28515625" style="3" customWidth="1"/>
-    <col min="3580" max="3580" width="26.42578125" style="3" customWidth="1"/>
-    <col min="3581" max="3581" width="35.7109375" style="3" customWidth="1"/>
-    <col min="3582" max="3582" width="15.7109375" style="3" customWidth="1"/>
-    <col min="3583" max="3583" width="14.140625" style="3" customWidth="1"/>
-    <col min="3584" max="3584" width="19.7109375" style="3" customWidth="1"/>
-    <col min="3585" max="3585" width="25.85546875" style="3" customWidth="1"/>
-    <col min="3586" max="3586" width="24.5703125" style="3" customWidth="1"/>
-    <col min="3587" max="3587" width="13.140625" style="3" customWidth="1"/>
-    <col min="3588" max="3588" width="10.42578125" style="3" customWidth="1"/>
-    <col min="3589" max="3589" width="26.85546875" style="3" customWidth="1"/>
-    <col min="3590" max="3590" width="22.5703125" style="3" customWidth="1"/>
-    <col min="3591" max="3820" width="9.140625" style="3" customWidth="1"/>
-    <col min="3821" max="3821" width="27.7109375" style="3" customWidth="1"/>
-    <col min="3822" max="3822" width="42.7109375" style="3" customWidth="1"/>
-    <col min="3823" max="3823" width="40.7109375" style="3" customWidth="1"/>
-    <col min="3824" max="3824" width="25.7109375" style="3" customWidth="1"/>
-    <col min="3825" max="3825" width="30.7109375" style="3" customWidth="1"/>
-    <col min="3826" max="3826" width="15.7109375" style="3" customWidth="1"/>
-    <col min="3827" max="3827" width="21.42578125" style="3" customWidth="1"/>
-    <col min="3828" max="3828" width="35.7109375" style="3" customWidth="1"/>
-    <col min="3829" max="3829" width="15.7109375" style="3" customWidth="1"/>
-    <col min="3830" max="3830" width="20.7109375" style="3" customWidth="1"/>
+    <col min="3576" max="3576" width="13.453125" style="3" customWidth="1"/>
+    <col min="3577" max="3577" width="18.26953125" style="3" customWidth="1"/>
+    <col min="3578" max="3578" width="20.81640625" style="3" customWidth="1"/>
+    <col min="3579" max="3579" width="22.26953125" style="3" customWidth="1"/>
+    <col min="3580" max="3580" width="26.453125" style="3" customWidth="1"/>
+    <col min="3581" max="3581" width="35.7265625" style="3" customWidth="1"/>
+    <col min="3582" max="3582" width="15.7265625" style="3" customWidth="1"/>
+    <col min="3583" max="3583" width="14.1796875" style="3" customWidth="1"/>
+    <col min="3584" max="3584" width="19.7265625" style="3" customWidth="1"/>
+    <col min="3585" max="3585" width="25.81640625" style="3" customWidth="1"/>
+    <col min="3586" max="3586" width="24.54296875" style="3" customWidth="1"/>
+    <col min="3587" max="3587" width="13.1796875" style="3" customWidth="1"/>
+    <col min="3588" max="3588" width="10.453125" style="3" customWidth="1"/>
+    <col min="3589" max="3589" width="26.81640625" style="3" customWidth="1"/>
+    <col min="3590" max="3590" width="22.54296875" style="3" customWidth="1"/>
+    <col min="3591" max="3820" width="9.1796875" style="3" customWidth="1"/>
+    <col min="3821" max="3821" width="27.7265625" style="3" customWidth="1"/>
+    <col min="3822" max="3822" width="42.7265625" style="3" customWidth="1"/>
+    <col min="3823" max="3823" width="40.7265625" style="3" customWidth="1"/>
+    <col min="3824" max="3824" width="25.7265625" style="3" customWidth="1"/>
+    <col min="3825" max="3825" width="30.7265625" style="3" customWidth="1"/>
+    <col min="3826" max="3826" width="15.7265625" style="3" customWidth="1"/>
+    <col min="3827" max="3827" width="21.453125" style="3" customWidth="1"/>
+    <col min="3828" max="3828" width="35.7265625" style="3" customWidth="1"/>
+    <col min="3829" max="3829" width="15.7265625" style="3" customWidth="1"/>
+    <col min="3830" max="3830" width="20.7265625" style="3" customWidth="1"/>
     <col min="3831" max="3831" width="13" style="3" customWidth="1"/>
-    <col min="3832" max="3832" width="13.42578125" style="3" customWidth="1"/>
-    <col min="3833" max="3833" width="18.28515625" style="3" customWidth="1"/>
-    <col min="3834" max="3834" width="20.85546875" style="3" customWidth="1"/>
-    <col min="3835" max="3835" width="22.28515625" style="3" customWidth="1"/>
-    <col min="3836" max="3836" width="26.42578125" style="3" customWidth="1"/>
-    <col min="3837" max="3837" width="35.7109375" style="3" customWidth="1"/>
-    <col min="3838" max="3838" width="15.7109375" style="3" customWidth="1"/>
-    <col min="3839" max="3839" width="14.140625" style="3" customWidth="1"/>
-    <col min="3840" max="3840" width="19.7109375" style="3" customWidth="1"/>
-    <col min="3841" max="3841" width="25.85546875" style="3" customWidth="1"/>
-    <col min="3842" max="3842" width="24.5703125" style="3" customWidth="1"/>
-    <col min="3843" max="3843" width="13.140625" style="3" customWidth="1"/>
-    <col min="3844" max="3844" width="10.42578125" style="3" customWidth="1"/>
-    <col min="3845" max="3845" width="26.85546875" style="3" customWidth="1"/>
-    <col min="3846" max="3846" width="22.5703125" style="3" customWidth="1"/>
-    <col min="3847" max="4076" width="9.140625" style="3" customWidth="1"/>
-    <col min="4077" max="4077" width="27.7109375" style="3" customWidth="1"/>
-    <col min="4078" max="4078" width="42.7109375" style="3" customWidth="1"/>
-    <col min="4079" max="4079" width="40.7109375" style="3" customWidth="1"/>
-    <col min="4080" max="4080" width="25.7109375" style="3" customWidth="1"/>
-    <col min="4081" max="4081" width="30.7109375" style="3" customWidth="1"/>
-    <col min="4082" max="4082" width="15.7109375" style="3" customWidth="1"/>
-    <col min="4083" max="4083" width="21.42578125" style="3" customWidth="1"/>
-    <col min="4084" max="4084" width="35.7109375" style="3" customWidth="1"/>
-    <col min="4085" max="4085" width="15.7109375" style="3" customWidth="1"/>
-    <col min="4086" max="4086" width="20.7109375" style="3" customWidth="1"/>
+    <col min="3832" max="3832" width="13.453125" style="3" customWidth="1"/>
+    <col min="3833" max="3833" width="18.26953125" style="3" customWidth="1"/>
+    <col min="3834" max="3834" width="20.81640625" style="3" customWidth="1"/>
+    <col min="3835" max="3835" width="22.26953125" style="3" customWidth="1"/>
+    <col min="3836" max="3836" width="26.453125" style="3" customWidth="1"/>
+    <col min="3837" max="3837" width="35.7265625" style="3" customWidth="1"/>
+    <col min="3838" max="3838" width="15.7265625" style="3" customWidth="1"/>
+    <col min="3839" max="3839" width="14.1796875" style="3" customWidth="1"/>
+    <col min="3840" max="3840" width="19.7265625" style="3" customWidth="1"/>
+    <col min="3841" max="3841" width="25.81640625" style="3" customWidth="1"/>
+    <col min="3842" max="3842" width="24.54296875" style="3" customWidth="1"/>
+    <col min="3843" max="3843" width="13.1796875" style="3" customWidth="1"/>
+    <col min="3844" max="3844" width="10.453125" style="3" customWidth="1"/>
+    <col min="3845" max="3845" width="26.81640625" style="3" customWidth="1"/>
+    <col min="3846" max="3846" width="22.54296875" style="3" customWidth="1"/>
+    <col min="3847" max="4076" width="9.1796875" style="3" customWidth="1"/>
+    <col min="4077" max="4077" width="27.7265625" style="3" customWidth="1"/>
+    <col min="4078" max="4078" width="42.7265625" style="3" customWidth="1"/>
+    <col min="4079" max="4079" width="40.7265625" style="3" customWidth="1"/>
+    <col min="4080" max="4080" width="25.7265625" style="3" customWidth="1"/>
+    <col min="4081" max="4081" width="30.7265625" style="3" customWidth="1"/>
+    <col min="4082" max="4082" width="15.7265625" style="3" customWidth="1"/>
+    <col min="4083" max="4083" width="21.453125" style="3" customWidth="1"/>
+    <col min="4084" max="4084" width="35.7265625" style="3" customWidth="1"/>
+    <col min="4085" max="4085" width="15.7265625" style="3" customWidth="1"/>
+    <col min="4086" max="4086" width="20.7265625" style="3" customWidth="1"/>
     <col min="4087" max="4087" width="13" style="3" customWidth="1"/>
-    <col min="4088" max="4088" width="13.42578125" style="3" customWidth="1"/>
-    <col min="4089" max="4089" width="18.28515625" style="3" customWidth="1"/>
-    <col min="4090" max="4090" width="20.85546875" style="3" customWidth="1"/>
-    <col min="4091" max="4091" width="22.28515625" style="3" customWidth="1"/>
-    <col min="4092" max="4092" width="26.42578125" style="3" customWidth="1"/>
-    <col min="4093" max="4093" width="35.7109375" style="3" customWidth="1"/>
-    <col min="4094" max="4094" width="15.7109375" style="3" customWidth="1"/>
-    <col min="4095" max="4095" width="14.140625" style="3" customWidth="1"/>
-    <col min="4096" max="4096" width="19.7109375" style="3" customWidth="1"/>
-    <col min="4097" max="4097" width="25.85546875" style="3" customWidth="1"/>
-    <col min="4098" max="4098" width="24.5703125" style="3" customWidth="1"/>
-    <col min="4099" max="4099" width="13.140625" style="3" customWidth="1"/>
-    <col min="4100" max="4100" width="10.42578125" style="3" customWidth="1"/>
-    <col min="4101" max="4101" width="26.85546875" style="3" customWidth="1"/>
-    <col min="4102" max="4102" width="22.5703125" style="3" customWidth="1"/>
-    <col min="4103" max="4332" width="9.140625" style="3" customWidth="1"/>
-    <col min="4333" max="4333" width="27.7109375" style="3" customWidth="1"/>
-    <col min="4334" max="4334" width="42.7109375" style="3" customWidth="1"/>
-    <col min="4335" max="4335" width="40.7109375" style="3" customWidth="1"/>
-    <col min="4336" max="4336" width="25.7109375" style="3" customWidth="1"/>
-    <col min="4337" max="4337" width="30.7109375" style="3" customWidth="1"/>
-    <col min="4338" max="4338" width="15.7109375" style="3" customWidth="1"/>
-    <col min="4339" max="4339" width="21.42578125" style="3" customWidth="1"/>
-    <col min="4340" max="4340" width="35.7109375" style="3" customWidth="1"/>
-    <col min="4341" max="4341" width="15.7109375" style="3" customWidth="1"/>
-    <col min="4342" max="4342" width="20.7109375" style="3" customWidth="1"/>
+    <col min="4088" max="4088" width="13.453125" style="3" customWidth="1"/>
+    <col min="4089" max="4089" width="18.26953125" style="3" customWidth="1"/>
+    <col min="4090" max="4090" width="20.81640625" style="3" customWidth="1"/>
+    <col min="4091" max="4091" width="22.26953125" style="3" customWidth="1"/>
+    <col min="4092" max="4092" width="26.453125" style="3" customWidth="1"/>
+    <col min="4093" max="4093" width="35.7265625" style="3" customWidth="1"/>
+    <col min="4094" max="4094" width="15.7265625" style="3" customWidth="1"/>
+    <col min="4095" max="4095" width="14.1796875" style="3" customWidth="1"/>
+    <col min="4096" max="4096" width="19.7265625" style="3" customWidth="1"/>
+    <col min="4097" max="4097" width="25.81640625" style="3" customWidth="1"/>
+    <col min="4098" max="4098" width="24.54296875" style="3" customWidth="1"/>
+    <col min="4099" max="4099" width="13.1796875" style="3" customWidth="1"/>
+    <col min="4100" max="4100" width="10.453125" style="3" customWidth="1"/>
+    <col min="4101" max="4101" width="26.81640625" style="3" customWidth="1"/>
+    <col min="4102" max="4102" width="22.54296875" style="3" customWidth="1"/>
+    <col min="4103" max="4332" width="9.1796875" style="3" customWidth="1"/>
+    <col min="4333" max="4333" width="27.7265625" style="3" customWidth="1"/>
+    <col min="4334" max="4334" width="42.7265625" style="3" customWidth="1"/>
+    <col min="4335" max="4335" width="40.7265625" style="3" customWidth="1"/>
+    <col min="4336" max="4336" width="25.7265625" style="3" customWidth="1"/>
+    <col min="4337" max="4337" width="30.7265625" style="3" customWidth="1"/>
+    <col min="4338" max="4338" width="15.7265625" style="3" customWidth="1"/>
+    <col min="4339" max="4339" width="21.453125" style="3" customWidth="1"/>
+    <col min="4340" max="4340" width="35.7265625" style="3" customWidth="1"/>
+    <col min="4341" max="4341" width="15.7265625" style="3" customWidth="1"/>
+    <col min="4342" max="4342" width="20.7265625" style="3" customWidth="1"/>
     <col min="4343" max="4343" width="13" style="3" customWidth="1"/>
-    <col min="4344" max="4344" width="13.42578125" style="3" customWidth="1"/>
-    <col min="4345" max="4345" width="18.28515625" style="3" customWidth="1"/>
-    <col min="4346" max="4346" width="20.85546875" style="3" customWidth="1"/>
-    <col min="4347" max="4347" width="22.28515625" style="3" customWidth="1"/>
-    <col min="4348" max="4348" width="26.42578125" style="3" customWidth="1"/>
-    <col min="4349" max="4349" width="35.7109375" style="3" customWidth="1"/>
-    <col min="4350" max="4350" width="15.7109375" style="3" customWidth="1"/>
-    <col min="4351" max="4351" width="14.140625" style="3" customWidth="1"/>
-    <col min="4352" max="4352" width="19.7109375" style="3" customWidth="1"/>
-    <col min="4353" max="4353" width="25.85546875" style="3" customWidth="1"/>
-    <col min="4354" max="4354" width="24.5703125" style="3" customWidth="1"/>
-    <col min="4355" max="4355" width="13.140625" style="3" customWidth="1"/>
-    <col min="4356" max="4356" width="10.42578125" style="3" customWidth="1"/>
-    <col min="4357" max="4357" width="26.85546875" style="3" customWidth="1"/>
-    <col min="4358" max="4358" width="22.5703125" style="3" customWidth="1"/>
-    <col min="4359" max="4588" width="9.140625" style="3" customWidth="1"/>
-    <col min="4589" max="4589" width="27.7109375" style="3" customWidth="1"/>
-    <col min="4590" max="4590" width="42.7109375" style="3" customWidth="1"/>
-    <col min="4591" max="4591" width="40.7109375" style="3" customWidth="1"/>
-    <col min="4592" max="4592" width="25.7109375" style="3" customWidth="1"/>
-    <col min="4593" max="4593" width="30.7109375" style="3" customWidth="1"/>
-    <col min="4594" max="4594" width="15.7109375" style="3" customWidth="1"/>
-    <col min="4595" max="4595" width="21.42578125" style="3" customWidth="1"/>
-    <col min="4596" max="4596" width="35.7109375" style="3" customWidth="1"/>
-    <col min="4597" max="4597" width="15.7109375" style="3" customWidth="1"/>
-    <col min="4598" max="4598" width="20.7109375" style="3" customWidth="1"/>
+    <col min="4344" max="4344" width="13.453125" style="3" customWidth="1"/>
+    <col min="4345" max="4345" width="18.26953125" style="3" customWidth="1"/>
+    <col min="4346" max="4346" width="20.81640625" style="3" customWidth="1"/>
+    <col min="4347" max="4347" width="22.26953125" style="3" customWidth="1"/>
+    <col min="4348" max="4348" width="26.453125" style="3" customWidth="1"/>
+    <col min="4349" max="4349" width="35.7265625" style="3" customWidth="1"/>
+    <col min="4350" max="4350" width="15.7265625" style="3" customWidth="1"/>
+    <col min="4351" max="4351" width="14.1796875" style="3" customWidth="1"/>
+    <col min="4352" max="4352" width="19.7265625" style="3" customWidth="1"/>
+    <col min="4353" max="4353" width="25.81640625" style="3" customWidth="1"/>
+    <col min="4354" max="4354" width="24.54296875" style="3" customWidth="1"/>
+    <col min="4355" max="4355" width="13.1796875" style="3" customWidth="1"/>
+    <col min="4356" max="4356" width="10.453125" style="3" customWidth="1"/>
+    <col min="4357" max="4357" width="26.81640625" style="3" customWidth="1"/>
+    <col min="4358" max="4358" width="22.54296875" style="3" customWidth="1"/>
+    <col min="4359" max="4588" width="9.1796875" style="3" customWidth="1"/>
+    <col min="4589" max="4589" width="27.7265625" style="3" customWidth="1"/>
+    <col min="4590" max="4590" width="42.7265625" style="3" customWidth="1"/>
+    <col min="4591" max="4591" width="40.7265625" style="3" customWidth="1"/>
+    <col min="4592" max="4592" width="25.7265625" style="3" customWidth="1"/>
+    <col min="4593" max="4593" width="30.7265625" style="3" customWidth="1"/>
+    <col min="4594" max="4594" width="15.7265625" style="3" customWidth="1"/>
+    <col min="4595" max="4595" width="21.453125" style="3" customWidth="1"/>
+    <col min="4596" max="4596" width="35.7265625" style="3" customWidth="1"/>
+    <col min="4597" max="4597" width="15.7265625" style="3" customWidth="1"/>
+    <col min="4598" max="4598" width="20.7265625" style="3" customWidth="1"/>
     <col min="4599" max="4599" width="13" style="3" customWidth="1"/>
-    <col min="4600" max="4600" width="13.42578125" style="3" customWidth="1"/>
-    <col min="4601" max="4601" width="18.28515625" style="3" customWidth="1"/>
-    <col min="4602" max="4602" width="20.85546875" style="3" customWidth="1"/>
-    <col min="4603" max="4603" width="22.28515625" style="3" customWidth="1"/>
-    <col min="4604" max="4604" width="26.42578125" style="3" customWidth="1"/>
-    <col min="4605" max="4605" width="35.7109375" style="3" customWidth="1"/>
-    <col min="4606" max="4606" width="15.7109375" style="3" customWidth="1"/>
-    <col min="4607" max="4607" width="14.140625" style="3" customWidth="1"/>
-    <col min="4608" max="4608" width="19.7109375" style="3" customWidth="1"/>
-    <col min="4609" max="4609" width="25.85546875" style="3" customWidth="1"/>
-    <col min="4610" max="4610" width="24.5703125" style="3" customWidth="1"/>
-    <col min="4611" max="4611" width="13.140625" style="3" customWidth="1"/>
-    <col min="4612" max="4612" width="10.42578125" style="3" customWidth="1"/>
-    <col min="4613" max="4613" width="26.85546875" style="3" customWidth="1"/>
-    <col min="4614" max="4614" width="22.5703125" style="3" customWidth="1"/>
-    <col min="4615" max="4844" width="9.140625" style="3" customWidth="1"/>
-    <col min="4845" max="4845" width="27.7109375" style="3" customWidth="1"/>
-    <col min="4846" max="4846" width="42.7109375" style="3" customWidth="1"/>
-    <col min="4847" max="4847" width="40.7109375" style="3" customWidth="1"/>
-    <col min="4848" max="4848" width="25.7109375" style="3" customWidth="1"/>
-    <col min="4849" max="4849" width="30.7109375" style="3" customWidth="1"/>
-    <col min="4850" max="4850" width="15.7109375" style="3" customWidth="1"/>
-    <col min="4851" max="4851" width="21.42578125" style="3" customWidth="1"/>
-    <col min="4852" max="4852" width="35.7109375" style="3" customWidth="1"/>
-    <col min="4853" max="4853" width="15.7109375" style="3" customWidth="1"/>
-    <col min="4854" max="4854" width="20.7109375" style="3" customWidth="1"/>
+    <col min="4600" max="4600" width="13.453125" style="3" customWidth="1"/>
+    <col min="4601" max="4601" width="18.26953125" style="3" customWidth="1"/>
+    <col min="4602" max="4602" width="20.81640625" style="3" customWidth="1"/>
+    <col min="4603" max="4603" width="22.26953125" style="3" customWidth="1"/>
+    <col min="4604" max="4604" width="26.453125" style="3" customWidth="1"/>
+    <col min="4605" max="4605" width="35.7265625" style="3" customWidth="1"/>
+    <col min="4606" max="4606" width="15.7265625" style="3" customWidth="1"/>
+    <col min="4607" max="4607" width="14.1796875" style="3" customWidth="1"/>
+    <col min="4608" max="4608" width="19.7265625" style="3" customWidth="1"/>
+    <col min="4609" max="4609" width="25.81640625" style="3" customWidth="1"/>
+    <col min="4610" max="4610" width="24.54296875" style="3" customWidth="1"/>
+    <col min="4611" max="4611" width="13.1796875" style="3" customWidth="1"/>
+    <col min="4612" max="4612" width="10.453125" style="3" customWidth="1"/>
+    <col min="4613" max="4613" width="26.81640625" style="3" customWidth="1"/>
+    <col min="4614" max="4614" width="22.54296875" style="3" customWidth="1"/>
+    <col min="4615" max="4844" width="9.1796875" style="3" customWidth="1"/>
+    <col min="4845" max="4845" width="27.7265625" style="3" customWidth="1"/>
+    <col min="4846" max="4846" width="42.7265625" style="3" customWidth="1"/>
+    <col min="4847" max="4847" width="40.7265625" style="3" customWidth="1"/>
+    <col min="4848" max="4848" width="25.7265625" style="3" customWidth="1"/>
+    <col min="4849" max="4849" width="30.7265625" style="3" customWidth="1"/>
+    <col min="4850" max="4850" width="15.7265625" style="3" customWidth="1"/>
+    <col min="4851" max="4851" width="21.453125" style="3" customWidth="1"/>
+    <col min="4852" max="4852" width="35.7265625" style="3" customWidth="1"/>
+    <col min="4853" max="4853" width="15.7265625" style="3" customWidth="1"/>
+    <col min="4854" max="4854" width="20.7265625" style="3" customWidth="1"/>
     <col min="4855" max="4855" width="13" style="3" customWidth="1"/>
-    <col min="4856" max="4856" width="13.42578125" style="3" customWidth="1"/>
-    <col min="4857" max="4857" width="18.28515625" style="3" customWidth="1"/>
-    <col min="4858" max="4858" width="20.85546875" style="3" customWidth="1"/>
-    <col min="4859" max="4859" width="22.28515625" style="3" customWidth="1"/>
-    <col min="4860" max="4860" width="26.42578125" style="3" customWidth="1"/>
-    <col min="4861" max="4861" width="35.7109375" style="3" customWidth="1"/>
-    <col min="4862" max="4862" width="15.7109375" style="3" customWidth="1"/>
-    <col min="4863" max="4863" width="14.140625" style="3" customWidth="1"/>
-    <col min="4864" max="4864" width="19.7109375" style="3" customWidth="1"/>
-    <col min="4865" max="4865" width="25.85546875" style="3" customWidth="1"/>
-    <col min="4866" max="4866" width="24.5703125" style="3" customWidth="1"/>
-    <col min="4867" max="4867" width="13.140625" style="3" customWidth="1"/>
-    <col min="4868" max="4868" width="10.42578125" style="3" customWidth="1"/>
-    <col min="4869" max="4869" width="26.85546875" style="3" customWidth="1"/>
-    <col min="4870" max="4870" width="22.5703125" style="3" customWidth="1"/>
-    <col min="4871" max="5100" width="9.140625" style="3" customWidth="1"/>
-    <col min="5101" max="5101" width="27.7109375" style="3" customWidth="1"/>
-    <col min="5102" max="5102" width="42.7109375" style="3" customWidth="1"/>
-    <col min="5103" max="5103" width="40.7109375" style="3" customWidth="1"/>
-    <col min="5104" max="5104" width="25.7109375" style="3" customWidth="1"/>
-    <col min="5105" max="5105" width="30.7109375" style="3" customWidth="1"/>
-    <col min="5106" max="5106" width="15.7109375" style="3" customWidth="1"/>
-    <col min="5107" max="5107" width="21.42578125" style="3" customWidth="1"/>
-    <col min="5108" max="5108" width="35.7109375" style="3" customWidth="1"/>
-    <col min="5109" max="5109" width="15.7109375" style="3" customWidth="1"/>
-    <col min="5110" max="5110" width="20.7109375" style="3" customWidth="1"/>
+    <col min="4856" max="4856" width="13.453125" style="3" customWidth="1"/>
+    <col min="4857" max="4857" width="18.26953125" style="3" customWidth="1"/>
+    <col min="4858" max="4858" width="20.81640625" style="3" customWidth="1"/>
+    <col min="4859" max="4859" width="22.26953125" style="3" customWidth="1"/>
+    <col min="4860" max="4860" width="26.453125" style="3" customWidth="1"/>
+    <col min="4861" max="4861" width="35.7265625" style="3" customWidth="1"/>
+    <col min="4862" max="4862" width="15.7265625" style="3" customWidth="1"/>
+    <col min="4863" max="4863" width="14.1796875" style="3" customWidth="1"/>
+    <col min="4864" max="4864" width="19.7265625" style="3" customWidth="1"/>
+    <col min="4865" max="4865" width="25.81640625" style="3" customWidth="1"/>
+    <col min="4866" max="4866" width="24.54296875" style="3" customWidth="1"/>
+    <col min="4867" max="4867" width="13.1796875" style="3" customWidth="1"/>
+    <col min="4868" max="4868" width="10.453125" style="3" customWidth="1"/>
+    <col min="4869" max="4869" width="26.81640625" style="3" customWidth="1"/>
+    <col min="4870" max="4870" width="22.54296875" style="3" customWidth="1"/>
+    <col min="4871" max="5100" width="9.1796875" style="3" customWidth="1"/>
+    <col min="5101" max="5101" width="27.7265625" style="3" customWidth="1"/>
+    <col min="5102" max="5102" width="42.7265625" style="3" customWidth="1"/>
+    <col min="5103" max="5103" width="40.7265625" style="3" customWidth="1"/>
+    <col min="5104" max="5104" width="25.7265625" style="3" customWidth="1"/>
+    <col min="5105" max="5105" width="30.7265625" style="3" customWidth="1"/>
+    <col min="5106" max="5106" width="15.7265625" style="3" customWidth="1"/>
+    <col min="5107" max="5107" width="21.453125" style="3" customWidth="1"/>
+    <col min="5108" max="5108" width="35.7265625" style="3" customWidth="1"/>
+    <col min="5109" max="5109" width="15.7265625" style="3" customWidth="1"/>
+    <col min="5110" max="5110" width="20.7265625" style="3" customWidth="1"/>
     <col min="5111" max="5111" width="13" style="3" customWidth="1"/>
-    <col min="5112" max="5112" width="13.42578125" style="3" customWidth="1"/>
-    <col min="5113" max="5113" width="18.28515625" style="3" customWidth="1"/>
-    <col min="5114" max="5114" width="20.85546875" style="3" customWidth="1"/>
-    <col min="5115" max="5115" width="22.28515625" style="3" customWidth="1"/>
-    <col min="5116" max="5116" width="26.42578125" style="3" customWidth="1"/>
-    <col min="5117" max="5117" width="35.7109375" style="3" customWidth="1"/>
-    <col min="5118" max="5118" width="15.7109375" style="3" customWidth="1"/>
-    <col min="5119" max="5119" width="14.140625" style="3" customWidth="1"/>
-    <col min="5120" max="5120" width="19.7109375" style="3" customWidth="1"/>
-    <col min="5121" max="5121" width="25.85546875" style="3" customWidth="1"/>
-    <col min="5122" max="5122" width="24.5703125" style="3" customWidth="1"/>
-    <col min="5123" max="5123" width="13.140625" style="3" customWidth="1"/>
-    <col min="5124" max="5124" width="10.42578125" style="3" customWidth="1"/>
-    <col min="5125" max="5125" width="26.85546875" style="3" customWidth="1"/>
-    <col min="5126" max="5126" width="22.5703125" style="3" customWidth="1"/>
-    <col min="5127" max="5356" width="9.140625" style="3" customWidth="1"/>
-    <col min="5357" max="5357" width="27.7109375" style="3" customWidth="1"/>
-    <col min="5358" max="5358" width="42.7109375" style="3" customWidth="1"/>
-    <col min="5359" max="5359" width="40.7109375" style="3" customWidth="1"/>
-    <col min="5360" max="5360" width="25.7109375" style="3" customWidth="1"/>
-    <col min="5361" max="5361" width="30.7109375" style="3" customWidth="1"/>
-    <col min="5362" max="5362" width="15.7109375" style="3" customWidth="1"/>
-    <col min="5363" max="5363" width="21.42578125" style="3" customWidth="1"/>
-    <col min="5364" max="5364" width="35.7109375" style="3" customWidth="1"/>
-    <col min="5365" max="5365" width="15.7109375" style="3" customWidth="1"/>
-    <col min="5366" max="5366" width="20.7109375" style="3" customWidth="1"/>
+    <col min="5112" max="5112" width="13.453125" style="3" customWidth="1"/>
+    <col min="5113" max="5113" width="18.26953125" style="3" customWidth="1"/>
+    <col min="5114" max="5114" width="20.81640625" style="3" customWidth="1"/>
+    <col min="5115" max="5115" width="22.26953125" style="3" customWidth="1"/>
+    <col min="5116" max="5116" width="26.453125" style="3" customWidth="1"/>
+    <col min="5117" max="5117" width="35.7265625" style="3" customWidth="1"/>
+    <col min="5118" max="5118" width="15.7265625" style="3" customWidth="1"/>
+    <col min="5119" max="5119" width="14.1796875" style="3" customWidth="1"/>
+    <col min="5120" max="5120" width="19.7265625" style="3" customWidth="1"/>
+    <col min="5121" max="5121" width="25.81640625" style="3" customWidth="1"/>
+    <col min="5122" max="5122" width="24.54296875" style="3" customWidth="1"/>
+    <col min="5123" max="5123" width="13.1796875" style="3" customWidth="1"/>
+    <col min="5124" max="5124" width="10.453125" style="3" customWidth="1"/>
+    <col min="5125" max="5125" width="26.81640625" style="3" customWidth="1"/>
+    <col min="5126" max="5126" width="22.54296875" style="3" customWidth="1"/>
+    <col min="5127" max="5356" width="9.1796875" style="3" customWidth="1"/>
+    <col min="5357" max="5357" width="27.7265625" style="3" customWidth="1"/>
+    <col min="5358" max="5358" width="42.7265625" style="3" customWidth="1"/>
+    <col min="5359" max="5359" width="40.7265625" style="3" customWidth="1"/>
+    <col min="5360" max="5360" width="25.7265625" style="3" customWidth="1"/>
+    <col min="5361" max="5361" width="30.7265625" style="3" customWidth="1"/>
+    <col min="5362" max="5362" width="15.7265625" style="3" customWidth="1"/>
+    <col min="5363" max="5363" width="21.453125" style="3" customWidth="1"/>
+    <col min="5364" max="5364" width="35.7265625" style="3" customWidth="1"/>
+    <col min="5365" max="5365" width="15.7265625" style="3" customWidth="1"/>
+    <col min="5366" max="5366" width="20.7265625" style="3" customWidth="1"/>
     <col min="5367" max="5367" width="13" style="3" customWidth="1"/>
-    <col min="5368" max="5368" width="13.42578125" style="3" customWidth="1"/>
-    <col min="5369" max="5369" width="18.28515625" style="3" customWidth="1"/>
-    <col min="5370" max="5370" width="20.85546875" style="3" customWidth="1"/>
-    <col min="5371" max="5371" width="22.28515625" style="3" customWidth="1"/>
-    <col min="5372" max="5372" width="26.42578125" style="3" customWidth="1"/>
-    <col min="5373" max="5373" width="35.7109375" style="3" customWidth="1"/>
-    <col min="5374" max="5374" width="15.7109375" style="3" customWidth="1"/>
-    <col min="5375" max="5375" width="14.140625" style="3" customWidth="1"/>
-    <col min="5376" max="5376" width="19.7109375" style="3" customWidth="1"/>
-    <col min="5377" max="5377" width="25.85546875" style="3" customWidth="1"/>
-    <col min="5378" max="5378" width="24.5703125" style="3" customWidth="1"/>
-    <col min="5379" max="5379" width="13.140625" style="3" customWidth="1"/>
-    <col min="5380" max="5380" width="10.42578125" style="3" customWidth="1"/>
-    <col min="5381" max="5381" width="26.85546875" style="3" customWidth="1"/>
-    <col min="5382" max="5382" width="22.5703125" style="3" customWidth="1"/>
-    <col min="5383" max="5612" width="9.140625" style="3" customWidth="1"/>
-    <col min="5613" max="5613" width="27.7109375" style="3" customWidth="1"/>
-    <col min="5614" max="5614" width="42.7109375" style="3" customWidth="1"/>
-    <col min="5615" max="5615" width="40.7109375" style="3" customWidth="1"/>
-    <col min="5616" max="5616" width="25.7109375" style="3" customWidth="1"/>
-    <col min="5617" max="5617" width="30.7109375" style="3" customWidth="1"/>
-    <col min="5618" max="5618" width="15.7109375" style="3" customWidth="1"/>
-    <col min="5619" max="5619" width="21.42578125" style="3" customWidth="1"/>
-    <col min="5620" max="5620" width="35.7109375" style="3" customWidth="1"/>
-    <col min="5621" max="5621" width="15.7109375" style="3" customWidth="1"/>
-    <col min="5622" max="5622" width="20.7109375" style="3" customWidth="1"/>
+    <col min="5368" max="5368" width="13.453125" style="3" customWidth="1"/>
+    <col min="5369" max="5369" width="18.26953125" style="3" customWidth="1"/>
+    <col min="5370" max="5370" width="20.81640625" style="3" customWidth="1"/>
+    <col min="5371" max="5371" width="22.26953125" style="3" customWidth="1"/>
+    <col min="5372" max="5372" width="26.453125" style="3" customWidth="1"/>
+    <col min="5373" max="5373" width="35.7265625" style="3" customWidth="1"/>
+    <col min="5374" max="5374" width="15.7265625" style="3" customWidth="1"/>
+    <col min="5375" max="5375" width="14.1796875" style="3" customWidth="1"/>
+    <col min="5376" max="5376" width="19.7265625" style="3" customWidth="1"/>
+    <col min="5377" max="5377" width="25.81640625" style="3" customWidth="1"/>
+    <col min="5378" max="5378" width="24.54296875" style="3" customWidth="1"/>
+    <col min="5379" max="5379" width="13.1796875" style="3" customWidth="1"/>
+    <col min="5380" max="5380" width="10.453125" style="3" customWidth="1"/>
+    <col min="5381" max="5381" width="26.81640625" style="3" customWidth="1"/>
+    <col min="5382" max="5382" width="22.54296875" style="3" customWidth="1"/>
+    <col min="5383" max="5612" width="9.1796875" style="3" customWidth="1"/>
+    <col min="5613" max="5613" width="27.7265625" style="3" customWidth="1"/>
+    <col min="5614" max="5614" width="42.7265625" style="3" customWidth="1"/>
+    <col min="5615" max="5615" width="40.7265625" style="3" customWidth="1"/>
+    <col min="5616" max="5616" width="25.7265625" style="3" customWidth="1"/>
+    <col min="5617" max="5617" width="30.7265625" style="3" customWidth="1"/>
+    <col min="5618" max="5618" width="15.7265625" style="3" customWidth="1"/>
+    <col min="5619" max="5619" width="21.453125" style="3" customWidth="1"/>
+    <col min="5620" max="5620" width="35.7265625" style="3" customWidth="1"/>
+    <col min="5621" max="5621" width="15.7265625" style="3" customWidth="1"/>
+    <col min="5622" max="5622" width="20.7265625" style="3" customWidth="1"/>
     <col min="5623" max="5623" width="13" style="3" customWidth="1"/>
-    <col min="5624" max="5624" width="13.42578125" style="3" customWidth="1"/>
-    <col min="5625" max="5625" width="18.28515625" style="3" customWidth="1"/>
-    <col min="5626" max="5626" width="20.85546875" style="3" customWidth="1"/>
-    <col min="5627" max="5627" width="22.28515625" style="3" customWidth="1"/>
-    <col min="5628" max="5628" width="26.42578125" style="3" customWidth="1"/>
-    <col min="5629" max="5629" width="35.7109375" style="3" customWidth="1"/>
-    <col min="5630" max="5630" width="15.7109375" style="3" customWidth="1"/>
-    <col min="5631" max="5631" width="14.140625" style="3" customWidth="1"/>
-    <col min="5632" max="5632" width="19.7109375" style="3" customWidth="1"/>
-    <col min="5633" max="5633" width="25.85546875" style="3" customWidth="1"/>
-    <col min="5634" max="5634" width="24.5703125" style="3" customWidth="1"/>
-    <col min="5635" max="5635" width="13.140625" style="3" customWidth="1"/>
-    <col min="5636" max="5636" width="10.42578125" style="3" customWidth="1"/>
-    <col min="5637" max="5637" width="26.85546875" style="3" customWidth="1"/>
-    <col min="5638" max="5638" width="22.5703125" style="3" customWidth="1"/>
-    <col min="5639" max="5868" width="9.140625" style="3" customWidth="1"/>
-    <col min="5869" max="5869" width="27.7109375" style="3" customWidth="1"/>
-    <col min="5870" max="5870" width="42.7109375" style="3" customWidth="1"/>
-    <col min="5871" max="5871" width="40.7109375" style="3" customWidth="1"/>
-    <col min="5872" max="5872" width="25.7109375" style="3" customWidth="1"/>
-    <col min="5873" max="5873" width="30.7109375" style="3" customWidth="1"/>
-    <col min="5874" max="5874" width="15.7109375" style="3" customWidth="1"/>
-    <col min="5875" max="5875" width="21.42578125" style="3" customWidth="1"/>
-    <col min="5876" max="5876" width="35.7109375" style="3" customWidth="1"/>
-    <col min="5877" max="5877" width="15.7109375" style="3" customWidth="1"/>
-    <col min="5878" max="5878" width="20.7109375" style="3" customWidth="1"/>
+    <col min="5624" max="5624" width="13.453125" style="3" customWidth="1"/>
+    <col min="5625" max="5625" width="18.26953125" style="3" customWidth="1"/>
+    <col min="5626" max="5626" width="20.81640625" style="3" customWidth="1"/>
+    <col min="5627" max="5627" width="22.26953125" style="3" customWidth="1"/>
+    <col min="5628" max="5628" width="26.453125" style="3" customWidth="1"/>
+    <col min="5629" max="5629" width="35.7265625" style="3" customWidth="1"/>
+    <col min="5630" max="5630" width="15.7265625" style="3" customWidth="1"/>
+    <col min="5631" max="5631" width="14.1796875" style="3" customWidth="1"/>
+    <col min="5632" max="5632" width="19.7265625" style="3" customWidth="1"/>
+    <col min="5633" max="5633" width="25.81640625" style="3" customWidth="1"/>
+    <col min="5634" max="5634" width="24.54296875" style="3" customWidth="1"/>
+    <col min="5635" max="5635" width="13.1796875" style="3" customWidth="1"/>
+    <col min="5636" max="5636" width="10.453125" style="3" customWidth="1"/>
+    <col min="5637" max="5637" width="26.81640625" style="3" customWidth="1"/>
+    <col min="5638" max="5638" width="22.54296875" style="3" customWidth="1"/>
+    <col min="5639" max="5868" width="9.1796875" style="3" customWidth="1"/>
+    <col min="5869" max="5869" width="27.7265625" style="3" customWidth="1"/>
+    <col min="5870" max="5870" width="42.7265625" style="3" customWidth="1"/>
+    <col min="5871" max="5871" width="40.7265625" style="3" customWidth="1"/>
+    <col min="5872" max="5872" width="25.7265625" style="3" customWidth="1"/>
+    <col min="5873" max="5873" width="30.7265625" style="3" customWidth="1"/>
+    <col min="5874" max="5874" width="15.7265625" style="3" customWidth="1"/>
+    <col min="5875" max="5875" width="21.453125" style="3" customWidth="1"/>
+    <col min="5876" max="5876" width="35.7265625" style="3" customWidth="1"/>
+    <col min="5877" max="5877" width="15.7265625" style="3" customWidth="1"/>
+    <col min="5878" max="5878" width="20.7265625" style="3" customWidth="1"/>
     <col min="5879" max="5879" width="13" style="3" customWidth="1"/>
-    <col min="5880" max="5880" width="13.42578125" style="3" customWidth="1"/>
-    <col min="5881" max="5881" width="18.28515625" style="3" customWidth="1"/>
-    <col min="5882" max="5882" width="20.85546875" style="3" customWidth="1"/>
-    <col min="5883" max="5883" width="22.28515625" style="3" customWidth="1"/>
-    <col min="5884" max="5884" width="26.42578125" style="3" customWidth="1"/>
-    <col min="5885" max="5885" width="35.7109375" style="3" customWidth="1"/>
-    <col min="5886" max="5886" width="15.7109375" style="3" customWidth="1"/>
-    <col min="5887" max="5887" width="14.140625" style="3" customWidth="1"/>
-    <col min="5888" max="5888" width="19.7109375" style="3" customWidth="1"/>
-    <col min="5889" max="5889" width="25.85546875" style="3" customWidth="1"/>
-    <col min="5890" max="5890" width="24.5703125" style="3" customWidth="1"/>
-    <col min="5891" max="5891" width="13.140625" style="3" customWidth="1"/>
-    <col min="5892" max="5892" width="10.42578125" style="3" customWidth="1"/>
-    <col min="5893" max="5893" width="26.85546875" style="3" customWidth="1"/>
-    <col min="5894" max="5894" width="22.5703125" style="3" customWidth="1"/>
-    <col min="5895" max="6124" width="9.140625" style="3" customWidth="1"/>
-    <col min="6125" max="6125" width="27.7109375" style="3" customWidth="1"/>
-    <col min="6126" max="6126" width="42.7109375" style="3" customWidth="1"/>
-    <col min="6127" max="6127" width="40.7109375" style="3" customWidth="1"/>
-    <col min="6128" max="6128" width="25.7109375" style="3" customWidth="1"/>
-    <col min="6129" max="6129" width="30.7109375" style="3" customWidth="1"/>
-    <col min="6130" max="6130" width="15.7109375" style="3" customWidth="1"/>
-    <col min="6131" max="6131" width="21.42578125" style="3" customWidth="1"/>
-    <col min="6132" max="6132" width="35.7109375" style="3" customWidth="1"/>
-    <col min="6133" max="6133" width="15.7109375" style="3" customWidth="1"/>
-    <col min="6134" max="6134" width="20.7109375" style="3" customWidth="1"/>
+    <col min="5880" max="5880" width="13.453125" style="3" customWidth="1"/>
+    <col min="5881" max="5881" width="18.26953125" style="3" customWidth="1"/>
+    <col min="5882" max="5882" width="20.81640625" style="3" customWidth="1"/>
+    <col min="5883" max="5883" width="22.26953125" style="3" customWidth="1"/>
+    <col min="5884" max="5884" width="26.453125" style="3" customWidth="1"/>
+    <col min="5885" max="5885" width="35.7265625" style="3" customWidth="1"/>
+    <col min="5886" max="5886" width="15.7265625" style="3" customWidth="1"/>
+    <col min="5887" max="5887" width="14.1796875" style="3" customWidth="1"/>
+    <col min="5888" max="5888" width="19.7265625" style="3" customWidth="1"/>
+    <col min="5889" max="5889" width="25.81640625" style="3" customWidth="1"/>
+    <col min="5890" max="5890" width="24.54296875" style="3" customWidth="1"/>
+    <col min="5891" max="5891" width="13.1796875" style="3" customWidth="1"/>
+    <col min="5892" max="5892" width="10.453125" style="3" customWidth="1"/>
+    <col min="5893" max="5893" width="26.81640625" style="3" customWidth="1"/>
+    <col min="5894" max="5894" width="22.54296875" style="3" customWidth="1"/>
+    <col min="5895" max="6124" width="9.1796875" style="3" customWidth="1"/>
+    <col min="6125" max="6125" width="27.7265625" style="3" customWidth="1"/>
+    <col min="6126" max="6126" width="42.7265625" style="3" customWidth="1"/>
+    <col min="6127" max="6127" width="40.7265625" style="3" customWidth="1"/>
+    <col min="6128" max="6128" width="25.7265625" style="3" customWidth="1"/>
+    <col min="6129" max="6129" width="30.7265625" style="3" customWidth="1"/>
+    <col min="6130" max="6130" width="15.7265625" style="3" customWidth="1"/>
+    <col min="6131" max="6131" width="21.453125" style="3" customWidth="1"/>
+    <col min="6132" max="6132" width="35.7265625" style="3" customWidth="1"/>
+    <col min="6133" max="6133" width="15.7265625" style="3" customWidth="1"/>
+    <col min="6134" max="6134" width="20.7265625" style="3" customWidth="1"/>
     <col min="6135" max="6135" width="13" style="3" customWidth="1"/>
-    <col min="6136" max="6136" width="13.42578125" style="3" customWidth="1"/>
-    <col min="6137" max="6137" width="18.28515625" style="3" customWidth="1"/>
-    <col min="6138" max="6138" width="20.85546875" style="3" customWidth="1"/>
-    <col min="6139" max="6139" width="22.28515625" style="3" customWidth="1"/>
-    <col min="6140" max="6140" width="26.42578125" style="3" customWidth="1"/>
-    <col min="6141" max="6141" width="35.7109375" style="3" customWidth="1"/>
-    <col min="6142" max="6142" width="15.7109375" style="3" customWidth="1"/>
-    <col min="6143" max="6143" width="14.140625" style="3" customWidth="1"/>
-    <col min="6144" max="6144" width="19.7109375" style="3" customWidth="1"/>
-    <col min="6145" max="6145" width="25.85546875" style="3" customWidth="1"/>
-    <col min="6146" max="6146" width="24.5703125" style="3" customWidth="1"/>
-    <col min="6147" max="6147" width="13.140625" style="3" customWidth="1"/>
-    <col min="6148" max="6148" width="10.42578125" style="3" customWidth="1"/>
-    <col min="6149" max="6149" width="26.85546875" style="3" customWidth="1"/>
-    <col min="6150" max="6150" width="22.5703125" style="3" customWidth="1"/>
-    <col min="6151" max="6380" width="9.140625" style="3" customWidth="1"/>
-    <col min="6381" max="6381" width="27.7109375" style="3" customWidth="1"/>
-    <col min="6382" max="6382" width="42.7109375" style="3" customWidth="1"/>
-    <col min="6383" max="6383" width="40.7109375" style="3" customWidth="1"/>
-    <col min="6384" max="6384" width="25.7109375" style="3" customWidth="1"/>
-    <col min="6385" max="6385" width="30.7109375" style="3" customWidth="1"/>
-    <col min="6386" max="6386" width="15.7109375" style="3" customWidth="1"/>
-    <col min="6387" max="6387" width="21.42578125" style="3" customWidth="1"/>
-    <col min="6388" max="6388" width="35.7109375" style="3" customWidth="1"/>
-    <col min="6389" max="6389" width="15.7109375" style="3" customWidth="1"/>
-    <col min="6390" max="6390" width="20.7109375" style="3" customWidth="1"/>
+    <col min="6136" max="6136" width="13.453125" style="3" customWidth="1"/>
+    <col min="6137" max="6137" width="18.26953125" style="3" customWidth="1"/>
+    <col min="6138" max="6138" width="20.81640625" style="3" customWidth="1"/>
+    <col min="6139" max="6139" width="22.26953125" style="3" customWidth="1"/>
+    <col min="6140" max="6140" width="26.453125" style="3" customWidth="1"/>
+    <col min="6141" max="6141" width="35.7265625" style="3" customWidth="1"/>
+    <col min="6142" max="6142" width="15.7265625" style="3" customWidth="1"/>
+    <col min="6143" max="6143" width="14.1796875" style="3" customWidth="1"/>
+    <col min="6144" max="6144" width="19.7265625" style="3" customWidth="1"/>
+    <col min="6145" max="6145" width="25.81640625" style="3" customWidth="1"/>
+    <col min="6146" max="6146" width="24.54296875" style="3" customWidth="1"/>
+    <col min="6147" max="6147" width="13.1796875" style="3" customWidth="1"/>
+    <col min="6148" max="6148" width="10.453125" style="3" customWidth="1"/>
+    <col min="6149" max="6149" width="26.81640625" style="3" customWidth="1"/>
+    <col min="6150" max="6150" width="22.54296875" style="3" customWidth="1"/>
+    <col min="6151" max="6380" width="9.1796875" style="3" customWidth="1"/>
+    <col min="6381" max="6381" width="27.7265625" style="3" customWidth="1"/>
+    <col min="6382" max="6382" width="42.7265625" style="3" customWidth="1"/>
+    <col min="6383" max="6383" width="40.7265625" style="3" customWidth="1"/>
+    <col min="6384" max="6384" width="25.7265625" style="3" customWidth="1"/>
+    <col min="6385" max="6385" width="30.7265625" style="3" customWidth="1"/>
+    <col min="6386" max="6386" width="15.7265625" style="3" customWidth="1"/>
+    <col min="6387" max="6387" width="21.453125" style="3" customWidth="1"/>
+    <col min="6388" max="6388" width="35.7265625" style="3" customWidth="1"/>
+    <col min="6389" max="6389" width="15.7265625" style="3" customWidth="1"/>
+    <col min="6390" max="6390" width="20.7265625" style="3" customWidth="1"/>
     <col min="6391" max="6391" width="13" style="3" customWidth="1"/>
-    <col min="6392" max="6392" width="13.42578125" style="3" customWidth="1"/>
-    <col min="6393" max="6393" width="18.28515625" style="3" customWidth="1"/>
-    <col min="6394" max="6394" width="20.85546875" style="3" customWidth="1"/>
-    <col min="6395" max="6395" width="22.28515625" style="3" customWidth="1"/>
-    <col min="6396" max="6396" width="26.42578125" style="3" customWidth="1"/>
-    <col min="6397" max="6397" width="35.7109375" style="3" customWidth="1"/>
-    <col min="6398" max="6398" width="15.7109375" style="3" customWidth="1"/>
-    <col min="6399" max="6399" width="14.140625" style="3" customWidth="1"/>
-    <col min="6400" max="6400" width="19.7109375" style="3" customWidth="1"/>
-    <col min="6401" max="6401" width="25.85546875" style="3" customWidth="1"/>
-    <col min="6402" max="6402" width="24.5703125" style="3" customWidth="1"/>
-    <col min="6403" max="6403" width="13.140625" style="3" customWidth="1"/>
-    <col min="6404" max="6404" width="10.42578125" style="3" customWidth="1"/>
-    <col min="6405" max="6405" width="26.85546875" style="3" customWidth="1"/>
-    <col min="6406" max="6406" width="22.5703125" style="3" customWidth="1"/>
-    <col min="6407" max="6636" width="9.140625" style="3" customWidth="1"/>
-    <col min="6637" max="6637" width="27.7109375" style="3" customWidth="1"/>
-    <col min="6638" max="6638" width="42.7109375" style="3" customWidth="1"/>
-    <col min="6639" max="6639" width="40.7109375" style="3" customWidth="1"/>
-    <col min="6640" max="6640" width="25.7109375" style="3" customWidth="1"/>
-    <col min="6641" max="6641" width="30.7109375" style="3" customWidth="1"/>
-    <col min="6642" max="6642" width="15.7109375" style="3" customWidth="1"/>
-    <col min="6643" max="6643" width="21.42578125" style="3" customWidth="1"/>
-    <col min="6644" max="6644" width="35.7109375" style="3" customWidth="1"/>
-    <col min="6645" max="6645" width="15.7109375" style="3" customWidth="1"/>
-    <col min="6646" max="6646" width="20.7109375" style="3" customWidth="1"/>
+    <col min="6392" max="6392" width="13.453125" style="3" customWidth="1"/>
+    <col min="6393" max="6393" width="18.26953125" style="3" customWidth="1"/>
+    <col min="6394" max="6394" width="20.81640625" style="3" customWidth="1"/>
+    <col min="6395" max="6395" width="22.26953125" style="3" customWidth="1"/>
+    <col min="6396" max="6396" width="26.453125" style="3" customWidth="1"/>
+    <col min="6397" max="6397" width="35.7265625" style="3" customWidth="1"/>
+    <col min="6398" max="6398" width="15.7265625" style="3" customWidth="1"/>
+    <col min="6399" max="6399" width="14.1796875" style="3" customWidth="1"/>
+    <col min="6400" max="6400" width="19.7265625" style="3" customWidth="1"/>
+    <col min="6401" max="6401" width="25.81640625" style="3" customWidth="1"/>
+    <col min="6402" max="6402" width="24.54296875" style="3" customWidth="1"/>
+    <col min="6403" max="6403" width="13.1796875" style="3" customWidth="1"/>
+    <col min="6404" max="6404" width="10.453125" style="3" customWidth="1"/>
+    <col min="6405" max="6405" width="26.81640625" style="3" customWidth="1"/>
+    <col min="6406" max="6406" width="22.54296875" style="3" customWidth="1"/>
+    <col min="6407" max="6636" width="9.1796875" style="3" customWidth="1"/>
+    <col min="6637" max="6637" width="27.7265625" style="3" customWidth="1"/>
+    <col min="6638" max="6638" width="42.7265625" style="3" customWidth="1"/>
+    <col min="6639" max="6639" width="40.7265625" style="3" customWidth="1"/>
+    <col min="6640" max="6640" width="25.7265625" style="3" customWidth="1"/>
+    <col min="6641" max="6641" width="30.7265625" style="3" customWidth="1"/>
+    <col min="6642" max="6642" width="15.7265625" style="3" customWidth="1"/>
+    <col min="6643" max="6643" width="21.453125" style="3" customWidth="1"/>
+    <col min="6644" max="6644" width="35.7265625" style="3" customWidth="1"/>
+    <col min="6645" max="6645" width="15.7265625" style="3" customWidth="1"/>
+    <col min="6646" max="6646" width="20.7265625" style="3" customWidth="1"/>
     <col min="6647" max="6647" width="13" style="3" customWidth="1"/>
-    <col min="6648" max="6648" width="13.42578125" style="3" customWidth="1"/>
-    <col min="6649" max="6649" width="18.28515625" style="3" customWidth="1"/>
-    <col min="6650" max="6650" width="20.85546875" style="3" customWidth="1"/>
-    <col min="6651" max="6651" width="22.28515625" style="3" customWidth="1"/>
-    <col min="6652" max="6652" width="26.42578125" style="3" customWidth="1"/>
-    <col min="6653" max="6653" width="35.7109375" style="3" customWidth="1"/>
-    <col min="6654" max="6654" width="15.7109375" style="3" customWidth="1"/>
-    <col min="6655" max="6655" width="14.140625" style="3" customWidth="1"/>
-    <col min="6656" max="6656" width="19.7109375" style="3" customWidth="1"/>
-    <col min="6657" max="6657" width="25.85546875" style="3" customWidth="1"/>
-    <col min="6658" max="6658" width="24.5703125" style="3" customWidth="1"/>
-    <col min="6659" max="6659" width="13.140625" style="3" customWidth="1"/>
-    <col min="6660" max="6660" width="10.42578125" style="3" customWidth="1"/>
-    <col min="6661" max="6661" width="26.85546875" style="3" customWidth="1"/>
-    <col min="6662" max="6662" width="22.5703125" style="3" customWidth="1"/>
-    <col min="6663" max="6892" width="9.140625" style="3" customWidth="1"/>
-    <col min="6893" max="6893" width="27.7109375" style="3" customWidth="1"/>
-    <col min="6894" max="6894" width="42.7109375" style="3" customWidth="1"/>
-    <col min="6895" max="6895" width="40.7109375" style="3" customWidth="1"/>
-    <col min="6896" max="6896" width="25.7109375" style="3" customWidth="1"/>
-    <col min="6897" max="6897" width="30.7109375" style="3" customWidth="1"/>
-    <col min="6898" max="6898" width="15.7109375" style="3" customWidth="1"/>
-    <col min="6899" max="6899" width="21.42578125" style="3" customWidth="1"/>
-    <col min="6900" max="6900" width="35.7109375" style="3" customWidth="1"/>
-    <col min="6901" max="6901" width="15.7109375" style="3" customWidth="1"/>
-    <col min="6902" max="6902" width="20.7109375" style="3" customWidth="1"/>
+    <col min="6648" max="6648" width="13.453125" style="3" customWidth="1"/>
+    <col min="6649" max="6649" width="18.26953125" style="3" customWidth="1"/>
+    <col min="6650" max="6650" width="20.81640625" style="3" customWidth="1"/>
+    <col min="6651" max="6651" width="22.26953125" style="3" customWidth="1"/>
+    <col min="6652" max="6652" width="26.453125" style="3" customWidth="1"/>
+    <col min="6653" max="6653" width="35.7265625" style="3" customWidth="1"/>
+    <col min="6654" max="6654" width="15.7265625" style="3" customWidth="1"/>
+    <col min="6655" max="6655" width="14.1796875" style="3" customWidth="1"/>
+    <col min="6656" max="6656" width="19.7265625" style="3" customWidth="1"/>
+    <col min="6657" max="6657" width="25.81640625" style="3" customWidth="1"/>
+    <col min="6658" max="6658" width="24.54296875" style="3" customWidth="1"/>
+    <col min="6659" max="6659" width="13.1796875" style="3" customWidth="1"/>
+    <col min="6660" max="6660" width="10.453125" style="3" customWidth="1"/>
+    <col min="6661" max="6661" width="26.81640625" style="3" customWidth="1"/>
+    <col min="6662" max="6662" width="22.54296875" style="3" customWidth="1"/>
+    <col min="6663" max="6892" width="9.1796875" style="3" customWidth="1"/>
+    <col min="6893" max="6893" width="27.7265625" style="3" customWidth="1"/>
+    <col min="6894" max="6894" width="42.7265625" style="3" customWidth="1"/>
+    <col min="6895" max="6895" width="40.7265625" style="3" customWidth="1"/>
+    <col min="6896" max="6896" width="25.7265625" style="3" customWidth="1"/>
+    <col min="6897" max="6897" width="30.7265625" style="3" customWidth="1"/>
+    <col min="6898" max="6898" width="15.7265625" style="3" customWidth="1"/>
+    <col min="6899" max="6899" width="21.453125" style="3" customWidth="1"/>
+    <col min="6900" max="6900" width="35.7265625" style="3" customWidth="1"/>
+    <col min="6901" max="6901" width="15.7265625" style="3" customWidth="1"/>
+    <col min="6902" max="6902" width="20.7265625" style="3" customWidth="1"/>
     <col min="6903" max="6903" width="13" style="3" customWidth="1"/>
-    <col min="6904" max="6904" width="13.42578125" style="3" customWidth="1"/>
-    <col min="6905" max="6905" width="18.28515625" style="3" customWidth="1"/>
-    <col min="6906" max="6906" width="20.85546875" style="3" customWidth="1"/>
-    <col min="6907" max="6907" width="22.28515625" style="3" customWidth="1"/>
-    <col min="6908" max="6908" width="26.42578125" style="3" customWidth="1"/>
-    <col min="6909" max="6909" width="35.7109375" style="3" customWidth="1"/>
-    <col min="6910" max="6910" width="15.7109375" style="3" customWidth="1"/>
-    <col min="6911" max="6911" width="14.140625" style="3" customWidth="1"/>
-    <col min="6912" max="6912" width="19.7109375" style="3" customWidth="1"/>
-    <col min="6913" max="6913" width="25.85546875" style="3" customWidth="1"/>
-    <col min="6914" max="6914" width="24.5703125" style="3" customWidth="1"/>
-    <col min="6915" max="6915" width="13.140625" style="3" customWidth="1"/>
-    <col min="6916" max="6916" width="10.42578125" style="3" customWidth="1"/>
-    <col min="6917" max="6917" width="26.85546875" style="3" customWidth="1"/>
-    <col min="6918" max="6918" width="22.5703125" style="3" customWidth="1"/>
-    <col min="6919" max="7148" width="9.140625" style="3" customWidth="1"/>
-    <col min="7149" max="7149" width="27.7109375" style="3" customWidth="1"/>
-    <col min="7150" max="7150" width="42.7109375" style="3" customWidth="1"/>
-    <col min="7151" max="7151" width="40.7109375" style="3" customWidth="1"/>
-    <col min="7152" max="7152" width="25.7109375" style="3" customWidth="1"/>
-    <col min="7153" max="7153" width="30.7109375" style="3" customWidth="1"/>
-    <col min="7154" max="7154" width="15.7109375" style="3" customWidth="1"/>
-    <col min="7155" max="7155" width="21.42578125" style="3" customWidth="1"/>
-    <col min="7156" max="7156" width="35.7109375" style="3" customWidth="1"/>
-    <col min="7157" max="7157" width="15.7109375" style="3" customWidth="1"/>
-    <col min="7158" max="7158" width="20.7109375" style="3" customWidth="1"/>
+    <col min="6904" max="6904" width="13.453125" style="3" customWidth="1"/>
+    <col min="6905" max="6905" width="18.26953125" style="3" customWidth="1"/>
+    <col min="6906" max="6906" width="20.81640625" style="3" customWidth="1"/>
+    <col min="6907" max="6907" width="22.26953125" style="3" customWidth="1"/>
+    <col min="6908" max="6908" width="26.453125" style="3" customWidth="1"/>
+    <col min="6909" max="6909" width="35.7265625" style="3" customWidth="1"/>
+    <col min="6910" max="6910" width="15.7265625" style="3" customWidth="1"/>
+    <col min="6911" max="6911" width="14.1796875" style="3" customWidth="1"/>
+    <col min="6912" max="6912" width="19.7265625" style="3" customWidth="1"/>
+    <col min="6913" max="6913" width="25.81640625" style="3" customWidth="1"/>
+    <col min="6914" max="6914" width="24.54296875" style="3" customWidth="1"/>
+    <col min="6915" max="6915" width="13.1796875" style="3" customWidth="1"/>
+    <col min="6916" max="6916" width="10.453125" style="3" customWidth="1"/>
+    <col min="6917" max="6917" width="26.81640625" style="3" customWidth="1"/>
+    <col min="6918" max="6918" width="22.54296875" style="3" customWidth="1"/>
+    <col min="6919" max="7148" width="9.1796875" style="3" customWidth="1"/>
+    <col min="7149" max="7149" width="27.7265625" style="3" customWidth="1"/>
+    <col min="7150" max="7150" width="42.7265625" style="3" customWidth="1"/>
+    <col min="7151" max="7151" width="40.7265625" style="3" customWidth="1"/>
+    <col min="7152" max="7152" width="25.7265625" style="3" customWidth="1"/>
+    <col min="7153" max="7153" width="30.7265625" style="3" customWidth="1"/>
+    <col min="7154" max="7154" width="15.7265625" style="3" customWidth="1"/>
+    <col min="7155" max="7155" width="21.453125" style="3" customWidth="1"/>
+    <col min="7156" max="7156" width="35.7265625" style="3" customWidth="1"/>
+    <col min="7157" max="7157" width="15.7265625" style="3" customWidth="1"/>
+    <col min="7158" max="7158" width="20.7265625" style="3" customWidth="1"/>
     <col min="7159" max="7159" width="13" style="3" customWidth="1"/>
-    <col min="7160" max="7160" width="13.42578125" style="3" customWidth="1"/>
-    <col min="7161" max="7161" width="18.28515625" style="3" customWidth="1"/>
-    <col min="7162" max="7162" width="20.85546875" style="3" customWidth="1"/>
-    <col min="7163" max="7163" width="22.28515625" style="3" customWidth="1"/>
-    <col min="7164" max="7164" width="26.42578125" style="3" customWidth="1"/>
-    <col min="7165" max="7165" width="35.7109375" style="3" customWidth="1"/>
-    <col min="7166" max="7166" width="15.7109375" style="3" customWidth="1"/>
-    <col min="7167" max="7167" width="14.140625" style="3" customWidth="1"/>
-    <col min="7168" max="7168" width="19.7109375" style="3" customWidth="1"/>
-    <col min="7169" max="7169" width="25.85546875" style="3" customWidth="1"/>
-    <col min="7170" max="7170" width="24.5703125" style="3" customWidth="1"/>
-    <col min="7171" max="7171" width="13.140625" style="3" customWidth="1"/>
-    <col min="7172" max="7172" width="10.42578125" style="3" customWidth="1"/>
-    <col min="7173" max="7173" width="26.85546875" style="3" customWidth="1"/>
-    <col min="7174" max="7174" width="22.5703125" style="3" customWidth="1"/>
-    <col min="7175" max="7404" width="9.140625" style="3" customWidth="1"/>
-    <col min="7405" max="7405" width="27.7109375" style="3" customWidth="1"/>
-    <col min="7406" max="7406" width="42.7109375" style="3" customWidth="1"/>
-    <col min="7407" max="7407" width="40.7109375" style="3" customWidth="1"/>
-    <col min="7408" max="7408" width="25.7109375" style="3" customWidth="1"/>
-    <col min="7409" max="7409" width="30.7109375" style="3" customWidth="1"/>
-    <col min="7410" max="7410" width="15.7109375" style="3" customWidth="1"/>
-    <col min="7411" max="7411" width="21.42578125" style="3" customWidth="1"/>
-    <col min="7412" max="7412" width="35.7109375" style="3" customWidth="1"/>
-    <col min="7413" max="7413" width="15.7109375" style="3" customWidth="1"/>
-    <col min="7414" max="7414" width="20.7109375" style="3" customWidth="1"/>
+    <col min="7160" max="7160" width="13.453125" style="3" customWidth="1"/>
+    <col min="7161" max="7161" width="18.26953125" style="3" customWidth="1"/>
+    <col min="7162" max="7162" width="20.81640625" style="3" customWidth="1"/>
+    <col min="7163" max="7163" width="22.26953125" style="3" customWidth="1"/>
+    <col min="7164" max="7164" width="26.453125" style="3" customWidth="1"/>
+    <col min="7165" max="7165" width="35.7265625" style="3" customWidth="1"/>
+    <col min="7166" max="7166" width="15.7265625" style="3" customWidth="1"/>
+    <col min="7167" max="7167" width="14.1796875" style="3" customWidth="1"/>
+    <col min="7168" max="7168" width="19.7265625" style="3" customWidth="1"/>
+    <col min="7169" max="7169" width="25.81640625" style="3" customWidth="1"/>
+    <col min="7170" max="7170" width="24.54296875" style="3" customWidth="1"/>
+    <col min="7171" max="7171" width="13.1796875" style="3" customWidth="1"/>
+    <col min="7172" max="7172" width="10.453125" style="3" customWidth="1"/>
+    <col min="7173" max="7173" width="26.81640625" style="3" customWidth="1"/>
+    <col min="7174" max="7174" width="22.54296875" style="3" customWidth="1"/>
+    <col min="7175" max="7404" width="9.1796875" style="3" customWidth="1"/>
+    <col min="7405" max="7405" width="27.7265625" style="3" customWidth="1"/>
+    <col min="7406" max="7406" width="42.7265625" style="3" customWidth="1"/>
+    <col min="7407" max="7407" width="40.7265625" style="3" customWidth="1"/>
+    <col min="7408" max="7408" width="25.7265625" style="3" customWidth="1"/>
+    <col min="7409" max="7409" width="30.7265625" style="3" customWidth="1"/>
+    <col min="7410" max="7410" width="15.7265625" style="3" customWidth="1"/>
+    <col min="7411" max="7411" width="21.453125" style="3" customWidth="1"/>
+    <col min="7412" max="7412" width="35.7265625" style="3" customWidth="1"/>
+    <col min="7413" max="7413" width="15.7265625" style="3" customWidth="1"/>
+    <col min="7414" max="7414" width="20.7265625" style="3" customWidth="1"/>
     <col min="7415" max="7415" width="13" style="3" customWidth="1"/>
-    <col min="7416" max="7416" width="13.42578125" style="3" customWidth="1"/>
-    <col min="7417" max="7417" width="18.28515625" style="3" customWidth="1"/>
-    <col min="7418" max="7418" width="20.85546875" style="3" customWidth="1"/>
-    <col min="7419" max="7419" width="22.28515625" style="3" customWidth="1"/>
-    <col min="7420" max="7420" width="26.42578125" style="3" customWidth="1"/>
-    <col min="7421" max="7421" width="35.7109375" style="3" customWidth="1"/>
-    <col min="7422" max="7422" width="15.7109375" style="3" customWidth="1"/>
-    <col min="7423" max="7423" width="14.140625" style="3" customWidth="1"/>
-    <col min="7424" max="7424" width="19.7109375" style="3" customWidth="1"/>
-    <col min="7425" max="7425" width="25.85546875" style="3" customWidth="1"/>
-    <col min="7426" max="7426" width="24.5703125" style="3" customWidth="1"/>
-    <col min="7427" max="7427" width="13.140625" style="3" customWidth="1"/>
-    <col min="7428" max="7428" width="10.42578125" style="3" customWidth="1"/>
-    <col min="7429" max="7429" width="26.85546875" style="3" customWidth="1"/>
-    <col min="7430" max="7430" width="22.5703125" style="3" customWidth="1"/>
-    <col min="7431" max="7660" width="9.140625" style="3" customWidth="1"/>
-    <col min="7661" max="7661" width="27.7109375" style="3" customWidth="1"/>
-    <col min="7662" max="7662" width="42.7109375" style="3" customWidth="1"/>
-    <col min="7663" max="7663" width="40.7109375" style="3" customWidth="1"/>
-    <col min="7664" max="7664" width="25.7109375" style="3" customWidth="1"/>
-    <col min="7665" max="7665" width="30.7109375" style="3" customWidth="1"/>
-    <col min="7666" max="7666" width="15.7109375" style="3" customWidth="1"/>
-    <col min="7667" max="7667" width="21.42578125" style="3" customWidth="1"/>
-    <col min="7668" max="7668" width="35.7109375" style="3" customWidth="1"/>
-    <col min="7669" max="7669" width="15.7109375" style="3" customWidth="1"/>
-    <col min="7670" max="7670" width="20.7109375" style="3" customWidth="1"/>
+    <col min="7416" max="7416" width="13.453125" style="3" customWidth="1"/>
+    <col min="7417" max="7417" width="18.26953125" style="3" customWidth="1"/>
+    <col min="7418" max="7418" width="20.81640625" style="3" customWidth="1"/>
+    <col min="7419" max="7419" width="22.26953125" style="3" customWidth="1"/>
+    <col min="7420" max="7420" width="26.453125" style="3" customWidth="1"/>
+    <col min="7421" max="7421" width="35.7265625" style="3" customWidth="1"/>
+    <col min="7422" max="7422" width="15.7265625" style="3" customWidth="1"/>
+    <col min="7423" max="7423" width="14.1796875" style="3" customWidth="1"/>
+    <col min="7424" max="7424" width="19.7265625" style="3" customWidth="1"/>
+    <col min="7425" max="7425" width="25.81640625" style="3" customWidth="1"/>
+    <col min="7426" max="7426" width="24.54296875" style="3" customWidth="1"/>
+    <col min="7427" max="7427" width="13.1796875" style="3" customWidth="1"/>
+    <col min="7428" max="7428" width="10.453125" style="3" customWidth="1"/>
+    <col min="7429" max="7429" width="26.81640625" style="3" customWidth="1"/>
+    <col min="7430" max="7430" width="22.54296875" style="3" customWidth="1"/>
+    <col min="7431" max="7660" width="9.1796875" style="3" customWidth="1"/>
+    <col min="7661" max="7661" width="27.7265625" style="3" customWidth="1"/>
+    <col min="7662" max="7662" width="42.7265625" style="3" customWidth="1"/>
+    <col min="7663" max="7663" width="40.7265625" style="3" customWidth="1"/>
+    <col min="7664" max="7664" width="25.7265625" style="3" customWidth="1"/>
+    <col min="7665" max="7665" width="30.7265625" style="3" customWidth="1"/>
+    <col min="7666" max="7666" width="15.7265625" style="3" customWidth="1"/>
+    <col min="7667" max="7667" width="21.453125" style="3" customWidth="1"/>
+    <col min="7668" max="7668" width="35.7265625" style="3" customWidth="1"/>
+    <col min="7669" max="7669" width="15.7265625" style="3" customWidth="1"/>
+    <col min="7670" max="7670" width="20.7265625" style="3" customWidth="1"/>
     <col min="7671" max="7671" width="13" style="3" customWidth="1"/>
-    <col min="7672" max="7672" width="13.42578125" style="3" customWidth="1"/>
-    <col min="7673" max="7673" width="18.28515625" style="3" customWidth="1"/>
-    <col min="7674" max="7674" width="20.85546875" style="3" customWidth="1"/>
-    <col min="7675" max="7675" width="22.28515625" style="3" customWidth="1"/>
-    <col min="7676" max="7676" width="26.42578125" style="3" customWidth="1"/>
-    <col min="7677" max="7677" width="35.7109375" style="3" customWidth="1"/>
-    <col min="7678" max="7678" width="15.7109375" style="3" customWidth="1"/>
-    <col min="7679" max="7679" width="14.140625" style="3" customWidth="1"/>
-    <col min="7680" max="7680" width="19.7109375" style="3" customWidth="1"/>
-    <col min="7681" max="7681" width="25.85546875" style="3" customWidth="1"/>
-    <col min="7682" max="7682" width="24.5703125" style="3" customWidth="1"/>
-    <col min="7683" max="7683" width="13.140625" style="3" customWidth="1"/>
-    <col min="7684" max="7684" width="10.42578125" style="3" customWidth="1"/>
-    <col min="7685" max="7685" width="26.85546875" style="3" customWidth="1"/>
-    <col min="7686" max="7686" width="22.5703125" style="3" customWidth="1"/>
-    <col min="7687" max="7916" width="9.140625" style="3" customWidth="1"/>
-    <col min="7917" max="7917" width="27.7109375" style="3" customWidth="1"/>
-    <col min="7918" max="7918" width="42.7109375" style="3" customWidth="1"/>
-    <col min="7919" max="7919" width="40.7109375" style="3" customWidth="1"/>
-    <col min="7920" max="7920" width="25.7109375" style="3" customWidth="1"/>
-    <col min="7921" max="7921" width="30.7109375" style="3" customWidth="1"/>
-    <col min="7922" max="7922" width="15.7109375" style="3" customWidth="1"/>
-    <col min="7923" max="7923" width="21.42578125" style="3" customWidth="1"/>
-    <col min="7924" max="7924" width="35.7109375" style="3" customWidth="1"/>
-    <col min="7925" max="7925" width="15.7109375" style="3" customWidth="1"/>
-    <col min="7926" max="7926" width="20.7109375" style="3" customWidth="1"/>
+    <col min="7672" max="7672" width="13.453125" style="3" customWidth="1"/>
+    <col min="7673" max="7673" width="18.26953125" style="3" customWidth="1"/>
+    <col min="7674" max="7674" width="20.81640625" style="3" customWidth="1"/>
+    <col min="7675" max="7675" width="22.26953125" style="3" customWidth="1"/>
+    <col min="7676" max="7676" width="26.453125" style="3" customWidth="1"/>
+    <col min="7677" max="7677" width="35.7265625" style="3" customWidth="1"/>
+    <col min="7678" max="7678" width="15.7265625" style="3" customWidth="1"/>
+    <col min="7679" max="7679" width="14.1796875" style="3" customWidth="1"/>
+    <col min="7680" max="7680" width="19.7265625" style="3" customWidth="1"/>
+    <col min="7681" max="7681" width="25.81640625" style="3" customWidth="1"/>
+    <col min="7682" max="7682" width="24.54296875" style="3" customWidth="1"/>
+    <col min="7683" max="7683" width="13.1796875" style="3" customWidth="1"/>
+    <col min="7684" max="7684" width="10.453125" style="3" customWidth="1"/>
+    <col min="7685" max="7685" width="26.81640625" style="3" customWidth="1"/>
+    <col min="7686" max="7686" width="22.54296875" style="3" customWidth="1"/>
+    <col min="7687" max="7916" width="9.1796875" style="3" customWidth="1"/>
+    <col min="7917" max="7917" width="27.7265625" style="3" customWidth="1"/>
+    <col min="7918" max="7918" width="42.7265625" style="3" customWidth="1"/>
+    <col min="7919" max="7919" width="40.7265625" style="3" customWidth="1"/>
+    <col min="7920" max="7920" width="25.7265625" style="3" customWidth="1"/>
+    <col min="7921" max="7921" width="30.7265625" style="3" customWidth="1"/>
+    <col min="7922" max="7922" width="15.7265625" style="3" customWidth="1"/>
+    <col min="7923" max="7923" width="21.453125" style="3" customWidth="1"/>
+    <col min="7924" max="7924" width="35.7265625" style="3" customWidth="1"/>
+    <col min="7925" max="7925" width="15.7265625" style="3" customWidth="1"/>
+    <col min="7926" max="7926" width="20.7265625" style="3" customWidth="1"/>
     <col min="7927" max="7927" width="13" style="3" customWidth="1"/>
-    <col min="7928" max="7928" width="13.42578125" style="3" customWidth="1"/>
-    <col min="7929" max="7929" width="18.28515625" style="3" customWidth="1"/>
-    <col min="7930" max="7930" width="20.85546875" style="3" customWidth="1"/>
-    <col min="7931" max="7931" width="22.28515625" style="3" customWidth="1"/>
-    <col min="7932" max="7932" width="26.42578125" style="3" customWidth="1"/>
-    <col min="7933" max="7933" width="35.7109375" style="3" customWidth="1"/>
-    <col min="7934" max="7934" width="15.7109375" style="3" customWidth="1"/>
-    <col min="7935" max="7935" width="14.140625" style="3" customWidth="1"/>
-    <col min="7936" max="7936" width="19.7109375" style="3" customWidth="1"/>
-    <col min="7937" max="7937" width="25.85546875" style="3" customWidth="1"/>
-    <col min="7938" max="7938" width="24.5703125" style="3" customWidth="1"/>
-    <col min="7939" max="7939" width="13.140625" style="3" customWidth="1"/>
-    <col min="7940" max="7940" width="10.42578125" style="3" customWidth="1"/>
-    <col min="7941" max="7941" width="26.85546875" style="3" customWidth="1"/>
-    <col min="7942" max="7942" width="22.5703125" style="3" customWidth="1"/>
-    <col min="7943" max="8172" width="9.140625" style="3" customWidth="1"/>
-    <col min="8173" max="8173" width="27.7109375" style="3" customWidth="1"/>
-    <col min="8174" max="8174" width="42.7109375" style="3" customWidth="1"/>
-    <col min="8175" max="8175" width="40.7109375" style="3" customWidth="1"/>
-    <col min="8176" max="8176" width="25.7109375" style="3" customWidth="1"/>
-    <col min="8177" max="8177" width="30.7109375" style="3" customWidth="1"/>
-    <col min="8178" max="8178" width="15.7109375" style="3" customWidth="1"/>
-    <col min="8179" max="8179" width="21.42578125" style="3" customWidth="1"/>
-    <col min="8180" max="8180" width="35.7109375" style="3" customWidth="1"/>
-    <col min="8181" max="8181" width="15.7109375" style="3" customWidth="1"/>
-    <col min="8182" max="8182" width="20.7109375" style="3" customWidth="1"/>
+    <col min="7928" max="7928" width="13.453125" style="3" customWidth="1"/>
+    <col min="7929" max="7929" width="18.26953125" style="3" customWidth="1"/>
+    <col min="7930" max="7930" width="20.81640625" style="3" customWidth="1"/>
+    <col min="7931" max="7931" width="22.26953125" style="3" customWidth="1"/>
+    <col min="7932" max="7932" width="26.453125" style="3" customWidth="1"/>
+    <col min="7933" max="7933" width="35.7265625" style="3" customWidth="1"/>
+    <col min="7934" max="7934" width="15.7265625" style="3" customWidth="1"/>
+    <col min="7935" max="7935" width="14.1796875" style="3" customWidth="1"/>
+    <col min="7936" max="7936" width="19.7265625" style="3" customWidth="1"/>
+    <col min="7937" max="7937" width="25.81640625" style="3" customWidth="1"/>
+    <col min="7938" max="7938" width="24.54296875" style="3" customWidth="1"/>
+    <col min="7939" max="7939" width="13.1796875" style="3" customWidth="1"/>
+    <col min="7940" max="7940" width="10.453125" style="3" customWidth="1"/>
+    <col min="7941" max="7941" width="26.81640625" style="3" customWidth="1"/>
+    <col min="7942" max="7942" width="22.54296875" style="3" customWidth="1"/>
+    <col min="7943" max="8172" width="9.1796875" style="3" customWidth="1"/>
+    <col min="8173" max="8173" width="27.7265625" style="3" customWidth="1"/>
+    <col min="8174" max="8174" width="42.7265625" style="3" customWidth="1"/>
+    <col min="8175" max="8175" width="40.7265625" style="3" customWidth="1"/>
+    <col min="8176" max="8176" width="25.7265625" style="3" customWidth="1"/>
+    <col min="8177" max="8177" width="30.7265625" style="3" customWidth="1"/>
+    <col min="8178" max="8178" width="15.7265625" style="3" customWidth="1"/>
+    <col min="8179" max="8179" width="21.453125" style="3" customWidth="1"/>
+    <col min="8180" max="8180" width="35.7265625" style="3" customWidth="1"/>
+    <col min="8181" max="8181" width="15.7265625" style="3" customWidth="1"/>
+    <col min="8182" max="8182" width="20.7265625" style="3" customWidth="1"/>
     <col min="8183" max="8183" width="13" style="3" customWidth="1"/>
-    <col min="8184" max="8184" width="13.42578125" style="3" customWidth="1"/>
-    <col min="8185" max="8185" width="18.28515625" style="3" customWidth="1"/>
-    <col min="8186" max="8186" width="20.85546875" style="3" customWidth="1"/>
-    <col min="8187" max="8187" width="22.28515625" style="3" customWidth="1"/>
-    <col min="8188" max="8188" width="26.42578125" style="3" customWidth="1"/>
-    <col min="8189" max="8189" width="35.7109375" style="3" customWidth="1"/>
-    <col min="8190" max="8190" width="15.7109375" style="3" customWidth="1"/>
-    <col min="8191" max="8191" width="14.140625" style="3" customWidth="1"/>
-    <col min="8192" max="8192" width="19.7109375" style="3" customWidth="1"/>
-    <col min="8193" max="8193" width="25.85546875" style="3" customWidth="1"/>
-    <col min="8194" max="8194" width="24.5703125" style="3" customWidth="1"/>
-    <col min="8195" max="8195" width="13.140625" style="3" customWidth="1"/>
-    <col min="8196" max="8196" width="10.42578125" style="3" customWidth="1"/>
-    <col min="8197" max="8197" width="26.85546875" style="3" customWidth="1"/>
-    <col min="8198" max="8198" width="22.5703125" style="3" customWidth="1"/>
-    <col min="8199" max="8428" width="9.140625" style="3" customWidth="1"/>
-    <col min="8429" max="8429" width="27.7109375" style="3" customWidth="1"/>
-    <col min="8430" max="8430" width="42.7109375" style="3" customWidth="1"/>
-    <col min="8431" max="8431" width="40.7109375" style="3" customWidth="1"/>
-    <col min="8432" max="8432" width="25.7109375" style="3" customWidth="1"/>
-    <col min="8433" max="8433" width="30.7109375" style="3" customWidth="1"/>
-    <col min="8434" max="8434" width="15.7109375" style="3" customWidth="1"/>
-    <col min="8435" max="8435" width="21.42578125" style="3" customWidth="1"/>
-    <col min="8436" max="8436" width="35.7109375" style="3" customWidth="1"/>
-    <col min="8437" max="8437" width="15.7109375" style="3" customWidth="1"/>
-    <col min="8438" max="8438" width="20.7109375" style="3" customWidth="1"/>
+    <col min="8184" max="8184" width="13.453125" style="3" customWidth="1"/>
+    <col min="8185" max="8185" width="18.26953125" style="3" customWidth="1"/>
+    <col min="8186" max="8186" width="20.81640625" style="3" customWidth="1"/>
+    <col min="8187" max="8187" width="22.26953125" style="3" customWidth="1"/>
+    <col min="8188" max="8188" width="26.453125" style="3" customWidth="1"/>
+    <col min="8189" max="8189" width="35.7265625" style="3" customWidth="1"/>
+    <col min="8190" max="8190" width="15.7265625" style="3" customWidth="1"/>
+    <col min="8191" max="8191" width="14.1796875" style="3" customWidth="1"/>
+    <col min="8192" max="8192" width="19.7265625" style="3" customWidth="1"/>
+    <col min="8193" max="8193" width="25.81640625" style="3" customWidth="1"/>
+    <col min="8194" max="8194" width="24.54296875" style="3" customWidth="1"/>
+    <col min="8195" max="8195" width="13.1796875" style="3" customWidth="1"/>
+    <col min="8196" max="8196" width="10.453125" style="3" customWidth="1"/>
+    <col min="8197" max="8197" width="26.81640625" style="3" customWidth="1"/>
+    <col min="8198" max="8198" width="22.54296875" style="3" customWidth="1"/>
+    <col min="8199" max="8428" width="9.1796875" style="3" customWidth="1"/>
+    <col min="8429" max="8429" width="27.7265625" style="3" customWidth="1"/>
+    <col min="8430" max="8430" width="42.7265625" style="3" customWidth="1"/>
+    <col min="8431" max="8431" width="40.7265625" style="3" customWidth="1"/>
+    <col min="8432" max="8432" width="25.7265625" style="3" customWidth="1"/>
+    <col min="8433" max="8433" width="30.7265625" style="3" customWidth="1"/>
+    <col min="8434" max="8434" width="15.7265625" style="3" customWidth="1"/>
+    <col min="8435" max="8435" width="21.453125" style="3" customWidth="1"/>
+    <col min="8436" max="8436" width="35.7265625" style="3" customWidth="1"/>
+    <col min="8437" max="8437" width="15.7265625" style="3" customWidth="1"/>
+    <col min="8438" max="8438" width="20.7265625" style="3" customWidth="1"/>
     <col min="8439" max="8439" width="13" style="3" customWidth="1"/>
-    <col min="8440" max="8440" width="13.42578125" style="3" customWidth="1"/>
-    <col min="8441" max="8441" width="18.28515625" style="3" customWidth="1"/>
-    <col min="8442" max="8442" width="20.85546875" style="3" customWidth="1"/>
-    <col min="8443" max="8443" width="22.28515625" style="3" customWidth="1"/>
-    <col min="8444" max="8444" width="26.42578125" style="3" customWidth="1"/>
-    <col min="8445" max="8445" width="35.7109375" style="3" customWidth="1"/>
-    <col min="8446" max="8446" width="15.7109375" style="3" customWidth="1"/>
-    <col min="8447" max="8447" width="14.140625" style="3" customWidth="1"/>
-    <col min="8448" max="8448" width="19.7109375" style="3" customWidth="1"/>
-    <col min="8449" max="8449" width="25.85546875" style="3" customWidth="1"/>
-    <col min="8450" max="8450" width="24.5703125" style="3" customWidth="1"/>
-    <col min="8451" max="8451" width="13.140625" style="3" customWidth="1"/>
-    <col min="8452" max="8452" width="10.42578125" style="3" customWidth="1"/>
-    <col min="8453" max="8453" width="26.85546875" style="3" customWidth="1"/>
-    <col min="8454" max="8454" width="22.5703125" style="3" customWidth="1"/>
-    <col min="8455" max="8684" width="9.140625" style="3" customWidth="1"/>
-    <col min="8685" max="8685" width="27.7109375" style="3" customWidth="1"/>
-    <col min="8686" max="8686" width="42.7109375" style="3" customWidth="1"/>
-    <col min="8687" max="8687" width="40.7109375" style="3" customWidth="1"/>
-    <col min="8688" max="8688" width="25.7109375" style="3" customWidth="1"/>
-    <col min="8689" max="8689" width="30.7109375" style="3" customWidth="1"/>
-    <col min="8690" max="8690" width="15.7109375" style="3" customWidth="1"/>
-    <col min="8691" max="8691" width="21.42578125" style="3" customWidth="1"/>
-    <col min="8692" max="8692" width="35.7109375" style="3" customWidth="1"/>
-    <col min="8693" max="8693" width="15.7109375" style="3" customWidth="1"/>
-    <col min="8694" max="8694" width="20.7109375" style="3" customWidth="1"/>
+    <col min="8440" max="8440" width="13.453125" style="3" customWidth="1"/>
+    <col min="8441" max="8441" width="18.26953125" style="3" customWidth="1"/>
+    <col min="8442" max="8442" width="20.81640625" style="3" customWidth="1"/>
+    <col min="8443" max="8443" width="22.26953125" style="3" customWidth="1"/>
+    <col min="8444" max="8444" width="26.453125" style="3" customWidth="1"/>
+    <col min="8445" max="8445" width="35.7265625" style="3" customWidth="1"/>
+    <col min="8446" max="8446" width="15.7265625" style="3" customWidth="1"/>
+    <col min="8447" max="8447" width="14.1796875" style="3" customWidth="1"/>
+    <col min="8448" max="8448" width="19.7265625" style="3" customWidth="1"/>
+    <col min="8449" max="8449" width="25.81640625" style="3" customWidth="1"/>
+    <col min="8450" max="8450" width="24.54296875" style="3" customWidth="1"/>
+    <col min="8451" max="8451" width="13.1796875" style="3" customWidth="1"/>
+    <col min="8452" max="8452" width="10.453125" style="3" customWidth="1"/>
+    <col min="8453" max="8453" width="26.81640625" style="3" customWidth="1"/>
+    <col min="8454" max="8454" width="22.54296875" style="3" customWidth="1"/>
+    <col min="8455" max="8684" width="9.1796875" style="3" customWidth="1"/>
+    <col min="8685" max="8685" width="27.7265625" style="3" customWidth="1"/>
+    <col min="8686" max="8686" width="42.7265625" style="3" customWidth="1"/>
+    <col min="8687" max="8687" width="40.7265625" style="3" customWidth="1"/>
+    <col min="8688" max="8688" width="25.7265625" style="3" customWidth="1"/>
+    <col min="8689" max="8689" width="30.7265625" style="3" customWidth="1"/>
+    <col min="8690" max="8690" width="15.7265625" style="3" customWidth="1"/>
+    <col min="8691" max="8691" width="21.453125" style="3" customWidth="1"/>
+    <col min="8692" max="8692" width="35.7265625" style="3" customWidth="1"/>
+    <col min="8693" max="8693" width="15.7265625" style="3" customWidth="1"/>
+    <col min="8694" max="8694" width="20.7265625" style="3" customWidth="1"/>
     <col min="8695" max="8695" width="13" style="3" customWidth="1"/>
-    <col min="8696" max="8696" width="13.42578125" style="3" customWidth="1"/>
-    <col min="8697" max="8697" width="18.28515625" style="3" customWidth="1"/>
-    <col min="8698" max="8698" width="20.85546875" style="3" customWidth="1"/>
-    <col min="8699" max="8699" width="22.28515625" style="3" customWidth="1"/>
-    <col min="8700" max="8700" width="26.42578125" style="3" customWidth="1"/>
-    <col min="8701" max="8701" width="35.7109375" style="3" customWidth="1"/>
-    <col min="8702" max="8702" width="15.7109375" style="3" customWidth="1"/>
-    <col min="8703" max="8703" width="14.140625" style="3" customWidth="1"/>
-    <col min="8704" max="8704" width="19.7109375" style="3" customWidth="1"/>
-    <col min="8705" max="8705" width="25.85546875" style="3" customWidth="1"/>
-    <col min="8706" max="8706" width="24.5703125" style="3" customWidth="1"/>
-    <col min="8707" max="8707" width="13.140625" style="3" customWidth="1"/>
-    <col min="8708" max="8708" width="10.42578125" style="3" customWidth="1"/>
-    <col min="8709" max="8709" width="26.85546875" style="3" customWidth="1"/>
-    <col min="8710" max="8710" width="22.5703125" style="3" customWidth="1"/>
-    <col min="8711" max="8940" width="9.140625" style="3" customWidth="1"/>
-    <col min="8941" max="8941" width="27.7109375" style="3" customWidth="1"/>
-    <col min="8942" max="8942" width="42.7109375" style="3" customWidth="1"/>
-    <col min="8943" max="8943" width="40.7109375" style="3" customWidth="1"/>
-    <col min="8944" max="8944" width="25.7109375" style="3" customWidth="1"/>
-    <col min="8945" max="8945" width="30.7109375" style="3" customWidth="1"/>
-    <col min="8946" max="8946" width="15.7109375" style="3" customWidth="1"/>
-    <col min="8947" max="8947" width="21.42578125" style="3" customWidth="1"/>
-    <col min="8948" max="8948" width="35.7109375" style="3" customWidth="1"/>
-    <col min="8949" max="8949" width="15.7109375" style="3" customWidth="1"/>
-    <col min="8950" max="8950" width="20.7109375" style="3" customWidth="1"/>
+    <col min="8696" max="8696" width="13.453125" style="3" customWidth="1"/>
+    <col min="8697" max="8697" width="18.26953125" style="3" customWidth="1"/>
+    <col min="8698" max="8698" width="20.81640625" style="3" customWidth="1"/>
+    <col min="8699" max="8699" width="22.26953125" style="3" customWidth="1"/>
+    <col min="8700" max="8700" width="26.453125" style="3" customWidth="1"/>
+    <col min="8701" max="8701" width="35.7265625" style="3" customWidth="1"/>
+    <col min="8702" max="8702" width="15.7265625" style="3" customWidth="1"/>
+    <col min="8703" max="8703" width="14.1796875" style="3" customWidth="1"/>
+    <col min="8704" max="8704" width="19.7265625" style="3" customWidth="1"/>
+    <col min="8705" max="8705" width="25.81640625" style="3" customWidth="1"/>
+    <col min="8706" max="8706" width="24.54296875" style="3" customWidth="1"/>
+    <col min="8707" max="8707" width="13.1796875" style="3" customWidth="1"/>
+    <col min="8708" max="8708" width="10.453125" style="3" customWidth="1"/>
+    <col min="8709" max="8709" width="26.81640625" style="3" customWidth="1"/>
+    <col min="8710" max="8710" width="22.54296875" style="3" customWidth="1"/>
+    <col min="8711" max="8940" width="9.1796875" style="3" customWidth="1"/>
+    <col min="8941" max="8941" width="27.7265625" style="3" customWidth="1"/>
+    <col min="8942" max="8942" width="42.7265625" style="3" customWidth="1"/>
+    <col min="8943" max="8943" width="40.7265625" style="3" customWidth="1"/>
+    <col min="8944" max="8944" width="25.7265625" style="3" customWidth="1"/>
+    <col min="8945" max="8945" width="30.7265625" style="3" customWidth="1"/>
+    <col min="8946" max="8946" width="15.7265625" style="3" customWidth="1"/>
+    <col min="8947" max="8947" width="21.453125" style="3" customWidth="1"/>
+    <col min="8948" max="8948" width="35.7265625" style="3" customWidth="1"/>
+    <col min="8949" max="8949" width="15.7265625" style="3" customWidth="1"/>
+    <col min="8950" max="8950" width="20.7265625" style="3" customWidth="1"/>
     <col min="8951" max="8951" width="13" style="3" customWidth="1"/>
-    <col min="8952" max="8952" width="13.42578125" style="3" customWidth="1"/>
-    <col min="8953" max="8953" width="18.28515625" style="3" customWidth="1"/>
-    <col min="8954" max="8954" width="20.85546875" style="3" customWidth="1"/>
-    <col min="8955" max="8955" width="22.28515625" style="3" customWidth="1"/>
-    <col min="8956" max="8956" width="26.42578125" style="3" customWidth="1"/>
-    <col min="8957" max="8957" width="35.7109375" style="3" customWidth="1"/>
-    <col min="8958" max="8958" width="15.7109375" style="3" customWidth="1"/>
-    <col min="8959" max="8959" width="14.140625" style="3" customWidth="1"/>
-    <col min="8960" max="8960" width="19.7109375" style="3" customWidth="1"/>
-    <col min="8961" max="8961" width="25.85546875" style="3" customWidth="1"/>
-    <col min="8962" max="8962" width="24.5703125" style="3" customWidth="1"/>
-    <col min="8963" max="8963" width="13.140625" style="3" customWidth="1"/>
-    <col min="8964" max="8964" width="10.42578125" style="3" customWidth="1"/>
-    <col min="8965" max="8965" width="26.85546875" style="3" customWidth="1"/>
-    <col min="8966" max="8966" width="22.5703125" style="3" customWidth="1"/>
-    <col min="8967" max="9196" width="9.140625" style="3" customWidth="1"/>
-    <col min="9197" max="9197" width="27.7109375" style="3" customWidth="1"/>
-    <col min="9198" max="9198" width="42.7109375" style="3" customWidth="1"/>
-    <col min="9199" max="9199" width="40.7109375" style="3" customWidth="1"/>
-    <col min="9200" max="9200" width="25.7109375" style="3" customWidth="1"/>
-    <col min="9201" max="9201" width="30.7109375" style="3" customWidth="1"/>
-    <col min="9202" max="9202" width="15.7109375" style="3" customWidth="1"/>
-    <col min="9203" max="9203" width="21.42578125" style="3" customWidth="1"/>
-    <col min="9204" max="9204" width="35.7109375" style="3" customWidth="1"/>
-    <col min="9205" max="9205" width="15.7109375" style="3" customWidth="1"/>
-    <col min="9206" max="9206" width="20.7109375" style="3" customWidth="1"/>
+    <col min="8952" max="8952" width="13.453125" style="3" customWidth="1"/>
+    <col min="8953" max="8953" width="18.26953125" style="3" customWidth="1"/>
+    <col min="8954" max="8954" width="20.81640625" style="3" customWidth="1"/>
+    <col min="8955" max="8955" width="22.26953125" style="3" customWidth="1"/>
+    <col min="8956" max="8956" width="26.453125" style="3" customWidth="1"/>
+    <col min="8957" max="8957" width="35.7265625" style="3" customWidth="1"/>
+    <col min="8958" max="8958" width="15.7265625" style="3" customWidth="1"/>
+    <col min="8959" max="8959" width="14.1796875" style="3" customWidth="1"/>
+    <col min="8960" max="8960" width="19.7265625" style="3" customWidth="1"/>
+    <col min="8961" max="8961" width="25.81640625" style="3" customWidth="1"/>
+    <col min="8962" max="8962" width="24.54296875" style="3" customWidth="1"/>
+    <col min="8963" max="8963" width="13.1796875" style="3" customWidth="1"/>
+    <col min="8964" max="8964" width="10.453125" style="3" customWidth="1"/>
+    <col min="8965" max="8965" width="26.81640625" style="3" customWidth="1"/>
+    <col min="8966" max="8966" width="22.54296875" style="3" customWidth="1"/>
+    <col min="8967" max="9196" width="9.1796875" style="3" customWidth="1"/>
+    <col min="9197" max="9197" width="27.7265625" style="3" customWidth="1"/>
+    <col min="9198" max="9198" width="42.7265625" style="3" customWidth="1"/>
+    <col min="9199" max="9199" width="40.7265625" style="3" customWidth="1"/>
+    <col min="9200" max="9200" width="25.7265625" style="3" customWidth="1"/>
+    <col min="9201" max="9201" width="30.7265625" style="3" customWidth="1"/>
+    <col min="9202" max="9202" width="15.7265625" style="3" customWidth="1"/>
+    <col min="9203" max="9203" width="21.453125" style="3" customWidth="1"/>
+    <col min="9204" max="9204" width="35.7265625" style="3" customWidth="1"/>
+    <col min="9205" max="9205" width="15.7265625" style="3" customWidth="1"/>
+    <col min="9206" max="9206" width="20.7265625" style="3" customWidth="1"/>
     <col min="9207" max="9207" width="13" style="3" customWidth="1"/>
-    <col min="9208" max="9208" width="13.42578125" style="3" customWidth="1"/>
-    <col min="9209" max="9209" width="18.28515625" style="3" customWidth="1"/>
-    <col min="9210" max="9210" width="20.85546875" style="3" customWidth="1"/>
-    <col min="9211" max="9211" width="22.28515625" style="3" customWidth="1"/>
-    <col min="9212" max="9212" width="26.42578125" style="3" customWidth="1"/>
-    <col min="9213" max="9213" width="35.7109375" style="3" customWidth="1"/>
-    <col min="9214" max="9214" width="15.7109375" style="3" customWidth="1"/>
-    <col min="9215" max="9215" width="14.140625" style="3" customWidth="1"/>
-    <col min="9216" max="9216" width="19.7109375" style="3" customWidth="1"/>
-    <col min="9217" max="9217" width="25.85546875" style="3" customWidth="1"/>
-    <col min="9218" max="9218" width="24.5703125" style="3" customWidth="1"/>
-    <col min="9219" max="9219" width="13.140625" style="3" customWidth="1"/>
-    <col min="9220" max="9220" width="10.42578125" style="3" customWidth="1"/>
-    <col min="9221" max="9221" width="26.85546875" style="3" customWidth="1"/>
-    <col min="9222" max="9222" width="22.5703125" style="3" customWidth="1"/>
-    <col min="9223" max="9452" width="9.140625" style="3" customWidth="1"/>
-    <col min="9453" max="9453" width="27.7109375" style="3" customWidth="1"/>
-    <col min="9454" max="9454" width="42.7109375" style="3" customWidth="1"/>
-    <col min="9455" max="9455" width="40.7109375" style="3" customWidth="1"/>
-    <col min="9456" max="9456" width="25.7109375" style="3" customWidth="1"/>
-    <col min="9457" max="9457" width="30.7109375" style="3" customWidth="1"/>
-    <col min="9458" max="9458" width="15.7109375" style="3" customWidth="1"/>
-    <col min="9459" max="9459" width="21.42578125" style="3" customWidth="1"/>
-    <col min="9460" max="9460" width="35.7109375" style="3" customWidth="1"/>
-    <col min="9461" max="9461" width="15.7109375" style="3" customWidth="1"/>
-    <col min="9462" max="9462" width="20.7109375" style="3" customWidth="1"/>
+    <col min="9208" max="9208" width="13.453125" style="3" customWidth="1"/>
+    <col min="9209" max="9209" width="18.26953125" style="3" customWidth="1"/>
+    <col min="9210" max="9210" width="20.81640625" style="3" customWidth="1"/>
+    <col min="9211" max="9211" width="22.26953125" style="3" customWidth="1"/>
+    <col min="9212" max="9212" width="26.453125" style="3" customWidth="1"/>
+    <col min="9213" max="9213" width="35.7265625" style="3" customWidth="1"/>
+    <col min="9214" max="9214" width="15.7265625" style="3" customWidth="1"/>
+    <col min="9215" max="9215" width="14.1796875" style="3" customWidth="1"/>
+    <col min="9216" max="9216" width="19.7265625" style="3" customWidth="1"/>
+    <col min="9217" max="9217" width="25.81640625" style="3" customWidth="1"/>
+    <col min="9218" max="9218" width="24.54296875" style="3" customWidth="1"/>
+    <col min="9219" max="9219" width="13.1796875" style="3" customWidth="1"/>
+    <col min="9220" max="9220" width="10.453125" style="3" customWidth="1"/>
+    <col min="9221" max="9221" width="26.81640625" style="3" customWidth="1"/>
+    <col min="9222" max="9222" width="22.54296875" style="3" customWidth="1"/>
+    <col min="9223" max="9452" width="9.1796875" style="3" customWidth="1"/>
+    <col min="9453" max="9453" width="27.7265625" style="3" customWidth="1"/>
+    <col min="9454" max="9454" width="42.7265625" style="3" customWidth="1"/>
+    <col min="9455" max="9455" width="40.7265625" style="3" customWidth="1"/>
+    <col min="9456" max="9456" width="25.7265625" style="3" customWidth="1"/>
+    <col min="9457" max="9457" width="30.7265625" style="3" customWidth="1"/>
+    <col min="9458" max="9458" width="15.7265625" style="3" customWidth="1"/>
+    <col min="9459" max="9459" width="21.453125" style="3" customWidth="1"/>
+    <col min="9460" max="9460" width="35.7265625" style="3" customWidth="1"/>
+    <col min="9461" max="9461" width="15.7265625" style="3" customWidth="1"/>
+    <col min="9462" max="9462" width="20.7265625" style="3" customWidth="1"/>
     <col min="9463" max="9463" width="13" style="3" customWidth="1"/>
-    <col min="9464" max="9464" width="13.42578125" style="3" customWidth="1"/>
-    <col min="9465" max="9465" width="18.28515625" style="3" customWidth="1"/>
-    <col min="9466" max="9466" width="20.85546875" style="3" customWidth="1"/>
-    <col min="9467" max="9467" width="22.28515625" style="3" customWidth="1"/>
-    <col min="9468" max="9468" width="26.42578125" style="3" customWidth="1"/>
-    <col min="9469" max="9469" width="35.7109375" style="3" customWidth="1"/>
-    <col min="9470" max="9470" width="15.7109375" style="3" customWidth="1"/>
-    <col min="9471" max="9471" width="14.140625" style="3" customWidth="1"/>
-    <col min="9472" max="9472" width="19.7109375" style="3" customWidth="1"/>
-    <col min="9473" max="9473" width="25.85546875" style="3" customWidth="1"/>
-    <col min="9474" max="9474" width="24.5703125" style="3" customWidth="1"/>
-    <col min="9475" max="9475" width="13.140625" style="3" customWidth="1"/>
-    <col min="9476" max="9476" width="10.42578125" style="3" customWidth="1"/>
-    <col min="9477" max="9477" width="26.85546875" style="3" customWidth="1"/>
-    <col min="9478" max="9478" width="22.5703125" style="3" customWidth="1"/>
-    <col min="9479" max="9708" width="9.140625" style="3" customWidth="1"/>
-    <col min="9709" max="9709" width="27.7109375" style="3" customWidth="1"/>
-    <col min="9710" max="9710" width="42.7109375" style="3" customWidth="1"/>
-    <col min="9711" max="9711" width="40.7109375" style="3" customWidth="1"/>
-    <col min="9712" max="9712" width="25.7109375" style="3" customWidth="1"/>
-    <col min="9713" max="9713" width="30.7109375" style="3" customWidth="1"/>
-    <col min="9714" max="9714" width="15.7109375" style="3" customWidth="1"/>
-    <col min="9715" max="9715" width="21.42578125" style="3" customWidth="1"/>
-    <col min="9716" max="9716" width="35.7109375" style="3" customWidth="1"/>
-    <col min="9717" max="9717" width="15.7109375" style="3" customWidth="1"/>
-    <col min="9718" max="9718" width="20.7109375" style="3" customWidth="1"/>
+    <col min="9464" max="9464" width="13.453125" style="3" customWidth="1"/>
+    <col min="9465" max="9465" width="18.26953125" style="3" customWidth="1"/>
+    <col min="9466" max="9466" width="20.81640625" style="3" customWidth="1"/>
+    <col min="9467" max="9467" width="22.26953125" style="3" customWidth="1"/>
+    <col min="9468" max="9468" width="26.453125" style="3" customWidth="1"/>
+    <col min="9469" max="9469" width="35.7265625" style="3" customWidth="1"/>
+    <col min="9470" max="9470" width="15.7265625" style="3" customWidth="1"/>
+    <col min="9471" max="9471" width="14.1796875" style="3" customWidth="1"/>
+    <col min="9472" max="9472" width="19.7265625" style="3" customWidth="1"/>
+    <col min="9473" max="9473" width="25.81640625" style="3" customWidth="1"/>
+    <col min="9474" max="9474" width="24.54296875" style="3" customWidth="1"/>
+    <col min="9475" max="9475" width="13.1796875" style="3" customWidth="1"/>
+    <col min="9476" max="9476" width="10.453125" style="3" customWidth="1"/>
+    <col min="9477" max="9477" width="26.81640625" style="3" customWidth="1"/>
+    <col min="9478" max="9478" width="22.54296875" style="3" customWidth="1"/>
+    <col min="9479" max="9708" width="9.1796875" style="3" customWidth="1"/>
+    <col min="9709" max="9709" width="27.7265625" style="3" customWidth="1"/>
+    <col min="9710" max="9710" width="42.7265625" style="3" customWidth="1"/>
+    <col min="9711" max="9711" width="40.7265625" style="3" customWidth="1"/>
+    <col min="9712" max="9712" width="25.7265625" style="3" customWidth="1"/>
+    <col min="9713" max="9713" width="30.7265625" style="3" customWidth="1"/>
+    <col min="9714" max="9714" width="15.7265625" style="3" customWidth="1"/>
+    <col min="9715" max="9715" width="21.453125" style="3" customWidth="1"/>
+    <col min="9716" max="9716" width="35.7265625" style="3" customWidth="1"/>
+    <col min="9717" max="9717" width="15.7265625" style="3" customWidth="1"/>
+    <col min="9718" max="9718" width="20.7265625" style="3" customWidth="1"/>
     <col min="9719" max="9719" width="13" style="3" customWidth="1"/>
-    <col min="9720" max="9720" width="13.42578125" style="3" customWidth="1"/>
-    <col min="9721" max="9721" width="18.28515625" style="3" customWidth="1"/>
-    <col min="9722" max="9722" width="20.85546875" style="3" customWidth="1"/>
-    <col min="9723" max="9723" width="22.28515625" style="3" customWidth="1"/>
-    <col min="9724" max="9724" width="26.42578125" style="3" customWidth="1"/>
-    <col min="9725" max="9725" width="35.7109375" style="3" customWidth="1"/>
-    <col min="9726" max="9726" width="15.7109375" style="3" customWidth="1"/>
-    <col min="9727" max="9727" width="14.140625" style="3" customWidth="1"/>
-    <col min="9728" max="9728" width="19.7109375" style="3" customWidth="1"/>
-    <col min="9729" max="9729" width="25.85546875" style="3" customWidth="1"/>
-    <col min="9730" max="9730" width="24.5703125" style="3" customWidth="1"/>
-    <col min="9731" max="9731" width="13.140625" style="3" customWidth="1"/>
-    <col min="9732" max="9732" width="10.42578125" style="3" customWidth="1"/>
-    <col min="9733" max="9733" width="26.85546875" style="3" customWidth="1"/>
-    <col min="9734" max="9734" width="22.5703125" style="3" customWidth="1"/>
-    <col min="9735" max="9964" width="9.140625" style="3" customWidth="1"/>
-    <col min="9965" max="9965" width="27.7109375" style="3" customWidth="1"/>
-    <col min="9966" max="9966" width="42.7109375" style="3" customWidth="1"/>
-    <col min="9967" max="9967" width="40.7109375" style="3" customWidth="1"/>
-    <col min="9968" max="9968" width="25.7109375" style="3" customWidth="1"/>
-    <col min="9969" max="9969" width="30.7109375" style="3" customWidth="1"/>
-    <col min="9970" max="9970" width="15.7109375" style="3" customWidth="1"/>
-    <col min="9971" max="9971" width="21.42578125" style="3" customWidth="1"/>
-    <col min="9972" max="9972" width="35.7109375" style="3" customWidth="1"/>
-    <col min="9973" max="9973" width="15.7109375" style="3" customWidth="1"/>
-    <col min="9974" max="9974" width="20.7109375" style="3" customWidth="1"/>
+    <col min="9720" max="9720" width="13.453125" style="3" customWidth="1"/>
+    <col min="9721" max="9721" width="18.26953125" style="3" customWidth="1"/>
+    <col min="9722" max="9722" width="20.81640625" style="3" customWidth="1"/>
+    <col min="9723" max="9723" width="22.26953125" style="3" customWidth="1"/>
+    <col min="9724" max="9724" width="26.453125" style="3" customWidth="1"/>
+    <col min="9725" max="9725" width="35.7265625" style="3" customWidth="1"/>
+    <col min="9726" max="9726" width="15.7265625" style="3" customWidth="1"/>
+    <col min="9727" max="9727" width="14.1796875" style="3" customWidth="1"/>
+    <col min="9728" max="9728" width="19.7265625" style="3" customWidth="1"/>
+    <col min="9729" max="9729" width="25.81640625" style="3" customWidth="1"/>
+    <col min="9730" max="9730" width="24.54296875" style="3" customWidth="1"/>
+    <col min="9731" max="9731" width="13.1796875" style="3" customWidth="1"/>
+    <col min="9732" max="9732" width="10.453125" style="3" customWidth="1"/>
+    <col min="9733" max="9733" width="26.81640625" style="3" customWidth="1"/>
+    <col min="9734" max="9734" width="22.54296875" style="3" customWidth="1"/>
+    <col min="9735" max="9964" width="9.1796875" style="3" customWidth="1"/>
+    <col min="9965" max="9965" width="27.7265625" style="3" customWidth="1"/>
+    <col min="9966" max="9966" width="42.7265625" style="3" customWidth="1"/>
+    <col min="9967" max="9967" width="40.7265625" style="3" customWidth="1"/>
+    <col min="9968" max="9968" width="25.7265625" style="3" customWidth="1"/>
+    <col min="9969" max="9969" width="30.7265625" style="3" customWidth="1"/>
+    <col min="9970" max="9970" width="15.7265625" style="3" customWidth="1"/>
+    <col min="9971" max="9971" width="21.453125" style="3" customWidth="1"/>
+    <col min="9972" max="9972" width="35.7265625" style="3" customWidth="1"/>
+    <col min="9973" max="9973" width="15.7265625" style="3" customWidth="1"/>
+    <col min="9974" max="9974" width="20.7265625" style="3" customWidth="1"/>
     <col min="9975" max="9975" width="13" style="3" customWidth="1"/>
-    <col min="9976" max="9976" width="13.42578125" style="3" customWidth="1"/>
-    <col min="9977" max="9977" width="18.28515625" style="3" customWidth="1"/>
-    <col min="9978" max="9978" width="20.85546875" style="3" customWidth="1"/>
-    <col min="9979" max="9979" width="22.28515625" style="3" customWidth="1"/>
-    <col min="9980" max="9980" width="26.42578125" style="3" customWidth="1"/>
-    <col min="9981" max="9981" width="35.7109375" style="3" customWidth="1"/>
-    <col min="9982" max="9982" width="15.7109375" style="3" customWidth="1"/>
-    <col min="9983" max="9983" width="14.140625" style="3" customWidth="1"/>
-    <col min="9984" max="9984" width="19.7109375" style="3" customWidth="1"/>
-    <col min="9985" max="9985" width="25.85546875" style="3" customWidth="1"/>
-    <col min="9986" max="9986" width="24.5703125" style="3" customWidth="1"/>
-    <col min="9987" max="9987" width="13.140625" style="3" customWidth="1"/>
-    <col min="9988" max="9988" width="10.42578125" style="3" customWidth="1"/>
-    <col min="9989" max="9989" width="26.85546875" style="3" customWidth="1"/>
-    <col min="9990" max="9990" width="22.5703125" style="3" customWidth="1"/>
-    <col min="9991" max="10220" width="9.140625" style="3" customWidth="1"/>
-    <col min="10221" max="10221" width="27.7109375" style="3" customWidth="1"/>
-    <col min="10222" max="10222" width="42.7109375" style="3" customWidth="1"/>
-    <col min="10223" max="10223" width="40.7109375" style="3" customWidth="1"/>
-    <col min="10224" max="10224" width="25.7109375" style="3" customWidth="1"/>
-    <col min="10225" max="10225" width="30.7109375" style="3" customWidth="1"/>
-    <col min="10226" max="10226" width="15.7109375" style="3" customWidth="1"/>
-    <col min="10227" max="10227" width="21.42578125" style="3" customWidth="1"/>
-    <col min="10228" max="10228" width="35.7109375" style="3" customWidth="1"/>
-    <col min="10229" max="10229" width="15.7109375" style="3" customWidth="1"/>
-    <col min="10230" max="10230" width="20.7109375" style="3" customWidth="1"/>
+    <col min="9976" max="9976" width="13.453125" style="3" customWidth="1"/>
+    <col min="9977" max="9977" width="18.26953125" style="3" customWidth="1"/>
+    <col min="9978" max="9978" width="20.81640625" style="3" customWidth="1"/>
+    <col min="9979" max="9979" width="22.26953125" style="3" customWidth="1"/>
+    <col min="9980" max="9980" width="26.453125" style="3" customWidth="1"/>
+    <col min="9981" max="9981" width="35.7265625" style="3" customWidth="1"/>
+    <col min="9982" max="9982" width="15.7265625" style="3" customWidth="1"/>
+    <col min="9983" max="9983" width="14.1796875" style="3" customWidth="1"/>
+    <col min="9984" max="9984" width="19.7265625" style="3" customWidth="1"/>
+    <col min="9985" max="9985" width="25.81640625" style="3" customWidth="1"/>
+    <col min="9986" max="9986" width="24.54296875" style="3" customWidth="1"/>
+    <col min="9987" max="9987" width="13.1796875" style="3" customWidth="1"/>
+    <col min="9988" max="9988" width="10.453125" style="3" customWidth="1"/>
+    <col min="9989" max="9989" width="26.81640625" style="3" customWidth="1"/>
+    <col min="9990" max="9990" width="22.54296875" style="3" customWidth="1"/>
+    <col min="9991" max="10220" width="9.1796875" style="3" customWidth="1"/>
+    <col min="10221" max="10221" width="27.7265625" style="3" customWidth="1"/>
+    <col min="10222" max="10222" width="42.7265625" style="3" customWidth="1"/>
+    <col min="10223" max="10223" width="40.7265625" style="3" customWidth="1"/>
+    <col min="10224" max="10224" width="25.7265625" style="3" customWidth="1"/>
+    <col min="10225" max="10225" width="30.7265625" style="3" customWidth="1"/>
+    <col min="10226" max="10226" width="15.7265625" style="3" customWidth="1"/>
+    <col min="10227" max="10227" width="21.453125" style="3" customWidth="1"/>
+    <col min="10228" max="10228" width="35.7265625" style="3" customWidth="1"/>
+    <col min="10229" max="10229" width="15.7265625" style="3" customWidth="1"/>
+    <col min="10230" max="10230" width="20.7265625" style="3" customWidth="1"/>
     <col min="10231" max="10231" width="13" style="3" customWidth="1"/>
-    <col min="10232" max="10232" width="13.42578125" style="3" customWidth="1"/>
-    <col min="10233" max="10233" width="18.28515625" style="3" customWidth="1"/>
-    <col min="10234" max="10234" width="20.85546875" style="3" customWidth="1"/>
-    <col min="10235" max="10235" width="22.28515625" style="3" customWidth="1"/>
-    <col min="10236" max="10236" width="26.42578125" style="3" customWidth="1"/>
-    <col min="10237" max="10237" width="35.7109375" style="3" customWidth="1"/>
-    <col min="10238" max="10238" width="15.7109375" style="3" customWidth="1"/>
-    <col min="10239" max="10239" width="14.140625" style="3" customWidth="1"/>
-    <col min="10240" max="10240" width="19.7109375" style="3" customWidth="1"/>
-    <col min="10241" max="10241" width="25.85546875" style="3" customWidth="1"/>
-    <col min="10242" max="10242" width="24.5703125" style="3" customWidth="1"/>
-    <col min="10243" max="10243" width="13.140625" style="3" customWidth="1"/>
-    <col min="10244" max="10244" width="10.42578125" style="3" customWidth="1"/>
-    <col min="10245" max="10245" width="26.85546875" style="3" customWidth="1"/>
-    <col min="10246" max="10246" width="22.5703125" style="3" customWidth="1"/>
-    <col min="10247" max="10476" width="9.140625" style="3" customWidth="1"/>
-    <col min="10477" max="10477" width="27.7109375" style="3" customWidth="1"/>
-    <col min="10478" max="10478" width="42.7109375" style="3" customWidth="1"/>
-    <col min="10479" max="10479" width="40.7109375" style="3" customWidth="1"/>
-    <col min="10480" max="10480" width="25.7109375" style="3" customWidth="1"/>
-    <col min="10481" max="10481" width="30.7109375" style="3" customWidth="1"/>
-    <col min="10482" max="10482" width="15.7109375" style="3" customWidth="1"/>
-    <col min="10483" max="10483" width="21.42578125" style="3" customWidth="1"/>
-    <col min="10484" max="10484" width="35.7109375" style="3" customWidth="1"/>
-    <col min="10485" max="10485" width="15.7109375" style="3" customWidth="1"/>
-    <col min="10486" max="10486" width="20.7109375" style="3" customWidth="1"/>
+    <col min="10232" max="10232" width="13.453125" style="3" customWidth="1"/>
+    <col min="10233" max="10233" width="18.26953125" style="3" customWidth="1"/>
+    <col min="10234" max="10234" width="20.81640625" style="3" customWidth="1"/>
+    <col min="10235" max="10235" width="22.26953125" style="3" customWidth="1"/>
+    <col min="10236" max="10236" width="26.453125" style="3" customWidth="1"/>
+    <col min="10237" max="10237" width="35.7265625" style="3" customWidth="1"/>
+    <col min="10238" max="10238" width="15.7265625" style="3" customWidth="1"/>
+    <col min="10239" max="10239" width="14.1796875" style="3" customWidth="1"/>
+    <col min="10240" max="10240" width="19.7265625" style="3" customWidth="1"/>
+    <col min="10241" max="10241" width="25.81640625" style="3" customWidth="1"/>
+    <col min="10242" max="10242" width="24.54296875" style="3" customWidth="1"/>
+    <col min="10243" max="10243" width="13.1796875" style="3" customWidth="1"/>
+    <col min="10244" max="10244" width="10.453125" style="3" customWidth="1"/>
+    <col min="10245" max="10245" width="26.81640625" style="3" customWidth="1"/>
+    <col min="10246" max="10246" width="22.54296875" style="3" customWidth="1"/>
+    <col min="10247" max="10476" width="9.1796875" style="3" customWidth="1"/>
+    <col min="10477" max="10477" width="27.7265625" style="3" customWidth="1"/>
+    <col min="10478" max="10478" width="42.7265625" style="3" customWidth="1"/>
+    <col min="10479" max="10479" width="40.7265625" style="3" customWidth="1"/>
+    <col min="10480" max="10480" width="25.7265625" style="3" customWidth="1"/>
+    <col min="10481" max="10481" width="30.7265625" style="3" customWidth="1"/>
+    <col min="10482" max="10482" width="15.7265625" style="3" customWidth="1"/>
+    <col min="10483" max="10483" width="21.453125" style="3" customWidth="1"/>
+    <col min="10484" max="10484" width="35.7265625" style="3" customWidth="1"/>
+    <col min="10485" max="10485" width="15.7265625" style="3" customWidth="1"/>
+    <col min="10486" max="10486" width="20.7265625" style="3" customWidth="1"/>
     <col min="10487" max="10487" width="13" style="3" customWidth="1"/>
-    <col min="10488" max="10488" width="13.42578125" style="3" customWidth="1"/>
-    <col min="10489" max="10489" width="18.28515625" style="3" customWidth="1"/>
-    <col min="10490" max="10490" width="20.85546875" style="3" customWidth="1"/>
-    <col min="10491" max="10491" width="22.28515625" style="3" customWidth="1"/>
-    <col min="10492" max="10492" width="26.42578125" style="3" customWidth="1"/>
-    <col min="10493" max="10493" width="35.7109375" style="3" customWidth="1"/>
-    <col min="10494" max="10494" width="15.7109375" style="3" customWidth="1"/>
-    <col min="10495" max="10495" width="14.140625" style="3" customWidth="1"/>
-    <col min="10496" max="10496" width="19.7109375" style="3" customWidth="1"/>
-    <col min="10497" max="10497" width="25.85546875" style="3" customWidth="1"/>
-    <col min="10498" max="10498" width="24.5703125" style="3" customWidth="1"/>
-    <col min="10499" max="10499" width="13.140625" style="3" customWidth="1"/>
-    <col min="10500" max="10500" width="10.42578125" style="3" customWidth="1"/>
-    <col min="10501" max="10501" width="26.85546875" style="3" customWidth="1"/>
-    <col min="10502" max="10502" width="22.5703125" style="3" customWidth="1"/>
-    <col min="10503" max="10732" width="9.140625" style="3" customWidth="1"/>
-    <col min="10733" max="10733" width="27.7109375" style="3" customWidth="1"/>
-    <col min="10734" max="10734" width="42.7109375" style="3" customWidth="1"/>
-    <col min="10735" max="10735" width="40.7109375" style="3" customWidth="1"/>
-    <col min="10736" max="10736" width="25.7109375" style="3" customWidth="1"/>
-    <col min="10737" max="10737" width="30.7109375" style="3" customWidth="1"/>
-    <col min="10738" max="10738" width="15.7109375" style="3" customWidth="1"/>
-    <col min="10739" max="10739" width="21.42578125" style="3" customWidth="1"/>
-    <col min="10740" max="10740" width="35.7109375" style="3" customWidth="1"/>
-    <col min="10741" max="10741" width="15.7109375" style="3" customWidth="1"/>
-    <col min="10742" max="10742" width="20.7109375" style="3" customWidth="1"/>
+    <col min="10488" max="10488" width="13.453125" style="3" customWidth="1"/>
+    <col min="10489" max="10489" width="18.26953125" style="3" customWidth="1"/>
+    <col min="10490" max="10490" width="20.81640625" style="3" customWidth="1"/>
+    <col min="10491" max="10491" width="22.26953125" style="3" customWidth="1"/>
+    <col min="10492" max="10492" width="26.453125" style="3" customWidth="1"/>
+    <col min="10493" max="10493" width="35.7265625" style="3" customWidth="1"/>
+    <col min="10494" max="10494" width="15.7265625" style="3" customWidth="1"/>
+    <col min="10495" max="10495" width="14.1796875" style="3" customWidth="1"/>
+    <col min="10496" max="10496" width="19.7265625" style="3" customWidth="1"/>
+    <col min="10497" max="10497" width="25.81640625" style="3" customWidth="1"/>
+    <col min="10498" max="10498" width="24.54296875" style="3" customWidth="1"/>
+    <col min="10499" max="10499" width="13.1796875" style="3" customWidth="1"/>
+    <col min="10500" max="10500" width="10.453125" style="3" customWidth="1"/>
+    <col min="10501" max="10501" width="26.81640625" style="3" customWidth="1"/>
+    <col min="10502" max="10502" width="22.54296875" style="3" customWidth="1"/>
+    <col min="10503" max="10732" width="9.1796875" style="3" customWidth="1"/>
+    <col min="10733" max="10733" width="27.7265625" style="3" customWidth="1"/>
+    <col min="10734" max="10734" width="42.7265625" style="3" customWidth="1"/>
+    <col min="10735" max="10735" width="40.7265625" style="3" customWidth="1"/>
+    <col min="10736" max="10736" width="25.7265625" style="3" customWidth="1"/>
+    <col min="10737" max="10737" width="30.7265625" style="3" customWidth="1"/>
+    <col min="10738" max="10738" width="15.7265625" style="3" customWidth="1"/>
+    <col min="10739" max="10739" width="21.453125" style="3" customWidth="1"/>
+    <col min="10740" max="10740" width="35.7265625" style="3" customWidth="1"/>
+    <col min="10741" max="10741" width="15.7265625" style="3" customWidth="1"/>
+    <col min="10742" max="10742" width="20.7265625" style="3" customWidth="1"/>
     <col min="10743" max="10743" width="13" style="3" customWidth="1"/>
-    <col min="10744" max="10744" width="13.42578125" style="3" customWidth="1"/>
-    <col min="10745" max="10745" width="18.28515625" style="3" customWidth="1"/>
-    <col min="10746" max="10746" width="20.85546875" style="3" customWidth="1"/>
-    <col min="10747" max="10747" width="22.28515625" style="3" customWidth="1"/>
-    <col min="10748" max="10748" width="26.42578125" style="3" customWidth="1"/>
-    <col min="10749" max="10749" width="35.7109375" style="3" customWidth="1"/>
-    <col min="10750" max="10750" width="15.7109375" style="3" customWidth="1"/>
-    <col min="10751" max="10751" width="14.140625" style="3" customWidth="1"/>
-    <col min="10752" max="10752" width="19.7109375" style="3" customWidth="1"/>
-    <col min="10753" max="10753" width="25.85546875" style="3" customWidth="1"/>
-    <col min="10754" max="10754" width="24.5703125" style="3" customWidth="1"/>
-    <col min="10755" max="10755" width="13.140625" style="3" customWidth="1"/>
-    <col min="10756" max="10756" width="10.42578125" style="3" customWidth="1"/>
-    <col min="10757" max="10757" width="26.85546875" style="3" customWidth="1"/>
-    <col min="10758" max="10758" width="22.5703125" style="3" customWidth="1"/>
-    <col min="10759" max="10988" width="9.140625" style="3" customWidth="1"/>
-    <col min="10989" max="10989" width="27.7109375" style="3" customWidth="1"/>
-    <col min="10990" max="10990" width="42.7109375" style="3" customWidth="1"/>
-    <col min="10991" max="10991" width="40.7109375" style="3" customWidth="1"/>
-    <col min="10992" max="10992" width="25.7109375" style="3" customWidth="1"/>
-    <col min="10993" max="10993" width="30.7109375" style="3" customWidth="1"/>
-    <col min="10994" max="10994" width="15.7109375" style="3" customWidth="1"/>
-    <col min="10995" max="10995" width="21.42578125" style="3" customWidth="1"/>
-    <col min="10996" max="10996" width="35.7109375" style="3" customWidth="1"/>
-    <col min="10997" max="10997" width="15.7109375" style="3" customWidth="1"/>
-    <col min="10998" max="10998" width="20.7109375" style="3" customWidth="1"/>
+    <col min="10744" max="10744" width="13.453125" style="3" customWidth="1"/>
+    <col min="10745" max="10745" width="18.26953125" style="3" customWidth="1"/>
+    <col min="10746" max="10746" width="20.81640625" style="3" customWidth="1"/>
+    <col min="10747" max="10747" width="22.26953125" style="3" customWidth="1"/>
+    <col min="10748" max="10748" width="26.453125" style="3" customWidth="1"/>
+    <col min="10749" max="10749" width="35.7265625" style="3" customWidth="1"/>
+    <col min="10750" max="10750" width="15.7265625" style="3" customWidth="1"/>
+    <col min="10751" max="10751" width="14.1796875" style="3" customWidth="1"/>
+    <col min="10752" max="10752" width="19.7265625" style="3" customWidth="1"/>
+    <col min="10753" max="10753" width="25.81640625" style="3" customWidth="1"/>
+    <col min="10754" max="10754" width="24.54296875" style="3" customWidth="1"/>
+    <col min="10755" max="10755" width="13.1796875" style="3" customWidth="1"/>
+    <col min="10756" max="10756" width="10.453125" style="3" customWidth="1"/>
+    <col min="10757" max="10757" width="26.81640625" style="3" customWidth="1"/>
+    <col min="10758" max="10758" width="22.54296875" style="3" customWidth="1"/>
+    <col min="10759" max="10988" width="9.1796875" style="3" customWidth="1"/>
+    <col min="10989" max="10989" width="27.7265625" style="3" customWidth="1"/>
+    <col min="10990" max="10990" width="42.7265625" style="3" customWidth="1"/>
+    <col min="10991" max="10991" width="40.7265625" style="3" customWidth="1"/>
+    <col min="10992" max="10992" width="25.7265625" style="3" customWidth="1"/>
+    <col min="10993" max="10993" width="30.7265625" style="3" customWidth="1"/>
+    <col min="10994" max="10994" width="15.7265625" style="3" customWidth="1"/>
+    <col min="10995" max="10995" width="21.453125" style="3" customWidth="1"/>
+    <col min="10996" max="10996" width="35.7265625" style="3" customWidth="1"/>
+    <col min="10997" max="10997" width="15.7265625" style="3" customWidth="1"/>
+    <col min="10998" max="10998" width="20.7265625" style="3" customWidth="1"/>
     <col min="10999" max="10999" width="13" style="3" customWidth="1"/>
-    <col min="11000" max="11000" width="13.42578125" style="3" customWidth="1"/>
-    <col min="11001" max="11001" width="18.28515625" style="3" customWidth="1"/>
-    <col min="11002" max="11002" width="20.85546875" style="3" customWidth="1"/>
-    <col min="11003" max="11003" width="22.28515625" style="3" customWidth="1"/>
-    <col min="11004" max="11004" width="26.42578125" style="3" customWidth="1"/>
-    <col min="11005" max="11005" width="35.7109375" style="3" customWidth="1"/>
-    <col min="11006" max="11006" width="15.7109375" style="3" customWidth="1"/>
-    <col min="11007" max="11007" width="14.140625" style="3" customWidth="1"/>
-    <col min="11008" max="11008" width="19.7109375" style="3" customWidth="1"/>
-    <col min="11009" max="11009" width="25.85546875" style="3" customWidth="1"/>
-    <col min="11010" max="11010" width="24.5703125" style="3" customWidth="1"/>
-    <col min="11011" max="11011" width="13.140625" style="3" customWidth="1"/>
-    <col min="11012" max="11012" width="10.42578125" style="3" customWidth="1"/>
-    <col min="11013" max="11013" width="26.85546875" style="3" customWidth="1"/>
-    <col min="11014" max="11014" width="22.5703125" style="3" customWidth="1"/>
-    <col min="11015" max="11244" width="9.140625" style="3" customWidth="1"/>
-    <col min="11245" max="11245" width="27.7109375" style="3" customWidth="1"/>
-    <col min="11246" max="11246" width="42.7109375" style="3" customWidth="1"/>
-    <col min="11247" max="11247" width="40.7109375" style="3" customWidth="1"/>
-    <col min="11248" max="11248" width="25.7109375" style="3" customWidth="1"/>
-    <col min="11249" max="11249" width="30.7109375" style="3" customWidth="1"/>
-    <col min="11250" max="11250" width="15.7109375" style="3" customWidth="1"/>
-    <col min="11251" max="11251" width="21.42578125" style="3" customWidth="1"/>
-    <col min="11252" max="11252" width="35.7109375" style="3" customWidth="1"/>
-    <col min="11253" max="11253" width="15.7109375" style="3" customWidth="1"/>
-    <col min="11254" max="11254" width="20.7109375" style="3" customWidth="1"/>
+    <col min="11000" max="11000" width="13.453125" style="3" customWidth="1"/>
+    <col min="11001" max="11001" width="18.26953125" style="3" customWidth="1"/>
+    <col min="11002" max="11002" width="20.81640625" style="3" customWidth="1"/>
+    <col min="11003" max="11003" width="22.26953125" style="3" customWidth="1"/>
+    <col min="11004" max="11004" width="26.453125" style="3" customWidth="1"/>
+    <col min="11005" max="11005" width="35.7265625" style="3" customWidth="1"/>
+    <col min="11006" max="11006" width="15.7265625" style="3" customWidth="1"/>
+    <col min="11007" max="11007" width="14.1796875" style="3" customWidth="1"/>
+    <col min="11008" max="11008" width="19.7265625" style="3" customWidth="1"/>
+    <col min="11009" max="11009" width="25.81640625" style="3" customWidth="1"/>
+    <col min="11010" max="11010" width="24.54296875" style="3" customWidth="1"/>
+    <col min="11011" max="11011" width="13.1796875" style="3" customWidth="1"/>
+    <col min="11012" max="11012" width="10.453125" style="3" customWidth="1"/>
+    <col min="11013" max="11013" width="26.81640625" style="3" customWidth="1"/>
+    <col min="11014" max="11014" width="22.54296875" style="3" customWidth="1"/>
+    <col min="11015" max="11244" width="9.1796875" style="3" customWidth="1"/>
+    <col min="11245" max="11245" width="27.7265625" style="3" customWidth="1"/>
+    <col min="11246" max="11246" width="42.7265625" style="3" customWidth="1"/>
+    <col min="11247" max="11247" width="40.7265625" style="3" customWidth="1"/>
+    <col min="11248" max="11248" width="25.7265625" style="3" customWidth="1"/>
+    <col min="11249" max="11249" width="30.7265625" style="3" customWidth="1"/>
+    <col min="11250" max="11250" width="15.7265625" style="3" customWidth="1"/>
+    <col min="11251" max="11251" width="21.453125" style="3" customWidth="1"/>
+    <col min="11252" max="11252" width="35.7265625" style="3" customWidth="1"/>
+    <col min="11253" max="11253" width="15.7265625" style="3" customWidth="1"/>
+    <col min="11254" max="11254" width="20.7265625" style="3" customWidth="1"/>
     <col min="11255" max="11255" width="13" style="3" customWidth="1"/>
-    <col min="11256" max="11256" width="13.42578125" style="3" customWidth="1"/>
-    <col min="11257" max="11257" width="18.28515625" style="3" customWidth="1"/>
-    <col min="11258" max="11258" width="20.85546875" style="3" customWidth="1"/>
-    <col min="11259" max="11259" width="22.28515625" style="3" customWidth="1"/>
-    <col min="11260" max="11260" width="26.42578125" style="3" customWidth="1"/>
-    <col min="11261" max="11261" width="35.7109375" style="3" customWidth="1"/>
-    <col min="11262" max="11262" width="15.7109375" style="3" customWidth="1"/>
-    <col min="11263" max="11263" width="14.140625" style="3" customWidth="1"/>
-    <col min="11264" max="11264" width="19.7109375" style="3" customWidth="1"/>
-    <col min="11265" max="11265" width="25.85546875" style="3" customWidth="1"/>
-    <col min="11266" max="11266" width="24.5703125" style="3" customWidth="1"/>
-    <col min="11267" max="11267" width="13.140625" style="3" customWidth="1"/>
-    <col min="11268" max="11268" width="10.42578125" style="3" customWidth="1"/>
-    <col min="11269" max="11269" width="26.85546875" style="3" customWidth="1"/>
-    <col min="11270" max="11270" width="22.5703125" style="3" customWidth="1"/>
-    <col min="11271" max="11500" width="9.140625" style="3" customWidth="1"/>
-    <col min="11501" max="11501" width="27.7109375" style="3" customWidth="1"/>
-    <col min="11502" max="11502" width="42.7109375" style="3" customWidth="1"/>
-    <col min="11503" max="11503" width="40.7109375" style="3" customWidth="1"/>
-    <col min="11504" max="11504" width="25.7109375" style="3" customWidth="1"/>
-    <col min="11505" max="11505" width="30.7109375" style="3" customWidth="1"/>
-    <col min="11506" max="11506" width="15.7109375" style="3" customWidth="1"/>
-    <col min="11507" max="11507" width="21.42578125" style="3" customWidth="1"/>
-    <col min="11508" max="11508" width="35.7109375" style="3" customWidth="1"/>
-    <col min="11509" max="11509" width="15.7109375" style="3" customWidth="1"/>
-    <col min="11510" max="11510" width="20.7109375" style="3" customWidth="1"/>
+    <col min="11256" max="11256" width="13.453125" style="3" customWidth="1"/>
+    <col min="11257" max="11257" width="18.26953125" style="3" customWidth="1"/>
+    <col min="11258" max="11258" width="20.81640625" style="3" customWidth="1"/>
+    <col min="11259" max="11259" width="22.26953125" style="3" customWidth="1"/>
+    <col min="11260" max="11260" width="26.453125" style="3" customWidth="1"/>
+    <col min="11261" max="11261" width="35.7265625" style="3" customWidth="1"/>
+    <col min="11262" max="11262" width="15.7265625" style="3" customWidth="1"/>
+    <col min="11263" max="11263" width="14.1796875" style="3" customWidth="1"/>
+    <col min="11264" max="11264" width="19.7265625" style="3" customWidth="1"/>
+    <col min="11265" max="11265" width="25.81640625" style="3" customWidth="1"/>
+    <col min="11266" max="11266" width="24.54296875" style="3" customWidth="1"/>
+    <col min="11267" max="11267" width="13.1796875" style="3" customWidth="1"/>
+    <col min="11268" max="11268" width="10.453125" style="3" customWidth="1"/>
+    <col min="11269" max="11269" width="26.81640625" style="3" customWidth="1"/>
+    <col min="11270" max="11270" width="22.54296875" style="3" customWidth="1"/>
+    <col min="11271" max="11500" width="9.1796875" style="3" customWidth="1"/>
+    <col min="11501" max="11501" width="27.7265625" style="3" customWidth="1"/>
+    <col min="11502" max="11502" width="42.7265625" style="3" customWidth="1"/>
+    <col min="11503" max="11503" width="40.7265625" style="3" customWidth="1"/>
+    <col min="11504" max="11504" width="25.7265625" style="3" customWidth="1"/>
+    <col min="11505" max="11505" width="30.7265625" style="3" customWidth="1"/>
+    <col min="11506" max="11506" width="15.7265625" style="3" customWidth="1"/>
+    <col min="11507" max="11507" width="21.453125" style="3" customWidth="1"/>
+    <col min="11508" max="11508" width="35.7265625" style="3" customWidth="1"/>
+    <col min="11509" max="11509" width="15.7265625" style="3" customWidth="1"/>
+    <col min="11510" max="11510" width="20.7265625" style="3" customWidth="1"/>
     <col min="11511" max="11511" width="13" style="3" customWidth="1"/>
-    <col min="11512" max="11512" width="13.42578125" style="3" customWidth="1"/>
-    <col min="11513" max="11513" width="18.28515625" style="3" customWidth="1"/>
-    <col min="11514" max="11514" width="20.85546875" style="3" customWidth="1"/>
-    <col min="11515" max="11515" width="22.28515625" style="3" customWidth="1"/>
-    <col min="11516" max="11516" width="26.42578125" style="3" customWidth="1"/>
-    <col min="11517" max="11517" width="35.7109375" style="3" customWidth="1"/>
-    <col min="11518" max="11518" width="15.7109375" style="3" customWidth="1"/>
-    <col min="11519" max="11519" width="14.140625" style="3" customWidth="1"/>
-    <col min="11520" max="11520" width="19.7109375" style="3" customWidth="1"/>
-    <col min="11521" max="11521" width="25.85546875" style="3" customWidth="1"/>
-    <col min="11522" max="11522" width="24.5703125" style="3" customWidth="1"/>
-    <col min="11523" max="11523" width="13.140625" style="3" customWidth="1"/>
-    <col min="11524" max="11524" width="10.42578125" style="3" customWidth="1"/>
-    <col min="11525" max="11525" width="26.85546875" style="3" customWidth="1"/>
-    <col min="11526" max="11526" width="22.5703125" style="3" customWidth="1"/>
-    <col min="11527" max="11756" width="9.140625" style="3" customWidth="1"/>
-    <col min="11757" max="11757" width="27.7109375" style="3" customWidth="1"/>
-    <col min="11758" max="11758" width="42.7109375" style="3" customWidth="1"/>
-    <col min="11759" max="11759" width="40.7109375" style="3" customWidth="1"/>
-    <col min="11760" max="11760" width="25.7109375" style="3" customWidth="1"/>
-    <col min="11761" max="11761" width="30.7109375" style="3" customWidth="1"/>
-    <col min="11762" max="11762" width="15.7109375" style="3" customWidth="1"/>
-    <col min="11763" max="11763" width="21.42578125" style="3" customWidth="1"/>
-    <col min="11764" max="11764" width="35.7109375" style="3" customWidth="1"/>
-    <col min="11765" max="11765" width="15.7109375" style="3" customWidth="1"/>
-    <col min="11766" max="11766" width="20.7109375" style="3" customWidth="1"/>
+    <col min="11512" max="11512" width="13.453125" style="3" customWidth="1"/>
+    <col min="11513" max="11513" width="18.26953125" style="3" customWidth="1"/>
+    <col min="11514" max="11514" width="20.81640625" style="3" customWidth="1"/>
+    <col min="11515" max="11515" width="22.26953125" style="3" customWidth="1"/>
+    <col min="11516" max="11516" width="26.453125" style="3" customWidth="1"/>
+    <col min="11517" max="11517" width="35.7265625" style="3" customWidth="1"/>
+    <col min="11518" max="11518" width="15.7265625" style="3" customWidth="1"/>
+    <col min="11519" max="11519" width="14.1796875" style="3" customWidth="1"/>
+    <col min="11520" max="11520" width="19.7265625" style="3" customWidth="1"/>
+    <col min="11521" max="11521" width="25.81640625" style="3" customWidth="1"/>
+    <col min="11522" max="11522" width="24.54296875" style="3" customWidth="1"/>
+    <col min="11523" max="11523" width="13.1796875" style="3" customWidth="1"/>
+    <col min="11524" max="11524" width="10.453125" style="3" customWidth="1"/>
+    <col min="11525" max="11525" width="26.81640625" style="3" customWidth="1"/>
+    <col min="11526" max="11526" width="22.54296875" style="3" customWidth="1"/>
+    <col min="11527" max="11756" width="9.1796875" style="3" customWidth="1"/>
+    <col min="11757" max="11757" width="27.7265625" style="3" customWidth="1"/>
+    <col min="11758" max="11758" width="42.7265625" style="3" customWidth="1"/>
+    <col min="11759" max="11759" width="40.7265625" style="3" customWidth="1"/>
+    <col min="11760" max="11760" width="25.7265625" style="3" customWidth="1"/>
+    <col min="11761" max="11761" width="30.7265625" style="3" customWidth="1"/>
+    <col min="11762" max="11762" width="15.7265625" style="3" customWidth="1"/>
+    <col min="11763" max="11763" width="21.453125" style="3" customWidth="1"/>
+    <col min="11764" max="11764" width="35.7265625" style="3" customWidth="1"/>
+    <col min="11765" max="11765" width="15.7265625" style="3" customWidth="1"/>
+    <col min="11766" max="11766" width="20.7265625" style="3" customWidth="1"/>
     <col min="11767" max="11767" width="13" style="3" customWidth="1"/>
-    <col min="11768" max="11768" width="13.42578125" style="3" customWidth="1"/>
-    <col min="11769" max="11769" width="18.28515625" style="3" customWidth="1"/>
-    <col min="11770" max="11770" width="20.85546875" style="3" customWidth="1"/>
-    <col min="11771" max="11771" width="22.28515625" style="3" customWidth="1"/>
-    <col min="11772" max="11772" width="26.42578125" style="3" customWidth="1"/>
-    <col min="11773" max="11773" width="35.7109375" style="3" customWidth="1"/>
-    <col min="11774" max="11774" width="15.7109375" style="3" customWidth="1"/>
-    <col min="11775" max="11775" width="14.140625" style="3" customWidth="1"/>
-    <col min="11776" max="11776" width="19.7109375" style="3" customWidth="1"/>
-    <col min="11777" max="11777" width="25.85546875" style="3" customWidth="1"/>
-    <col min="11778" max="11778" width="24.5703125" style="3" customWidth="1"/>
-    <col min="11779" max="11779" width="13.140625" style="3" customWidth="1"/>
-    <col min="11780" max="11780" width="10.42578125" style="3" customWidth="1"/>
-    <col min="11781" max="11781" width="26.85546875" style="3" customWidth="1"/>
-    <col min="11782" max="11782" width="22.5703125" style="3" customWidth="1"/>
-    <col min="11783" max="12012" width="9.140625" style="3" customWidth="1"/>
-    <col min="12013" max="12013" width="27.7109375" style="3" customWidth="1"/>
-    <col min="12014" max="12014" width="42.7109375" style="3" customWidth="1"/>
-    <col min="12015" max="12015" width="40.7109375" style="3" customWidth="1"/>
-    <col min="12016" max="12016" width="25.7109375" style="3" customWidth="1"/>
-    <col min="12017" max="12017" width="30.7109375" style="3" customWidth="1"/>
-    <col min="12018" max="12018" width="15.7109375" style="3" customWidth="1"/>
-    <col min="12019" max="12019" width="21.42578125" style="3" customWidth="1"/>
-    <col min="12020" max="12020" width="35.7109375" style="3" customWidth="1"/>
-    <col min="12021" max="12021" width="15.7109375" style="3" customWidth="1"/>
-    <col min="12022" max="12022" width="20.7109375" style="3" customWidth="1"/>
+    <col min="11768" max="11768" width="13.453125" style="3" customWidth="1"/>
+    <col min="11769" max="11769" width="18.26953125" style="3" customWidth="1"/>
+    <col min="11770" max="11770" width="20.81640625" style="3" customWidth="1"/>
+    <col min="11771" max="11771" width="22.26953125" style="3" customWidth="1"/>
+    <col min="11772" max="11772" width="26.453125" style="3" customWidth="1"/>
+    <col min="11773" max="11773" width="35.7265625" style="3" customWidth="1"/>
+    <col min="11774" max="11774" width="15.7265625" style="3" customWidth="1"/>
+    <col min="11775" max="11775" width="14.1796875" style="3" customWidth="1"/>
+    <col min="11776" max="11776" width="19.7265625" style="3" customWidth="1"/>
+    <col min="11777" max="11777" width="25.81640625" style="3" customWidth="1"/>
+    <col min="11778" max="11778" width="24.54296875" style="3" customWidth="1"/>
+    <col min="11779" max="11779" width="13.1796875" style="3" customWidth="1"/>
+    <col min="11780" max="11780" width="10.453125" style="3" customWidth="1"/>
+    <col min="11781" max="11781" width="26.81640625" style="3" customWidth="1"/>
+    <col min="11782" max="11782" width="22.54296875" style="3" customWidth="1"/>
+    <col min="11783" max="12012" width="9.1796875" style="3" customWidth="1"/>
+    <col min="12013" max="12013" width="27.7265625" style="3" customWidth="1"/>
+    <col min="12014" max="12014" width="42.7265625" style="3" customWidth="1"/>
+    <col min="12015" max="12015" width="40.7265625" style="3" customWidth="1"/>
+    <col min="12016" max="12016" width="25.7265625" style="3" customWidth="1"/>
+    <col min="12017" max="12017" width="30.7265625" style="3" customWidth="1"/>
+    <col min="12018" max="12018" width="15.7265625" style="3" customWidth="1"/>
+    <col min="12019" max="12019" width="21.453125" style="3" customWidth="1"/>
+    <col min="12020" max="12020" width="35.7265625" style="3" customWidth="1"/>
+    <col min="12021" max="12021" width="15.7265625" style="3" customWidth="1"/>
+    <col min="12022" max="12022" width="20.7265625" style="3" customWidth="1"/>
     <col min="12023" max="12023" width="13" style="3" customWidth="1"/>
-    <col min="12024" max="12024" width="13.42578125" style="3" customWidth="1"/>
-    <col min="12025" max="12025" width="18.28515625" style="3" customWidth="1"/>
-    <col min="12026" max="12026" width="20.85546875" style="3" customWidth="1"/>
-    <col min="12027" max="12027" width="22.28515625" style="3" customWidth="1"/>
-    <col min="12028" max="12028" width="26.42578125" style="3" customWidth="1"/>
-    <col min="12029" max="12029" width="35.7109375" style="3" customWidth="1"/>
-    <col min="12030" max="12030" width="15.7109375" style="3" customWidth="1"/>
-    <col min="12031" max="12031" width="14.140625" style="3" customWidth="1"/>
-    <col min="12032" max="12032" width="19.7109375" style="3" customWidth="1"/>
-    <col min="12033" max="12033" width="25.85546875" style="3" customWidth="1"/>
-    <col min="12034" max="12034" width="24.5703125" style="3" customWidth="1"/>
-    <col min="12035" max="12035" width="13.140625" style="3" customWidth="1"/>
-    <col min="12036" max="12036" width="10.42578125" style="3" customWidth="1"/>
-    <col min="12037" max="12037" width="26.85546875" style="3" customWidth="1"/>
-    <col min="12038" max="12038" width="22.5703125" style="3" customWidth="1"/>
-    <col min="12039" max="12268" width="9.140625" style="3" customWidth="1"/>
-    <col min="12269" max="12269" width="27.7109375" style="3" customWidth="1"/>
-    <col min="12270" max="12270" width="42.7109375" style="3" customWidth="1"/>
-    <col min="12271" max="12271" width="40.7109375" style="3" customWidth="1"/>
-    <col min="12272" max="12272" width="25.7109375" style="3" customWidth="1"/>
-    <col min="12273" max="12273" width="30.7109375" style="3" customWidth="1"/>
-    <col min="12274" max="12274" width="15.7109375" style="3" customWidth="1"/>
-    <col min="12275" max="12275" width="21.42578125" style="3" customWidth="1"/>
-    <col min="12276" max="12276" width="35.7109375" style="3" customWidth="1"/>
-    <col min="12277" max="12277" width="15.7109375" style="3" customWidth="1"/>
-    <col min="12278" max="12278" width="20.7109375" style="3" customWidth="1"/>
+    <col min="12024" max="12024" width="13.453125" style="3" customWidth="1"/>
+    <col min="12025" max="12025" width="18.26953125" style="3" customWidth="1"/>
+    <col min="12026" max="12026" width="20.81640625" style="3" customWidth="1"/>
+    <col min="12027" max="12027" width="22.26953125" style="3" customWidth="1"/>
+    <col min="12028" max="12028" width="26.453125" style="3" customWidth="1"/>
+    <col min="12029" max="12029" width="35.7265625" style="3" customWidth="1"/>
+    <col min="12030" max="12030" width="15.7265625" style="3" customWidth="1"/>
+    <col min="12031" max="12031" width="14.1796875" style="3" customWidth="1"/>
+    <col min="12032" max="12032" width="19.7265625" style="3" customWidth="1"/>
+    <col min="12033" max="12033" width="25.81640625" style="3" customWidth="1"/>
+    <col min="12034" max="12034" width="24.54296875" style="3" customWidth="1"/>
+    <col min="12035" max="12035" width="13.1796875" style="3" customWidth="1"/>
+    <col min="12036" max="12036" width="10.453125" style="3" customWidth="1"/>
+    <col min="12037" max="12037" width="26.81640625" style="3" customWidth="1"/>
+    <col min="12038" max="12038" width="22.54296875" style="3" customWidth="1"/>
+    <col min="12039" max="12268" width="9.1796875" style="3" customWidth="1"/>
+    <col min="12269" max="12269" width="27.7265625" style="3" customWidth="1"/>
+    <col min="12270" max="12270" width="42.7265625" style="3" customWidth="1"/>
+    <col min="12271" max="12271" width="40.7265625" style="3" customWidth="1"/>
+    <col min="12272" max="12272" width="25.7265625" style="3" customWidth="1"/>
+    <col min="12273" max="12273" width="30.7265625" style="3" customWidth="1"/>
+    <col min="12274" max="12274" width="15.7265625" style="3" customWidth="1"/>
+    <col min="12275" max="12275" width="21.453125" style="3" customWidth="1"/>
+    <col min="12276" max="12276" width="35.7265625" style="3" customWidth="1"/>
+    <col min="12277" max="12277" width="15.7265625" style="3" customWidth="1"/>
+    <col min="12278" max="12278" width="20.7265625" style="3" customWidth="1"/>
     <col min="12279" max="12279" width="13" style="3" customWidth="1"/>
-    <col min="12280" max="12280" width="13.42578125" style="3" customWidth="1"/>
-    <col min="12281" max="12281" width="18.28515625" style="3" customWidth="1"/>
-    <col min="12282" max="12282" width="20.85546875" style="3" customWidth="1"/>
-    <col min="12283" max="12283" width="22.28515625" style="3" customWidth="1"/>
-    <col min="12284" max="12284" width="26.42578125" style="3" customWidth="1"/>
-    <col min="12285" max="12285" width="35.7109375" style="3" customWidth="1"/>
-    <col min="12286" max="12286" width="15.7109375" style="3" customWidth="1"/>
-    <col min="12287" max="12287" width="14.140625" style="3" customWidth="1"/>
-    <col min="12288" max="12288" width="19.7109375" style="3" customWidth="1"/>
-    <col min="12289" max="12289" width="25.85546875" style="3" customWidth="1"/>
-    <col min="12290" max="12290" width="24.5703125" style="3" customWidth="1"/>
-    <col min="12291" max="12291" width="13.140625" style="3" customWidth="1"/>
-    <col min="12292" max="12292" width="10.42578125" style="3" customWidth="1"/>
-    <col min="12293" max="12293" width="26.85546875" style="3" customWidth="1"/>
-    <col min="12294" max="12294" width="22.5703125" style="3" customWidth="1"/>
-    <col min="12295" max="12524" width="9.140625" style="3" customWidth="1"/>
-    <col min="12525" max="12525" width="27.7109375" style="3" customWidth="1"/>
-    <col min="12526" max="12526" width="42.7109375" style="3" customWidth="1"/>
-    <col min="12527" max="12527" width="40.7109375" style="3" customWidth="1"/>
-    <col min="12528" max="12528" width="25.7109375" style="3" customWidth="1"/>
-    <col min="12529" max="12529" width="30.7109375" style="3" customWidth="1"/>
-    <col min="12530" max="12530" width="15.7109375" style="3" customWidth="1"/>
-    <col min="12531" max="12531" width="21.42578125" style="3" customWidth="1"/>
-    <col min="12532" max="12532" width="35.7109375" style="3" customWidth="1"/>
-    <col min="12533" max="12533" width="15.7109375" style="3" customWidth="1"/>
-    <col min="12534" max="12534" width="20.7109375" style="3" customWidth="1"/>
+    <col min="12280" max="12280" width="13.453125" style="3" customWidth="1"/>
+    <col min="12281" max="12281" width="18.26953125" style="3" customWidth="1"/>
+    <col min="12282" max="12282" width="20.81640625" style="3" customWidth="1"/>
+    <col min="12283" max="12283" width="22.26953125" style="3" customWidth="1"/>
+    <col min="12284" max="12284" width="26.453125" style="3" customWidth="1"/>
+    <col min="12285" max="12285" width="35.7265625" style="3" customWidth="1"/>
+    <col min="12286" max="12286" width="15.7265625" style="3" customWidth="1"/>
+    <col min="12287" max="12287" width="14.1796875" style="3" customWidth="1"/>
+    <col min="12288" max="12288" width="19.7265625" style="3" customWidth="1"/>
+    <col min="12289" max="12289" width="25.81640625" style="3" customWidth="1"/>
+    <col min="12290" max="12290" width="24.54296875" style="3" customWidth="1"/>
+    <col min="12291" max="12291" width="13.1796875" style="3" customWidth="1"/>
+    <col min="12292" max="12292" width="10.453125" style="3" customWidth="1"/>
+    <col min="12293" max="12293" width="26.81640625" style="3" customWidth="1"/>
+    <col min="12294" max="12294" width="22.54296875" style="3" customWidth="1"/>
+    <col min="12295" max="12524" width="9.1796875" style="3" customWidth="1"/>
+    <col min="12525" max="12525" width="27.7265625" style="3" customWidth="1"/>
+    <col min="12526" max="12526" width="42.7265625" style="3" customWidth="1"/>
+    <col min="12527" max="12527" width="40.7265625" style="3" customWidth="1"/>
+    <col min="12528" max="12528" width="25.7265625" style="3" customWidth="1"/>
+    <col min="12529" max="12529" width="30.7265625" style="3" customWidth="1"/>
+    <col min="12530" max="12530" width="15.7265625" style="3" customWidth="1"/>
+    <col min="12531" max="12531" width="21.453125" style="3" customWidth="1"/>
+    <col min="12532" max="12532" width="35.7265625" style="3" customWidth="1"/>
+    <col min="12533" max="12533" width="15.7265625" style="3" customWidth="1"/>
+    <col min="12534" max="12534" width="20.7265625" style="3" customWidth="1"/>
     <col min="12535" max="12535" width="13" style="3" customWidth="1"/>
-    <col min="12536" max="12536" width="13.42578125" style="3" customWidth="1"/>
-    <col min="12537" max="12537" width="18.28515625" style="3" customWidth="1"/>
-    <col min="12538" max="12538" width="20.85546875" style="3" customWidth="1"/>
-    <col min="12539" max="12539" width="22.28515625" style="3" customWidth="1"/>
-    <col min="12540" max="12540" width="26.42578125" style="3" customWidth="1"/>
-    <col min="12541" max="12541" width="35.7109375" style="3" customWidth="1"/>
-    <col min="12542" max="12542" width="15.7109375" style="3" customWidth="1"/>
-    <col min="12543" max="12543" width="14.140625" style="3" customWidth="1"/>
-    <col min="12544" max="12544" width="19.7109375" style="3" customWidth="1"/>
-    <col min="12545" max="12545" width="25.85546875" style="3" customWidth="1"/>
-    <col min="12546" max="12546" width="24.5703125" style="3" customWidth="1"/>
-    <col min="12547" max="12547" width="13.140625" style="3" customWidth="1"/>
-    <col min="12548" max="12548" width="10.42578125" style="3" customWidth="1"/>
-    <col min="12549" max="12549" width="26.85546875" style="3" customWidth="1"/>
-    <col min="12550" max="12550" width="22.5703125" style="3" customWidth="1"/>
-    <col min="12551" max="12780" width="9.140625" style="3" customWidth="1"/>
-    <col min="12781" max="12781" width="27.7109375" style="3" customWidth="1"/>
-    <col min="12782" max="12782" width="42.7109375" style="3" customWidth="1"/>
-    <col min="12783" max="12783" width="40.7109375" style="3" customWidth="1"/>
-    <col min="12784" max="12784" width="25.7109375" style="3" customWidth="1"/>
-    <col min="12785" max="12785" width="30.7109375" style="3" customWidth="1"/>
-    <col min="12786" max="12786" width="15.7109375" style="3" customWidth="1"/>
-    <col min="12787" max="12787" width="21.42578125" style="3" customWidth="1"/>
-    <col min="12788" max="12788" width="35.7109375" style="3" customWidth="1"/>
-    <col min="12789" max="12789" width="15.7109375" style="3" customWidth="1"/>
-    <col min="12790" max="12790" width="20.7109375" style="3" customWidth="1"/>
+    <col min="12536" max="12536" width="13.453125" style="3" customWidth="1"/>
+    <col min="12537" max="12537" width="18.26953125" style="3" customWidth="1"/>
+    <col min="12538" max="12538" width="20.81640625" style="3" customWidth="1"/>
+    <col min="12539" max="12539" width="22.26953125" style="3" customWidth="1"/>
+    <col min="12540" max="12540" width="26.453125" style="3" customWidth="1"/>
+    <col min="12541" max="12541" width="35.7265625" style="3" customWidth="1"/>
+    <col min="12542" max="12542" width="15.7265625" style="3" customWidth="1"/>
+    <col min="12543" max="12543" width="14.1796875" style="3" customWidth="1"/>
+    <col min="12544" max="12544" width="19.7265625" style="3" customWidth="1"/>
+    <col min="12545" max="12545" width="25.81640625" style="3" customWidth="1"/>
+    <col min="12546" max="12546" width="24.54296875" style="3" customWidth="1"/>
+    <col min="12547" max="12547" width="13.1796875" style="3" customWidth="1"/>
+    <col min="12548" max="12548" width="10.453125" style="3" customWidth="1"/>
+    <col min="12549" max="12549" width="26.81640625" style="3" customWidth="1"/>
+    <col min="12550" max="12550" width="22.54296875" style="3" customWidth="1"/>
+    <col min="12551" max="12780" width="9.1796875" style="3" customWidth="1"/>
+    <col min="12781" max="12781" width="27.7265625" style="3" customWidth="1"/>
+    <col min="12782" max="12782" width="42.7265625" style="3" customWidth="1"/>
+    <col min="12783" max="12783" width="40.7265625" style="3" customWidth="1"/>
+    <col min="12784" max="12784" width="25.7265625" style="3" customWidth="1"/>
+    <col min="12785" max="12785" width="30.7265625" style="3" customWidth="1"/>
+    <col min="12786" max="12786" width="15.7265625" style="3" customWidth="1"/>
+    <col min="12787" max="12787" width="21.453125" style="3" customWidth="1"/>
+    <col min="12788" max="12788" width="35.7265625" style="3" customWidth="1"/>
+    <col min="12789" max="12789" width="15.7265625" style="3" customWidth="1"/>
+    <col min="12790" max="12790" width="20.7265625" style="3" customWidth="1"/>
     <col min="12791" max="12791" width="13" style="3" customWidth="1"/>
-    <col min="12792" max="12792" width="13.42578125" style="3" customWidth="1"/>
-    <col min="12793" max="12793" width="18.28515625" style="3" customWidth="1"/>
-    <col min="12794" max="12794" width="20.85546875" style="3" customWidth="1"/>
-    <col min="12795" max="12795" width="22.28515625" style="3" customWidth="1"/>
-    <col min="12796" max="12796" width="26.42578125" style="3" customWidth="1"/>
-    <col min="12797" max="12797" width="35.7109375" style="3" customWidth="1"/>
-    <col min="12798" max="12798" width="15.7109375" style="3" customWidth="1"/>
-    <col min="12799" max="12799" width="14.140625" style="3" customWidth="1"/>
-    <col min="12800" max="12800" width="19.7109375" style="3" customWidth="1"/>
-    <col min="12801" max="12801" width="25.85546875" style="3" customWidth="1"/>
-    <col min="12802" max="12802" width="24.5703125" style="3" customWidth="1"/>
-    <col min="12803" max="12803" width="13.140625" style="3" customWidth="1"/>
-    <col min="12804" max="12804" width="10.42578125" style="3" customWidth="1"/>
-    <col min="12805" max="12805" width="26.85546875" style="3" customWidth="1"/>
-    <col min="12806" max="12806" width="22.5703125" style="3" customWidth="1"/>
-    <col min="12807" max="13036" width="9.140625" style="3" customWidth="1"/>
-    <col min="13037" max="13037" width="27.7109375" style="3" customWidth="1"/>
-    <col min="13038" max="13038" width="42.7109375" style="3" customWidth="1"/>
-    <col min="13039" max="13039" width="40.7109375" style="3" customWidth="1"/>
-    <col min="13040" max="13040" width="25.7109375" style="3" customWidth="1"/>
-    <col min="13041" max="13041" width="30.7109375" style="3" customWidth="1"/>
-    <col min="13042" max="13042" width="15.7109375" style="3" customWidth="1"/>
-    <col min="13043" max="13043" width="21.42578125" style="3" customWidth="1"/>
-    <col min="13044" max="13044" width="35.7109375" style="3" customWidth="1"/>
-    <col min="13045" max="13045" width="15.7109375" style="3" customWidth="1"/>
-    <col min="13046" max="13046" width="20.7109375" style="3" customWidth="1"/>
+    <col min="12792" max="12792" width="13.453125" style="3" customWidth="1"/>
+    <col min="12793" max="12793" width="18.26953125" style="3" customWidth="1"/>
+    <col min="12794" max="12794" width="20.81640625" style="3" customWidth="1"/>
+    <col min="12795" max="12795" width="22.26953125" style="3" customWidth="1"/>
+    <col min="12796" max="12796" width="26.453125" style="3" customWidth="1"/>
+    <col min="12797" max="12797" width="35.7265625" style="3" customWidth="1"/>
+    <col min="12798" max="12798" width="15.7265625" style="3" customWidth="1"/>
+    <col min="12799" max="12799" width="14.1796875" style="3" customWidth="1"/>
+    <col min="12800" max="12800" width="19.7265625" style="3" customWidth="1"/>
+    <col min="12801" max="12801" width="25.81640625" style="3" customWidth="1"/>
+    <col min="12802" max="12802" width="24.54296875" style="3" customWidth="1"/>
+    <col min="12803" max="12803" width="13.1796875" style="3" customWidth="1"/>
+    <col min="12804" max="12804" width="10.453125" style="3" customWidth="1"/>
+    <col min="12805" max="12805" width="26.81640625" style="3" customWidth="1"/>
+    <col min="12806" max="12806" width="22.54296875" style="3" customWidth="1"/>
+    <col min="12807" max="13036" width="9.1796875" style="3" customWidth="1"/>
+    <col min="13037" max="13037" width="27.7265625" style="3" customWidth="1"/>
+    <col min="13038" max="13038" width="42.7265625" style="3" customWidth="1"/>
+    <col min="13039" max="13039" width="40.7265625" style="3" customWidth="1"/>
+    <col min="13040" max="13040" width="25.7265625" style="3" customWidth="1"/>
+    <col min="13041" max="13041" width="30.7265625" style="3" customWidth="1"/>
+    <col min="13042" max="13042" width="15.7265625" style="3" customWidth="1"/>
+    <col min="13043" max="13043" width="21.453125" style="3" customWidth="1"/>
+    <col min="13044" max="13044" width="35.7265625" style="3" customWidth="1"/>
+    <col min="13045" max="13045" width="15.7265625" style="3" customWidth="1"/>
+    <col min="13046" max="13046" width="20.7265625" style="3" customWidth="1"/>
     <col min="13047" max="13047" width="13" style="3" customWidth="1"/>
-    <col min="13048" max="13048" width="13.42578125" style="3" customWidth="1"/>
-    <col min="13049" max="13049" width="18.28515625" style="3" customWidth="1"/>
-    <col min="13050" max="13050" width="20.85546875" style="3" customWidth="1"/>
-    <col min="13051" max="13051" width="22.28515625" style="3" customWidth="1"/>
-    <col min="13052" max="13052" width="26.42578125" style="3" customWidth="1"/>
-    <col min="13053" max="13053" width="35.7109375" style="3" customWidth="1"/>
-    <col min="13054" max="13054" width="15.7109375" style="3" customWidth="1"/>
-    <col min="13055" max="13055" width="14.140625" style="3" customWidth="1"/>
-    <col min="13056" max="13056" width="19.7109375" style="3" customWidth="1"/>
-    <col min="13057" max="13057" width="25.85546875" style="3" customWidth="1"/>
-    <col min="13058" max="13058" width="24.5703125" style="3" customWidth="1"/>
-    <col min="13059" max="13059" width="13.140625" style="3" customWidth="1"/>
-    <col min="13060" max="13060" width="10.42578125" style="3" customWidth="1"/>
-    <col min="13061" max="13061" width="26.85546875" style="3" customWidth="1"/>
-    <col min="13062" max="13062" width="22.5703125" style="3" customWidth="1"/>
-    <col min="13063" max="13292" width="9.140625" style="3" customWidth="1"/>
-    <col min="13293" max="13293" width="27.7109375" style="3" customWidth="1"/>
-    <col min="13294" max="13294" width="42.7109375" style="3" customWidth="1"/>
-    <col min="13295" max="13295" width="40.7109375" style="3" customWidth="1"/>
-    <col min="13296" max="13296" width="25.7109375" style="3" customWidth="1"/>
-    <col min="13297" max="13297" width="30.7109375" style="3" customWidth="1"/>
-    <col min="13298" max="13298" width="15.7109375" style="3" customWidth="1"/>
-    <col min="13299" max="13299" width="21.42578125" style="3" customWidth="1"/>
-    <col min="13300" max="13300" width="35.7109375" style="3" customWidth="1"/>
-    <col min="13301" max="13301" width="15.7109375" style="3" customWidth="1"/>
-    <col min="13302" max="13302" width="20.7109375" style="3" customWidth="1"/>
+    <col min="13048" max="13048" width="13.453125" style="3" customWidth="1"/>
+    <col min="13049" max="13049" width="18.26953125" style="3" customWidth="1"/>
+    <col min="13050" max="13050" width="20.81640625" style="3" customWidth="1"/>
+    <col min="13051" max="13051" width="22.26953125" style="3" customWidth="1"/>
+    <col min="13052" max="13052" width="26.453125" style="3" customWidth="1"/>
+    <col min="13053" max="13053" width="35.7265625" style="3" customWidth="1"/>
+    <col min="13054" max="13054" width="15.7265625" style="3" customWidth="1"/>
+    <col min="13055" max="13055" width="14.1796875" style="3" customWidth="1"/>
+    <col min="13056" max="13056" width="19.7265625" style="3" customWidth="1"/>
+    <col min="13057" max="13057" width="25.81640625" style="3" customWidth="1"/>
+    <col min="13058" max="13058" width="24.54296875" style="3" customWidth="1"/>
+    <col min="13059" max="13059" width="13.1796875" style="3" customWidth="1"/>
+    <col min="13060" max="13060" width="10.453125" style="3" customWidth="1"/>
+    <col min="13061" max="13061" width="26.81640625" style="3" customWidth="1"/>
+    <col min="13062" max="13062" width="22.54296875" style="3" customWidth="1"/>
+    <col min="13063" max="13292" width="9.1796875" style="3" customWidth="1"/>
+    <col min="13293" max="13293" width="27.7265625" style="3" customWidth="1"/>
+    <col min="13294" max="13294" width="42.7265625" style="3" customWidth="1"/>
+    <col min="13295" max="13295" width="40.7265625" style="3" customWidth="1"/>
+    <col min="13296" max="13296" width="25.7265625" style="3" customWidth="1"/>
+    <col min="13297" max="13297" width="30.7265625" style="3" customWidth="1"/>
+    <col min="13298" max="13298" width="15.7265625" style="3" customWidth="1"/>
+    <col min="13299" max="13299" width="21.453125" style="3" customWidth="1"/>
+    <col min="13300" max="13300" width="35.7265625" style="3" customWidth="1"/>
+    <col min="13301" max="13301" width="15.7265625" style="3" customWidth="1"/>
+    <col min="13302" max="13302" width="20.7265625" style="3" customWidth="1"/>
     <col min="13303" max="13303" width="13" style="3" customWidth="1"/>
-    <col min="13304" max="13304" width="13.42578125" style="3" customWidth="1"/>
-    <col min="13305" max="13305" width="18.28515625" style="3" customWidth="1"/>
-    <col min="13306" max="13306" width="20.85546875" style="3" customWidth="1"/>
-    <col min="13307" max="13307" width="22.28515625" style="3" customWidth="1"/>
-    <col min="13308" max="13308" width="26.42578125" style="3" customWidth="1"/>
-    <col min="13309" max="13309" width="35.7109375" style="3" customWidth="1"/>
-    <col min="13310" max="13310" width="15.7109375" style="3" customWidth="1"/>
-    <col min="13311" max="13311" width="14.140625" style="3" customWidth="1"/>
-    <col min="13312" max="13312" width="19.7109375" style="3" customWidth="1"/>
-    <col min="13313" max="13313" width="25.85546875" style="3" customWidth="1"/>
-    <col min="13314" max="13314" width="24.5703125" style="3" customWidth="1"/>
-    <col min="13315" max="13315" width="13.140625" style="3" customWidth="1"/>
-    <col min="13316" max="13316" width="10.42578125" style="3" customWidth="1"/>
-    <col min="13317" max="13317" width="26.85546875" style="3" customWidth="1"/>
-    <col min="13318" max="13318" width="22.5703125" style="3" customWidth="1"/>
-    <col min="13319" max="13548" width="9.140625" style="3" customWidth="1"/>
-    <col min="13549" max="13549" width="27.7109375" style="3" customWidth="1"/>
-    <col min="13550" max="13550" width="42.7109375" style="3" customWidth="1"/>
-    <col min="13551" max="13551" width="40.7109375" style="3" customWidth="1"/>
-    <col min="13552" max="13552" width="25.7109375" style="3" customWidth="1"/>
-    <col min="13553" max="13553" width="30.7109375" style="3" customWidth="1"/>
-    <col min="13554" max="13554" width="15.7109375" style="3" customWidth="1"/>
-    <col min="13555" max="13555" width="21.42578125" style="3" customWidth="1"/>
-    <col min="13556" max="13556" width="35.7109375" style="3" customWidth="1"/>
-    <col min="13557" max="13557" width="15.7109375" style="3" customWidth="1"/>
-    <col min="13558" max="13558" width="20.7109375" style="3" customWidth="1"/>
+    <col min="13304" max="13304" width="13.453125" style="3" customWidth="1"/>
+    <col min="13305" max="13305" width="18.26953125" style="3" customWidth="1"/>
+    <col min="13306" max="13306" width="20.81640625" style="3" customWidth="1"/>
+    <col min="13307" max="13307" width="22.26953125" style="3" customWidth="1"/>
+    <col min="13308" max="13308" width="26.453125" style="3" customWidth="1"/>
+    <col min="13309" max="13309" width="35.7265625" style="3" customWidth="1"/>
+    <col min="13310" max="13310" width="15.7265625" style="3" customWidth="1"/>
+    <col min="13311" max="13311" width="14.1796875" style="3" customWidth="1"/>
+    <col min="13312" max="13312" width="19.7265625" style="3" customWidth="1"/>
+    <col min="13313" max="13313" width="25.81640625" style="3" customWidth="1"/>
+    <col min="13314" max="13314" width="24.54296875" style="3" customWidth="1"/>
+    <col min="13315" max="13315" width="13.1796875" style="3" customWidth="1"/>
+    <col min="13316" max="13316" width="10.453125" style="3" customWidth="1"/>
+    <col min="13317" max="13317" width="26.81640625" style="3" customWidth="1"/>
+    <col min="13318" max="13318" width="22.54296875" style="3" customWidth="1"/>
+    <col min="13319" max="13548" width="9.1796875" style="3" customWidth="1"/>
+    <col min="13549" max="13549" width="27.7265625" style="3" customWidth="1"/>
+    <col min="13550" max="13550" width="42.7265625" style="3" customWidth="1"/>
+    <col min="13551" max="13551" width="40.7265625" style="3" customWidth="1"/>
+    <col min="13552" max="13552" width="25.7265625" style="3" customWidth="1"/>
+    <col min="13553" max="13553" width="30.7265625" style="3" customWidth="1"/>
+    <col min="13554" max="13554" width="15.7265625" style="3" customWidth="1"/>
+    <col min="13555" max="13555" width="21.453125" style="3" customWidth="1"/>
+    <col min="13556" max="13556" width="35.7265625" style="3" customWidth="1"/>
+    <col min="13557" max="13557" width="15.7265625" style="3" customWidth="1"/>
+    <col min="13558" max="13558" width="20.7265625" style="3" customWidth="1"/>
     <col min="13559" max="13559" width="13" style="3" customWidth="1"/>
-    <col min="13560" max="13560" width="13.42578125" style="3" customWidth="1"/>
-    <col min="13561" max="13561" width="18.28515625" style="3" customWidth="1"/>
-    <col min="13562" max="13562" width="20.85546875" style="3" customWidth="1"/>
-    <col min="13563" max="13563" width="22.28515625" style="3" customWidth="1"/>
-    <col min="13564" max="13564" width="26.42578125" style="3" customWidth="1"/>
-    <col min="13565" max="13565" width="35.7109375" style="3" customWidth="1"/>
-    <col min="13566" max="13566" width="15.7109375" style="3" customWidth="1"/>
-    <col min="13567" max="13567" width="14.140625" style="3" customWidth="1"/>
-    <col min="13568" max="13568" width="19.7109375" style="3" customWidth="1"/>
-    <col min="13569" max="13569" width="25.85546875" style="3" customWidth="1"/>
-    <col min="13570" max="13570" width="24.5703125" style="3" customWidth="1"/>
-    <col min="13571" max="13571" width="13.140625" style="3" customWidth="1"/>
-    <col min="13572" max="13572" width="10.42578125" style="3" customWidth="1"/>
-    <col min="13573" max="13573" width="26.85546875" style="3" customWidth="1"/>
-    <col min="13574" max="13574" width="22.5703125" style="3" customWidth="1"/>
-    <col min="13575" max="13804" width="9.140625" style="3" customWidth="1"/>
-    <col min="13805" max="13805" width="27.7109375" style="3" customWidth="1"/>
-    <col min="13806" max="13806" width="42.7109375" style="3" customWidth="1"/>
-    <col min="13807" max="13807" width="40.7109375" style="3" customWidth="1"/>
-    <col min="13808" max="13808" width="25.7109375" style="3" customWidth="1"/>
-    <col min="13809" max="13809" width="30.7109375" style="3" customWidth="1"/>
-    <col min="13810" max="13810" width="15.7109375" style="3" customWidth="1"/>
-    <col min="13811" max="13811" width="21.42578125" style="3" customWidth="1"/>
-    <col min="13812" max="13812" width="35.7109375" style="3" customWidth="1"/>
-    <col min="13813" max="13813" width="15.7109375" style="3" customWidth="1"/>
-    <col min="13814" max="13814" width="20.7109375" style="3" customWidth="1"/>
+    <col min="13560" max="13560" width="13.453125" style="3" customWidth="1"/>
+    <col min="13561" max="13561" width="18.26953125" style="3" customWidth="1"/>
+    <col min="13562" max="13562" width="20.81640625" style="3" customWidth="1"/>
+    <col min="13563" max="13563" width="22.26953125" style="3" customWidth="1"/>
+    <col min="13564" max="13564" width="26.453125" style="3" customWidth="1"/>
+    <col min="13565" max="13565" width="35.7265625" style="3" customWidth="1"/>
+    <col min="13566" max="13566" width="15.7265625" style="3" customWidth="1"/>
+    <col min="13567" max="13567" width="14.1796875" style="3" customWidth="1"/>
+    <col min="13568" max="13568" width="19.7265625" style="3" customWidth="1"/>
+    <col min="13569" max="13569" width="25.81640625" style="3" customWidth="1"/>
+    <col min="13570" max="13570" width="24.54296875" style="3" customWidth="1"/>
+    <col min="13571" max="13571" width="13.1796875" style="3" customWidth="1"/>
+    <col min="13572" max="13572" width="10.453125" style="3" customWidth="1"/>
+    <col min="13573" max="13573" width="26.81640625" style="3" customWidth="1"/>
+    <col min="13574" max="13574" width="22.54296875" style="3" customWidth="1"/>
+    <col min="13575" max="13804" width="9.1796875" style="3" customWidth="1"/>
+    <col min="13805" max="13805" width="27.7265625" style="3" customWidth="1"/>
+    <col min="13806" max="13806" width="42.7265625" style="3" customWidth="1"/>
+    <col min="13807" max="13807" width="40.7265625" style="3" customWidth="1"/>
+    <col min="13808" max="13808" width="25.7265625" style="3" customWidth="1"/>
+    <col min="13809" max="13809" width="30.7265625" style="3" customWidth="1"/>
+    <col min="13810" max="13810" width="15.7265625" style="3" customWidth="1"/>
+    <col min="13811" max="13811" width="21.453125" style="3" customWidth="1"/>
+    <col min="13812" max="13812" width="35.7265625" style="3" customWidth="1"/>
+    <col min="13813" max="13813" width="15.7265625" style="3" customWidth="1"/>
+    <col min="13814" max="13814" width="20.7265625" style="3" customWidth="1"/>
     <col min="13815" max="13815" width="13" style="3" customWidth="1"/>
-    <col min="13816" max="13816" width="13.42578125" style="3" customWidth="1"/>
-    <col min="13817" max="13817" width="18.28515625" style="3" customWidth="1"/>
-    <col min="13818" max="13818" width="20.85546875" style="3" customWidth="1"/>
-    <col min="13819" max="13819" width="22.28515625" style="3" customWidth="1"/>
-    <col min="13820" max="13820" width="26.42578125" style="3" customWidth="1"/>
-    <col min="13821" max="13821" width="35.7109375" style="3" customWidth="1"/>
-    <col min="13822" max="13822" width="15.7109375" style="3" customWidth="1"/>
-    <col min="13823" max="13823" width="14.140625" style="3" customWidth="1"/>
-    <col min="13824" max="13824" width="19.7109375" style="3" customWidth="1"/>
-    <col min="13825" max="13825" width="25.85546875" style="3" customWidth="1"/>
-    <col min="13826" max="13826" width="24.5703125" style="3" customWidth="1"/>
-    <col min="13827" max="13827" width="13.140625" style="3" customWidth="1"/>
-    <col min="13828" max="13828" width="10.42578125" style="3" customWidth="1"/>
-    <col min="13829" max="13829" width="26.85546875" style="3" customWidth="1"/>
-    <col min="13830" max="13830" width="22.5703125" style="3" customWidth="1"/>
-    <col min="13831" max="14060" width="9.140625" style="3" customWidth="1"/>
-    <col min="14061" max="14061" width="27.7109375" style="3" customWidth="1"/>
-    <col min="14062" max="14062" width="42.7109375" style="3" customWidth="1"/>
-    <col min="14063" max="14063" width="40.7109375" style="3" customWidth="1"/>
-    <col min="14064" max="14064" width="25.7109375" style="3" customWidth="1"/>
-    <col min="14065" max="14065" width="30.7109375" style="3" customWidth="1"/>
-    <col min="14066" max="14066" width="15.7109375" style="3" customWidth="1"/>
-    <col min="14067" max="14067" width="21.42578125" style="3" customWidth="1"/>
-    <col min="14068" max="14068" width="35.7109375" style="3" customWidth="1"/>
-    <col min="14069" max="14069" width="15.7109375" style="3" customWidth="1"/>
-    <col min="14070" max="14070" width="20.7109375" style="3" customWidth="1"/>
+    <col min="13816" max="13816" width="13.453125" style="3" customWidth="1"/>
+    <col min="13817" max="13817" width="18.26953125" style="3" customWidth="1"/>
+    <col min="13818" max="13818" width="20.81640625" style="3" customWidth="1"/>
+    <col min="13819" max="13819" width="22.26953125" style="3" customWidth="1"/>
+    <col min="13820" max="13820" width="26.453125" style="3" customWidth="1"/>
+    <col min="13821" max="13821" width="35.7265625" style="3" customWidth="1"/>
+    <col min="13822" max="13822" width="15.7265625" style="3" customWidth="1"/>
+    <col min="13823" max="13823" width="14.1796875" style="3" customWidth="1"/>
+    <col min="13824" max="13824" width="19.7265625" style="3" customWidth="1"/>
+    <col min="13825" max="13825" width="25.81640625" style="3" customWidth="1"/>
+    <col min="13826" max="13826" width="24.54296875" style="3" customWidth="1"/>
+    <col min="13827" max="13827" width="13.1796875" style="3" customWidth="1"/>
+    <col min="13828" max="13828" width="10.453125" style="3" customWidth="1"/>
+    <col min="13829" max="13829" width="26.81640625" style="3" customWidth="1"/>
+    <col min="13830" max="13830" width="22.54296875" style="3" customWidth="1"/>
+    <col min="13831" max="14060" width="9.1796875" style="3" customWidth="1"/>
+    <col min="14061" max="14061" width="27.7265625" style="3" customWidth="1"/>
+    <col min="14062" max="14062" width="42.7265625" style="3" customWidth="1"/>
+    <col min="14063" max="14063" width="40.7265625" style="3" customWidth="1"/>
+    <col min="14064" max="14064" width="25.7265625" style="3" customWidth="1"/>
+    <col min="14065" max="14065" width="30.7265625" style="3" customWidth="1"/>
+    <col min="14066" max="14066" width="15.7265625" style="3" customWidth="1"/>
+    <col min="14067" max="14067" width="21.453125" style="3" customWidth="1"/>
+    <col min="14068" max="14068" width="35.7265625" style="3" customWidth="1"/>
+    <col min="14069" max="14069" width="15.7265625" style="3" customWidth="1"/>
+    <col min="14070" max="14070" width="20.7265625" style="3" customWidth="1"/>
     <col min="14071" max="14071" width="13" style="3" customWidth="1"/>
-    <col min="14072" max="14072" width="13.42578125" style="3" customWidth="1"/>
-    <col min="14073" max="14073" width="18.28515625" style="3" customWidth="1"/>
-    <col min="14074" max="14074" width="20.85546875" style="3" customWidth="1"/>
-    <col min="14075" max="14075" width="22.28515625" style="3" customWidth="1"/>
-    <col min="14076" max="14076" width="26.42578125" style="3" customWidth="1"/>
-    <col min="14077" max="14077" width="35.7109375" style="3" customWidth="1"/>
-    <col min="14078" max="14078" width="15.7109375" style="3" customWidth="1"/>
-    <col min="14079" max="14079" width="14.140625" style="3" customWidth="1"/>
-    <col min="14080" max="14080" width="19.7109375" style="3" customWidth="1"/>
-    <col min="14081" max="14081" width="25.85546875" style="3" customWidth="1"/>
-    <col min="14082" max="14082" width="24.5703125" style="3" customWidth="1"/>
-    <col min="14083" max="14083" width="13.140625" style="3" customWidth="1"/>
-    <col min="14084" max="14084" width="10.42578125" style="3" customWidth="1"/>
-    <col min="14085" max="14085" width="26.85546875" style="3" customWidth="1"/>
-    <col min="14086" max="14086" width="22.5703125" style="3" customWidth="1"/>
-    <col min="14087" max="14316" width="9.140625" style="3" customWidth="1"/>
-    <col min="14317" max="14317" width="27.7109375" style="3" customWidth="1"/>
-    <col min="14318" max="14318" width="42.7109375" style="3" customWidth="1"/>
-    <col min="14319" max="14319" width="40.7109375" style="3" customWidth="1"/>
-    <col min="14320" max="14320" width="25.7109375" style="3" customWidth="1"/>
-    <col min="14321" max="14321" width="30.7109375" style="3" customWidth="1"/>
-    <col min="14322" max="14322" width="15.7109375" style="3" customWidth="1"/>
-    <col min="14323" max="14323" width="21.42578125" style="3" customWidth="1"/>
-    <col min="14324" max="14324" width="35.7109375" style="3" customWidth="1"/>
-    <col min="14325" max="14325" width="15.7109375" style="3" customWidth="1"/>
-    <col min="14326" max="14326" width="20.7109375" style="3" customWidth="1"/>
+    <col min="14072" max="14072" width="13.453125" style="3" customWidth="1"/>
+    <col min="14073" max="14073" width="18.26953125" style="3" customWidth="1"/>
+    <col min="14074" max="14074" width="20.81640625" style="3" customWidth="1"/>
+    <col min="14075" max="14075" width="22.26953125" style="3" customWidth="1"/>
+    <col min="14076" max="14076" width="26.453125" style="3" customWidth="1"/>
+    <col min="14077" max="14077" width="35.7265625" style="3" customWidth="1"/>
+    <col min="14078" max="14078" width="15.7265625" style="3" customWidth="1"/>
+    <col min="14079" max="14079" width="14.1796875" style="3" customWidth="1"/>
+    <col min="14080" max="14080" width="19.7265625" style="3" customWidth="1"/>
+    <col min="14081" max="14081" width="25.81640625" style="3" customWidth="1"/>
+    <col min="14082" max="14082" width="24.54296875" style="3" customWidth="1"/>
+    <col min="14083" max="14083" width="13.1796875" style="3" customWidth="1"/>
+    <col min="14084" max="14084" width="10.453125" style="3" customWidth="1"/>
+    <col min="14085" max="14085" width="26.81640625" style="3" customWidth="1"/>
+    <col min="14086" max="14086" width="22.54296875" style="3" customWidth="1"/>
+    <col min="14087" max="14316" width="9.1796875" style="3" customWidth="1"/>
+    <col min="14317" max="14317" width="27.7265625" style="3" customWidth="1"/>
+    <col min="14318" max="14318" width="42.7265625" style="3" customWidth="1"/>
+    <col min="14319" max="14319" width="40.7265625" style="3" customWidth="1"/>
+    <col min="14320" max="14320" width="25.7265625" style="3" customWidth="1"/>
+    <col min="14321" max="14321" width="30.7265625" style="3" customWidth="1"/>
+    <col min="14322" max="14322" width="15.7265625" style="3" customWidth="1"/>
+    <col min="14323" max="14323" width="21.453125" style="3" customWidth="1"/>
+    <col min="14324" max="14324" width="35.7265625" style="3" customWidth="1"/>
+    <col min="14325" max="14325" width="15.7265625" style="3" customWidth="1"/>
+    <col min="14326" max="14326" width="20.7265625" style="3" customWidth="1"/>
     <col min="14327" max="14327" width="13" style="3" customWidth="1"/>
-    <col min="14328" max="14328" width="13.42578125" style="3" customWidth="1"/>
-    <col min="14329" max="14329" width="18.28515625" style="3" customWidth="1"/>
-    <col min="14330" max="14330" width="20.85546875" style="3" customWidth="1"/>
-    <col min="14331" max="14331" width="22.28515625" style="3" customWidth="1"/>
-    <col min="14332" max="14332" width="26.42578125" style="3" customWidth="1"/>
-    <col min="14333" max="14333" width="35.7109375" style="3" customWidth="1"/>
-    <col min="14334" max="14334" width="15.7109375" style="3" customWidth="1"/>
-    <col min="14335" max="14335" width="14.140625" style="3" customWidth="1"/>
-    <col min="14336" max="14336" width="19.7109375" style="3" customWidth="1"/>
-    <col min="14337" max="14337" width="25.85546875" style="3" customWidth="1"/>
-    <col min="14338" max="14338" width="24.5703125" style="3" customWidth="1"/>
-    <col min="14339" max="14339" width="13.140625" style="3" customWidth="1"/>
-    <col min="14340" max="14340" width="10.42578125" style="3" customWidth="1"/>
-    <col min="14341" max="14341" width="26.85546875" style="3" customWidth="1"/>
-    <col min="14342" max="14342" width="22.5703125" style="3" customWidth="1"/>
-    <col min="14343" max="14572" width="9.140625" style="3" customWidth="1"/>
-    <col min="14573" max="14573" width="27.7109375" style="3" customWidth="1"/>
-    <col min="14574" max="14574" width="42.7109375" style="3" customWidth="1"/>
-    <col min="14575" max="14575" width="40.7109375" style="3" customWidth="1"/>
-    <col min="14576" max="14576" width="25.7109375" style="3" customWidth="1"/>
-    <col min="14577" max="14577" width="30.7109375" style="3" customWidth="1"/>
-    <col min="14578" max="14578" width="15.7109375" style="3" customWidth="1"/>
-    <col min="14579" max="14579" width="21.42578125" style="3" customWidth="1"/>
-    <col min="14580" max="14580" width="35.7109375" style="3" customWidth="1"/>
-    <col min="14581" max="14581" width="15.7109375" style="3" customWidth="1"/>
-    <col min="14582" max="14582" width="20.7109375" style="3" customWidth="1"/>
+    <col min="14328" max="14328" width="13.453125" style="3" customWidth="1"/>
+    <col min="14329" max="14329" width="18.26953125" style="3" customWidth="1"/>
+    <col min="14330" max="14330" width="20.81640625" style="3" customWidth="1"/>
+    <col min="14331" max="14331" width="22.26953125" style="3" customWidth="1"/>
+    <col min="14332" max="14332" width="26.453125" style="3" customWidth="1"/>
+    <col min="14333" max="14333" width="35.7265625" style="3" customWidth="1"/>
+    <col min="14334" max="14334" width="15.7265625" style="3" customWidth="1"/>
+    <col min="14335" max="14335" width="14.1796875" style="3" customWidth="1"/>
+    <col min="14336" max="14336" width="19.7265625" style="3" customWidth="1"/>
+    <col min="14337" max="14337" width="25.81640625" style="3" customWidth="1"/>
+    <col min="14338" max="14338" width="24.54296875" style="3" customWidth="1"/>
+    <col min="14339" max="14339" width="13.1796875" style="3" customWidth="1"/>
+    <col min="14340" max="14340" width="10.453125" style="3" customWidth="1"/>
+    <col min="14341" max="14341" width="26.81640625" style="3" customWidth="1"/>
+    <col min="14342" max="14342" width="22.54296875" style="3" customWidth="1"/>
+    <col min="14343" max="14572" width="9.1796875" style="3" customWidth="1"/>
+    <col min="14573" max="14573" width="27.7265625" style="3" customWidth="1"/>
+    <col min="14574" max="14574" width="42.7265625" style="3" customWidth="1"/>
+    <col min="14575" max="14575" width="40.7265625" style="3" customWidth="1"/>
+    <col min="14576" max="14576" width="25.7265625" style="3" customWidth="1"/>
+    <col min="14577" max="14577" width="30.7265625" style="3" customWidth="1"/>
+    <col min="14578" max="14578" width="15.7265625" style="3" customWidth="1"/>
+    <col min="14579" max="14579" width="21.453125" style="3" customWidth="1"/>
+    <col min="14580" max="14580" width="35.7265625" style="3" customWidth="1"/>
+    <col min="14581" max="14581" width="15.7265625" style="3" customWidth="1"/>
+    <col min="14582" max="14582" width="20.7265625" style="3" customWidth="1"/>
     <col min="14583" max="14583" width="13" style="3" customWidth="1"/>
-    <col min="14584" max="14584" width="13.42578125" style="3" customWidth="1"/>
-    <col min="14585" max="14585" width="18.28515625" style="3" customWidth="1"/>
-    <col min="14586" max="14586" width="20.85546875" style="3" customWidth="1"/>
-    <col min="14587" max="14587" width="22.28515625" style="3" customWidth="1"/>
-    <col min="14588" max="14588" width="26.42578125" style="3" customWidth="1"/>
-    <col min="14589" max="14589" width="35.7109375" style="3" customWidth="1"/>
-    <col min="14590" max="14590" width="15.7109375" style="3" customWidth="1"/>
-    <col min="14591" max="14591" width="14.140625" style="3" customWidth="1"/>
-    <col min="14592" max="14592" width="19.7109375" style="3" customWidth="1"/>
-    <col min="14593" max="14593" width="25.85546875" style="3" customWidth="1"/>
-    <col min="14594" max="14594" width="24.5703125" style="3" customWidth="1"/>
-    <col min="14595" max="14595" width="13.140625" style="3" customWidth="1"/>
-    <col min="14596" max="14596" width="10.42578125" style="3" customWidth="1"/>
-    <col min="14597" max="14597" width="26.85546875" style="3" customWidth="1"/>
-    <col min="14598" max="14598" width="22.5703125" style="3" customWidth="1"/>
-    <col min="14599" max="14828" width="9.140625" style="3" customWidth="1"/>
-    <col min="14829" max="14829" width="27.7109375" style="3" customWidth="1"/>
-    <col min="14830" max="14830" width="42.7109375" style="3" customWidth="1"/>
-    <col min="14831" max="14831" width="40.7109375" style="3" customWidth="1"/>
-    <col min="14832" max="14832" width="25.7109375" style="3" customWidth="1"/>
-    <col min="14833" max="14833" width="30.7109375" style="3" customWidth="1"/>
-    <col min="14834" max="14834" width="15.7109375" style="3" customWidth="1"/>
-    <col min="14835" max="14835" width="21.42578125" style="3" customWidth="1"/>
-    <col min="14836" max="14836" width="35.7109375" style="3" customWidth="1"/>
-    <col min="14837" max="14837" width="15.7109375" style="3" customWidth="1"/>
-    <col min="14838" max="14838" width="20.7109375" style="3" customWidth="1"/>
+    <col min="14584" max="14584" width="13.453125" style="3" customWidth="1"/>
+    <col min="14585" max="14585" width="18.26953125" style="3" customWidth="1"/>
+    <col min="14586" max="14586" width="20.81640625" style="3" customWidth="1"/>
+    <col min="14587" max="14587" width="22.26953125" style="3" customWidth="1"/>
+    <col min="14588" max="14588" width="26.453125" style="3" customWidth="1"/>
+    <col min="14589" max="14589" width="35.7265625" style="3" customWidth="1"/>
+    <col min="14590" max="14590" width="15.7265625" style="3" customWidth="1"/>
+    <col min="14591" max="14591" width="14.1796875" style="3" customWidth="1"/>
+    <col min="14592" max="14592" width="19.7265625" style="3" customWidth="1"/>
+    <col min="14593" max="14593" width="25.81640625" style="3" customWidth="1"/>
+    <col min="14594" max="14594" width="24.54296875" style="3" customWidth="1"/>
+    <col min="14595" max="14595" width="13.1796875" style="3" customWidth="1"/>
+    <col min="14596" max="14596" width="10.453125" style="3" customWidth="1"/>
+    <col min="14597" max="14597" width="26.81640625" style="3" customWidth="1"/>
+    <col min="14598" max="14598" width="22.54296875" style="3" customWidth="1"/>
+    <col min="14599" max="14828" width="9.1796875" style="3" customWidth="1"/>
+    <col min="14829" max="14829" width="27.7265625" style="3" customWidth="1"/>
+    <col min="14830" max="14830" width="42.7265625" style="3" customWidth="1"/>
+    <col min="14831" max="14831" width="40.7265625" style="3" customWidth="1"/>
+    <col min="14832" max="14832" width="25.7265625" style="3" customWidth="1"/>
+    <col min="14833" max="14833" width="30.7265625" style="3" customWidth="1"/>
+    <col min="14834" max="14834" width="15.7265625" style="3" customWidth="1"/>
+    <col min="14835" max="14835" width="21.453125" style="3" customWidth="1"/>
+    <col min="14836" max="14836" width="35.7265625" style="3" customWidth="1"/>
+    <col min="14837" max="14837" width="15.7265625" style="3" customWidth="1"/>
+    <col min="14838" max="14838" width="20.7265625" style="3" customWidth="1"/>
     <col min="14839" max="14839" width="13" style="3" customWidth="1"/>
-    <col min="14840" max="14840" width="13.42578125" style="3" customWidth="1"/>
-    <col min="14841" max="14841" width="18.28515625" style="3" customWidth="1"/>
-    <col min="14842" max="14842" width="20.85546875" style="3" customWidth="1"/>
-    <col min="14843" max="14843" width="22.28515625" style="3" customWidth="1"/>
-    <col min="14844" max="14844" width="26.42578125" style="3" customWidth="1"/>
-    <col min="14845" max="14845" width="35.7109375" style="3" customWidth="1"/>
-    <col min="14846" max="14846" width="15.7109375" style="3" customWidth="1"/>
-    <col min="14847" max="14847" width="14.140625" style="3" customWidth="1"/>
-    <col min="14848" max="14848" width="19.7109375" style="3" customWidth="1"/>
-    <col min="14849" max="14849" width="25.85546875" style="3" customWidth="1"/>
-    <col min="14850" max="14850" width="24.5703125" style="3" customWidth="1"/>
-    <col min="14851" max="14851" width="13.140625" style="3" customWidth="1"/>
-    <col min="14852" max="14852" width="10.42578125" style="3" customWidth="1"/>
-    <col min="14853" max="14853" width="26.85546875" style="3" customWidth="1"/>
-    <col min="14854" max="14854" width="22.5703125" style="3" customWidth="1"/>
-    <col min="14855" max="15084" width="9.140625" style="3" customWidth="1"/>
-    <col min="15085" max="15085" width="27.7109375" style="3" customWidth="1"/>
-    <col min="15086" max="15086" width="42.7109375" style="3" customWidth="1"/>
-    <col min="15087" max="15087" width="40.7109375" style="3" customWidth="1"/>
-    <col min="15088" max="15088" width="25.7109375" style="3" customWidth="1"/>
-    <col min="15089" max="15089" width="30.7109375" style="3" customWidth="1"/>
-    <col min="15090" max="15090" width="15.7109375" style="3" customWidth="1"/>
-    <col min="15091" max="15091" width="21.42578125" style="3" customWidth="1"/>
-    <col min="15092" max="15092" width="35.7109375" style="3" customWidth="1"/>
-    <col min="15093" max="15093" width="15.7109375" style="3" customWidth="1"/>
-    <col min="15094" max="15094" width="20.7109375" style="3" customWidth="1"/>
+    <col min="14840" max="14840" width="13.453125" style="3" customWidth="1"/>
+    <col min="14841" max="14841" width="18.26953125" style="3" customWidth="1"/>
+    <col min="14842" max="14842" width="20.81640625" style="3" customWidth="1"/>
+    <col min="14843" max="14843" width="22.26953125" style="3" customWidth="1"/>
+    <col min="14844" max="14844" width="26.453125" style="3" customWidth="1"/>
+    <col min="14845" max="14845" width="35.7265625" style="3" customWidth="1"/>
+    <col min="14846" max="14846" width="15.7265625" style="3" customWidth="1"/>
+    <col min="14847" max="14847" width="14.1796875" style="3" customWidth="1"/>
+    <col min="14848" max="14848" width="19.7265625" style="3" customWidth="1"/>
+    <col min="14849" max="14849" width="25.81640625" style="3" customWidth="1"/>
+    <col min="14850" max="14850" width="24.54296875" style="3" customWidth="1"/>
+    <col min="14851" max="14851" width="13.1796875" style="3" customWidth="1"/>
+    <col min="14852" max="14852" width="10.453125" style="3" customWidth="1"/>
+    <col min="14853" max="14853" width="26.81640625" style="3" customWidth="1"/>
+    <col min="14854" max="14854" width="22.54296875" style="3" customWidth="1"/>
+    <col min="14855" max="15084" width="9.1796875" style="3" customWidth="1"/>
+    <col min="15085" max="15085" width="27.7265625" style="3" customWidth="1"/>
+    <col min="15086" max="15086" width="42.7265625" style="3" customWidth="1"/>
+    <col min="15087" max="15087" width="40.7265625" style="3" customWidth="1"/>
+    <col min="15088" max="15088" width="25.7265625" style="3" customWidth="1"/>
+    <col min="15089" max="15089" width="30.7265625" style="3" customWidth="1"/>
+    <col min="15090" max="15090" width="15.7265625" style="3" customWidth="1"/>
+    <col min="15091" max="15091" width="21.453125" style="3" customWidth="1"/>
+    <col min="15092" max="15092" width="35.7265625" style="3" customWidth="1"/>
+    <col min="15093" max="15093" width="15.7265625" style="3" customWidth="1"/>
+    <col min="15094" max="15094" width="20.7265625" style="3" customWidth="1"/>
     <col min="15095" max="15095" width="13" style="3" customWidth="1"/>
-    <col min="15096" max="15096" width="13.42578125" style="3" customWidth="1"/>
-    <col min="15097" max="15097" width="18.28515625" style="3" customWidth="1"/>
-    <col min="15098" max="15098" width="20.85546875" style="3" customWidth="1"/>
-    <col min="15099" max="15099" width="22.28515625" style="3" customWidth="1"/>
-    <col min="15100" max="15100" width="26.42578125" style="3" customWidth="1"/>
-    <col min="15101" max="15101" width="35.7109375" style="3" customWidth="1"/>
-    <col min="15102" max="15102" width="15.7109375" style="3" customWidth="1"/>
-    <col min="15103" max="15103" width="14.140625" style="3" customWidth="1"/>
-    <col min="15104" max="15104" width="19.7109375" style="3" customWidth="1"/>
-    <col min="15105" max="15105" width="25.85546875" style="3" customWidth="1"/>
-    <col min="15106" max="15106" width="24.5703125" style="3" customWidth="1"/>
-    <col min="15107" max="15107" width="13.140625" style="3" customWidth="1"/>
-    <col min="15108" max="15108" width="10.42578125" style="3" customWidth="1"/>
-    <col min="15109" max="15109" width="26.85546875" style="3" customWidth="1"/>
-    <col min="15110" max="15110" width="22.5703125" style="3" customWidth="1"/>
-    <col min="15111" max="15340" width="9.140625" style="3" customWidth="1"/>
-    <col min="15341" max="15341" width="27.7109375" style="3" customWidth="1"/>
-    <col min="15342" max="15342" width="42.7109375" style="3" customWidth="1"/>
-    <col min="15343" max="15343" width="40.7109375" style="3" customWidth="1"/>
-    <col min="15344" max="15344" width="25.7109375" style="3" customWidth="1"/>
-    <col min="15345" max="15345" width="30.7109375" style="3" customWidth="1"/>
-    <col min="15346" max="15346" width="15.7109375" style="3" customWidth="1"/>
-    <col min="15347" max="15347" width="21.42578125" style="3" customWidth="1"/>
-    <col min="15348" max="15348" width="35.7109375" style="3" customWidth="1"/>
-    <col min="15349" max="15349" width="15.7109375" style="3" customWidth="1"/>
-    <col min="15350" max="15350" width="20.7109375" style="3" customWidth="1"/>
+    <col min="15096" max="15096" width="13.453125" style="3" customWidth="1"/>
+    <col min="15097" max="15097" width="18.26953125" style="3" customWidth="1"/>
+    <col min="15098" max="15098" width="20.81640625" style="3" customWidth="1"/>
+    <col min="15099" max="15099" width="22.26953125" style="3" customWidth="1"/>
+    <col min="15100" max="15100" width="26.453125" style="3" customWidth="1"/>
+    <col min="15101" max="15101" width="35.7265625" style="3" customWidth="1"/>
+    <col min="15102" max="15102" width="15.7265625" style="3" customWidth="1"/>
+    <col min="15103" max="15103" width="14.1796875" style="3" customWidth="1"/>
+    <col min="15104" max="15104" width="19.7265625" style="3" customWidth="1"/>
+    <col min="15105" max="15105" width="25.81640625" style="3" customWidth="1"/>
+    <col min="15106" max="15106" width="24.54296875" style="3" customWidth="1"/>
+    <col min="15107" max="15107" width="13.1796875" style="3" customWidth="1"/>
+    <col min="15108" max="15108" width="10.453125" style="3" customWidth="1"/>
+    <col min="15109" max="15109" width="26.81640625" style="3" customWidth="1"/>
+    <col min="15110" max="15110" width="22.54296875" style="3" customWidth="1"/>
+    <col min="15111" max="15340" width="9.1796875" style="3" customWidth="1"/>
+    <col min="15341" max="15341" width="27.7265625" style="3" customWidth="1"/>
+    <col min="15342" max="15342" width="42.7265625" style="3" customWidth="1"/>
+    <col min="15343" max="15343" width="40.7265625" style="3" customWidth="1"/>
+    <col min="15344" max="15344" width="25.7265625" style="3" customWidth="1"/>
+    <col min="15345" max="15345" width="30.7265625" style="3" customWidth="1"/>
+    <col min="15346" max="15346" width="15.7265625" style="3" customWidth="1"/>
+    <col min="15347" max="15347" width="21.453125" style="3" customWidth="1"/>
+    <col min="15348" max="15348" width="35.7265625" style="3" customWidth="1"/>
+    <col min="15349" max="15349" width="15.7265625" style="3" customWidth="1"/>
+    <col min="15350" max="15350" width="20.7265625" style="3" customWidth="1"/>
     <col min="15351" max="15351" width="13" style="3" customWidth="1"/>
-    <col min="15352" max="15352" width="13.42578125" style="3" customWidth="1"/>
-    <col min="15353" max="15353" width="18.28515625" style="3" customWidth="1"/>
-    <col min="15354" max="15354" width="20.85546875" style="3" customWidth="1"/>
-    <col min="15355" max="15355" width="22.28515625" style="3" customWidth="1"/>
-    <col min="15356" max="15356" width="26.42578125" style="3" customWidth="1"/>
-    <col min="15357" max="15357" width="35.7109375" style="3" customWidth="1"/>
-    <col min="15358" max="15358" width="15.7109375" style="3" customWidth="1"/>
-    <col min="15359" max="15359" width="14.140625" style="3" customWidth="1"/>
-    <col min="15360" max="15360" width="19.7109375" style="3" customWidth="1"/>
-    <col min="15361" max="15361" width="25.85546875" style="3" customWidth="1"/>
-    <col min="15362" max="15362" width="24.5703125" style="3" customWidth="1"/>
-    <col min="15363" max="15363" width="13.140625" style="3" customWidth="1"/>
-    <col min="15364" max="15364" width="10.42578125" style="3" customWidth="1"/>
-    <col min="15365" max="15365" width="26.85546875" style="3" customWidth="1"/>
-    <col min="15366" max="15366" width="22.5703125" style="3" customWidth="1"/>
-    <col min="15367" max="15596" width="9.140625" style="3" customWidth="1"/>
-    <col min="15597" max="15597" width="27.7109375" style="3" customWidth="1"/>
-    <col min="15598" max="15598" width="42.7109375" style="3" customWidth="1"/>
-    <col min="15599" max="15599" width="40.7109375" style="3" customWidth="1"/>
-    <col min="15600" max="15600" width="25.7109375" style="3" customWidth="1"/>
-    <col min="15601" max="15601" width="30.7109375" style="3" customWidth="1"/>
-    <col min="15602" max="15602" width="15.7109375" style="3" customWidth="1"/>
-    <col min="15603" max="15603" width="21.42578125" style="3" customWidth="1"/>
-    <col min="15604" max="15604" width="35.7109375" style="3" customWidth="1"/>
-    <col min="15605" max="15605" width="15.7109375" style="3" customWidth="1"/>
-    <col min="15606" max="15606" width="20.7109375" style="3" customWidth="1"/>
+    <col min="15352" max="15352" width="13.453125" style="3" customWidth="1"/>
+    <col min="15353" max="15353" width="18.26953125" style="3" customWidth="1"/>
+    <col min="15354" max="15354" width="20.81640625" style="3" customWidth="1"/>
+    <col min="15355" max="15355" width="22.26953125" style="3" customWidth="1"/>
+    <col min="15356" max="15356" width="26.453125" style="3" customWidth="1"/>
+    <col min="15357" max="15357" width="35.7265625" style="3" customWidth="1"/>
+    <col min="15358" max="15358" width="15.7265625" style="3" customWidth="1"/>
+    <col min="15359" max="15359" width="14.1796875" style="3" customWidth="1"/>
+    <col min="15360" max="15360" width="19.7265625" style="3" customWidth="1"/>
+    <col min="15361" max="15361" width="25.81640625" style="3" customWidth="1"/>
+    <col min="15362" max="15362" width="24.54296875" style="3" customWidth="1"/>
+    <col min="15363" max="15363" width="13.1796875" style="3" customWidth="1"/>
+    <col min="15364" max="15364" width="10.453125" style="3" customWidth="1"/>
+    <col min="15365" max="15365" width="26.81640625" style="3" customWidth="1"/>
+    <col min="15366" max="15366" width="22.54296875" style="3" customWidth="1"/>
+    <col min="15367" max="15596" width="9.1796875" style="3" customWidth="1"/>
+    <col min="15597" max="15597" width="27.7265625" style="3" customWidth="1"/>
+    <col min="15598" max="15598" width="42.7265625" style="3" customWidth="1"/>
+    <col min="15599" max="15599" width="40.7265625" style="3" customWidth="1"/>
+    <col min="15600" max="15600" width="25.7265625" style="3" customWidth="1"/>
+    <col min="15601" max="15601" width="30.7265625" style="3" customWidth="1"/>
+    <col min="15602" max="15602" width="15.7265625" style="3" customWidth="1"/>
+    <col min="15603" max="15603" width="21.453125" style="3" customWidth="1"/>
+    <col min="15604" max="15604" width="35.7265625" style="3" customWidth="1"/>
+    <col min="15605" max="15605" width="15.7265625" style="3" customWidth="1"/>
+    <col min="15606" max="15606" width="20.7265625" style="3" customWidth="1"/>
     <col min="15607" max="15607" width="13" style="3" customWidth="1"/>
-    <col min="15608" max="15608" width="13.42578125" style="3" customWidth="1"/>
-    <col min="15609" max="15609" width="18.28515625" style="3" customWidth="1"/>
-    <col min="15610" max="15610" width="20.85546875" style="3" customWidth="1"/>
-    <col min="15611" max="15611" width="22.28515625" style="3" customWidth="1"/>
-    <col min="15612" max="15612" width="26.42578125" style="3" customWidth="1"/>
-    <col min="15613" max="15613" width="35.7109375" style="3" customWidth="1"/>
-    <col min="15614" max="15614" width="15.7109375" style="3" customWidth="1"/>
-    <col min="15615" max="15615" width="14.140625" style="3" customWidth="1"/>
-    <col min="15616" max="15616" width="19.7109375" style="3" customWidth="1"/>
-    <col min="15617" max="15617" width="25.85546875" style="3" customWidth="1"/>
-    <col min="15618" max="15618" width="24.5703125" style="3" customWidth="1"/>
-    <col min="15619" max="15619" width="13.140625" style="3" customWidth="1"/>
-    <col min="15620" max="15620" width="10.42578125" style="3" customWidth="1"/>
-    <col min="15621" max="15621" width="26.85546875" style="3" customWidth="1"/>
-    <col min="15622" max="15622" width="22.5703125" style="3" customWidth="1"/>
-    <col min="15623" max="15852" width="9.140625" style="3" customWidth="1"/>
-    <col min="15853" max="15853" width="27.7109375" style="3" customWidth="1"/>
-    <col min="15854" max="15854" width="42.7109375" style="3" customWidth="1"/>
-    <col min="15855" max="15855" width="40.7109375" style="3" customWidth="1"/>
-    <col min="15856" max="15856" width="25.7109375" style="3" customWidth="1"/>
-    <col min="15857" max="15857" width="30.7109375" style="3" customWidth="1"/>
-    <col min="15858" max="15858" width="15.7109375" style="3" customWidth="1"/>
-    <col min="15859" max="15859" width="21.42578125" style="3" customWidth="1"/>
-    <col min="15860" max="15860" width="35.7109375" style="3" customWidth="1"/>
-    <col min="15861" max="15861" width="15.7109375" style="3" customWidth="1"/>
-    <col min="15862" max="15862" width="20.7109375" style="3" customWidth="1"/>
+    <col min="15608" max="15608" width="13.453125" style="3" customWidth="1"/>
+    <col min="15609" max="15609" width="18.26953125" style="3" customWidth="1"/>
+    <col min="15610" max="15610" width="20.81640625" style="3" customWidth="1"/>
+    <col min="15611" max="15611" width="22.26953125" style="3" customWidth="1"/>
+    <col min="15612" max="15612" width="26.453125" style="3" customWidth="1"/>
+    <col min="15613" max="15613" width="35.7265625" style="3" customWidth="1"/>
+    <col min="15614" max="15614" width="15.7265625" style="3" customWidth="1"/>
+    <col min="15615" max="15615" width="14.1796875" style="3" customWidth="1"/>
+    <col min="15616" max="15616" width="19.7265625" style="3" customWidth="1"/>
+    <col min="15617" max="15617" width="25.81640625" style="3" customWidth="1"/>
+    <col min="15618" max="15618" width="24.54296875" style="3" customWidth="1"/>
+    <col min="15619" max="15619" width="13.1796875" style="3" customWidth="1"/>
+    <col min="15620" max="15620" width="10.453125" style="3" customWidth="1"/>
+    <col min="15621" max="15621" width="26.81640625" style="3" customWidth="1"/>
+    <col min="15622" max="15622" width="22.54296875" style="3" customWidth="1"/>
+    <col min="15623" max="15852" width="9.1796875" style="3" customWidth="1"/>
+    <col min="15853" max="15853" width="27.7265625" style="3" customWidth="1"/>
+    <col min="15854" max="15854" width="42.7265625" style="3" customWidth="1"/>
+    <col min="15855" max="15855" width="40.7265625" style="3" customWidth="1"/>
+    <col min="15856" max="15856" width="25.7265625" style="3" customWidth="1"/>
+    <col min="15857" max="15857" width="30.7265625" style="3" customWidth="1"/>
+    <col min="15858" max="15858" width="15.7265625" style="3" customWidth="1"/>
+    <col min="15859" max="15859" width="21.453125" style="3" customWidth="1"/>
+    <col min="15860" max="15860" width="35.7265625" style="3" customWidth="1"/>
+    <col min="15861" max="15861" width="15.7265625" style="3" customWidth="1"/>
+    <col min="15862" max="15862" width="20.7265625" style="3" customWidth="1"/>
     <col min="15863" max="15863" width="13" style="3" customWidth="1"/>
-    <col min="15864" max="15864" width="13.42578125" style="3" customWidth="1"/>
-    <col min="15865" max="15865" width="18.28515625" style="3" customWidth="1"/>
-    <col min="15866" max="15866" width="20.85546875" style="3" customWidth="1"/>
-    <col min="15867" max="15867" width="22.28515625" style="3" customWidth="1"/>
-    <col min="15868" max="15868" width="26.42578125" style="3" customWidth="1"/>
-    <col min="15869" max="15869" width="35.7109375" style="3" customWidth="1"/>
-    <col min="15870" max="15870" width="15.7109375" style="3" customWidth="1"/>
-    <col min="15871" max="15871" width="14.140625" style="3" customWidth="1"/>
-    <col min="15872" max="15872" width="19.7109375" style="3" customWidth="1"/>
-    <col min="15873" max="15873" width="25.85546875" style="3" customWidth="1"/>
-    <col min="15874" max="15874" width="24.5703125" style="3" customWidth="1"/>
-    <col min="15875" max="15875" width="13.140625" style="3" customWidth="1"/>
-    <col min="15876" max="15876" width="10.42578125" style="3" customWidth="1"/>
-    <col min="15877" max="15877" width="26.85546875" style="3" customWidth="1"/>
-    <col min="15878" max="15878" width="22.5703125" style="3" customWidth="1"/>
-    <col min="15879" max="16108" width="9.140625" style="3" customWidth="1"/>
-    <col min="16109" max="16109" width="27.7109375" style="3" customWidth="1"/>
-    <col min="16110" max="16110" width="42.7109375" style="3" customWidth="1"/>
-    <col min="16111" max="16111" width="40.7109375" style="3" customWidth="1"/>
-    <col min="16112" max="16112" width="25.7109375" style="3" customWidth="1"/>
-    <col min="16113" max="16113" width="30.7109375" style="3" customWidth="1"/>
-    <col min="16114" max="16114" width="15.7109375" style="3" customWidth="1"/>
-    <col min="16115" max="16115" width="21.42578125" style="3" customWidth="1"/>
-    <col min="16116" max="16116" width="35.7109375" style="3" customWidth="1"/>
-    <col min="16117" max="16117" width="15.7109375" style="3" customWidth="1"/>
-    <col min="16118" max="16118" width="20.7109375" style="3" customWidth="1"/>
+    <col min="15864" max="15864" width="13.453125" style="3" customWidth="1"/>
+    <col min="15865" max="15865" width="18.26953125" style="3" customWidth="1"/>
+    <col min="15866" max="15866" width="20.81640625" style="3" customWidth="1"/>
+    <col min="15867" max="15867" width="22.26953125" style="3" customWidth="1"/>
+    <col min="15868" max="15868" width="26.453125" style="3" customWidth="1"/>
+    <col min="15869" max="15869" width="35.7265625" style="3" customWidth="1"/>
+    <col min="15870" max="15870" width="15.7265625" style="3" customWidth="1"/>
+    <col min="15871" max="15871" width="14.1796875" style="3" customWidth="1"/>
+    <col min="15872" max="15872" width="19.7265625" style="3" customWidth="1"/>
+    <col min="15873" max="15873" width="25.81640625" style="3" customWidth="1"/>
+    <col min="15874" max="15874" width="24.54296875" style="3" customWidth="1"/>
+    <col min="15875" max="15875" width="13.1796875" style="3" customWidth="1"/>
+    <col min="15876" max="15876" width="10.453125" style="3" customWidth="1"/>
+    <col min="15877" max="15877" width="26.81640625" style="3" customWidth="1"/>
+    <col min="15878" max="15878" width="22.54296875" style="3" customWidth="1"/>
+    <col min="15879" max="16108" width="9.1796875" style="3" customWidth="1"/>
+    <col min="16109" max="16109" width="27.7265625" style="3" customWidth="1"/>
+    <col min="16110" max="16110" width="42.7265625" style="3" customWidth="1"/>
+    <col min="16111" max="16111" width="40.7265625" style="3" customWidth="1"/>
+    <col min="16112" max="16112" width="25.7265625" style="3" customWidth="1"/>
+    <col min="16113" max="16113" width="30.7265625" style="3" customWidth="1"/>
+    <col min="16114" max="16114" width="15.7265625" style="3" customWidth="1"/>
+    <col min="16115" max="16115" width="21.453125" style="3" customWidth="1"/>
+    <col min="16116" max="16116" width="35.7265625" style="3" customWidth="1"/>
+    <col min="16117" max="16117" width="15.7265625" style="3" customWidth="1"/>
+    <col min="16118" max="16118" width="20.7265625" style="3" customWidth="1"/>
     <col min="16119" max="16119" width="13" style="3" customWidth="1"/>
-    <col min="16120" max="16120" width="13.42578125" style="3" customWidth="1"/>
-    <col min="16121" max="16121" width="18.28515625" style="3" customWidth="1"/>
-    <col min="16122" max="16122" width="20.85546875" style="3" customWidth="1"/>
-    <col min="16123" max="16123" width="22.28515625" style="3" customWidth="1"/>
-    <col min="16124" max="16124" width="26.42578125" style="3" customWidth="1"/>
-    <col min="16125" max="16125" width="35.7109375" style="3" customWidth="1"/>
-    <col min="16126" max="16126" width="15.7109375" style="3" customWidth="1"/>
-    <col min="16127" max="16127" width="14.140625" style="3" customWidth="1"/>
-    <col min="16128" max="16128" width="19.7109375" style="3" customWidth="1"/>
-    <col min="16129" max="16129" width="25.85546875" style="3" customWidth="1"/>
-    <col min="16130" max="16130" width="24.5703125" style="3" customWidth="1"/>
-    <col min="16131" max="16131" width="13.140625" style="3" customWidth="1"/>
-    <col min="16132" max="16132" width="10.42578125" style="3" customWidth="1"/>
-    <col min="16133" max="16133" width="26.85546875" style="3" customWidth="1"/>
-    <col min="16134" max="16134" width="22.5703125" style="3" customWidth="1"/>
-    <col min="16135" max="16384" width="9.140625" style="3" customWidth="1"/>
+    <col min="16120" max="16120" width="13.453125" style="3" customWidth="1"/>
+    <col min="16121" max="16121" width="18.26953125" style="3" customWidth="1"/>
+    <col min="16122" max="16122" width="20.81640625" style="3" customWidth="1"/>
+    <col min="16123" max="16123" width="22.26953125" style="3" customWidth="1"/>
+    <col min="16124" max="16124" width="26.453125" style="3" customWidth="1"/>
+    <col min="16125" max="16125" width="35.7265625" style="3" customWidth="1"/>
+    <col min="16126" max="16126" width="15.7265625" style="3" customWidth="1"/>
+    <col min="16127" max="16127" width="14.1796875" style="3" customWidth="1"/>
+    <col min="16128" max="16128" width="19.7265625" style="3" customWidth="1"/>
+    <col min="16129" max="16129" width="25.81640625" style="3" customWidth="1"/>
+    <col min="16130" max="16130" width="24.54296875" style="3" customWidth="1"/>
+    <col min="16131" max="16131" width="13.1796875" style="3" customWidth="1"/>
+    <col min="16132" max="16132" width="10.453125" style="3" customWidth="1"/>
+    <col min="16133" max="16133" width="26.81640625" style="3" customWidth="1"/>
+    <col min="16134" max="16134" width="22.54296875" style="3" customWidth="1"/>
+    <col min="16135" max="16384" width="9.1796875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>136</v>
       </c>
@@ -8533,7 +8793,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8553,7 +8813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -8573,7 +8833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -8593,7 +8853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -8613,7 +8873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -8633,7 +8893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -8653,7 +8913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -8673,7 +8933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -8693,7 +8953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -8713,7 +8973,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -8733,7 +8993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -8753,7 +9013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -8773,7 +9033,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -8793,7 +9053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -8813,7 +9073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -8833,7 +9093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -8853,7 +9113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -8873,7 +9133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -8893,7 +9153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -8913,7 +9173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -8933,7 +9193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -8953,7 +9213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -8973,7 +9233,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -8993,7 +9253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -9013,7 +9273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -9033,7 +9293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -9053,7 +9313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -9073,7 +9333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -9093,7 +9353,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -9113,7 +9373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -9133,7 +9393,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>89</v>
       </c>
@@ -9153,7 +9413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -9173,7 +9433,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -9193,7 +9453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>100</v>
       </c>
@@ -9213,7 +9473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -9233,7 +9493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -9253,7 +9513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>110</v>
       </c>
@@ -9273,7 +9533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -9293,7 +9553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -9313,7 +9573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -9333,7 +9593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>124</v>
       </c>
@@ -9353,7 +9613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>124</v>
       </c>
@@ -9373,7 +9633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -9393,7 +9653,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>130</v>
       </c>
@@ -9413,7 +9673,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>133</v>
       </c>
@@ -9433,7 +9693,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -9453,7 +9713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>71</v>
       </c>
@@ -9473,7 +9733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -9493,7 +9753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>76</v>
       </c>
@@ -9513,7 +9773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>133</v>
       </c>
@@ -9533,7 +9793,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -9553,7 +9813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>71</v>
       </c>
@@ -9573,7 +9833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>76</v>
       </c>
@@ -9593,7 +9853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -9613,7 +9873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -9633,7 +9893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -9653,7 +9913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>89</v>
       </c>
@@ -9673,7 +9933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>89</v>
       </c>
@@ -9693,7 +9953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>89</v>
       </c>
@@ -9713,7 +9973,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>95</v>
       </c>
@@ -9733,7 +9993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>100</v>
       </c>
@@ -9753,7 +10013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>100</v>
       </c>
@@ -9773,7 +10033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>106</v>
       </c>
@@ -9793,7 +10053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>110</v>
       </c>
@@ -9813,7 +10073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>115</v>
       </c>
@@ -9833,7 +10093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>115</v>
       </c>
@@ -9853,7 +10113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>115</v>
       </c>
@@ -9873,7 +10133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>124</v>
       </c>
@@ -9893,7 +10153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>124</v>
       </c>
@@ -9913,7 +10173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>124</v>
       </c>
@@ -9933,7 +10193,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>130</v>
       </c>
@@ -9953,7 +10213,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -9973,7 +10233,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>67</v>
       </c>
@@ -9993,7 +10253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>133</v>
       </c>
@@ -10013,7 +10273,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>67</v>
       </c>
@@ -10033,7 +10293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>71</v>
       </c>
@@ -10053,7 +10313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -10073,7 +10333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -10093,7 +10353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -10113,7 +10373,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -10133,7 +10393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>89</v>
       </c>
@@ -10153,7 +10413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -10173,7 +10433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -10193,7 +10453,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>95</v>
       </c>
@@ -10213,7 +10473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -10233,7 +10493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -10253,7 +10513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>106</v>
       </c>
@@ -10273,7 +10533,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>110</v>
       </c>
@@ -10293,7 +10553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>115</v>
       </c>
@@ -10313,7 +10573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>115</v>
       </c>
@@ -10333,7 +10593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>115</v>
       </c>
@@ -10353,7 +10613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>124</v>
       </c>
@@ -10373,7 +10633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>124</v>
       </c>
@@ -10393,7 +10653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>124</v>
       </c>
@@ -10413,7 +10673,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>130</v>
       </c>
@@ -10433,7 +10693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>133</v>
       </c>
@@ -10453,7 +10713,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>67</v>
       </c>
@@ -10473,7 +10733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>71</v>
       </c>
@@ -10519,19 +10779,19 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>145</v>
       </c>
@@ -10557,7 +10817,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>39431</v>
       </c>
@@ -10585,7 +10845,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>39434</v>
       </c>
@@ -10613,7 +10873,7 @@
         <v>1699.1499999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>39437</v>
       </c>
@@ -10641,7 +10901,7 @@
         <v>309.38</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>39440</v>
       </c>
@@ -10669,7 +10929,7 @@
         <v>1159.4199999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>39443</v>
       </c>
@@ -10697,7 +10957,7 @@
         <v>49.900000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>39446</v>
       </c>
@@ -10725,7 +10985,7 @@
         <v>56.81</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>39449</v>
       </c>
@@ -10753,7 +11013,7 @@
         <v>11.94</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>39452</v>
       </c>
@@ -10781,7 +11041,7 @@
         <v>49.900000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>39455</v>
       </c>
@@ -10809,7 +11069,7 @@
         <v>77.61</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>39458</v>
       </c>
@@ -10837,7 +11097,7 @@
         <v>8.99</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>39461</v>
       </c>
@@ -10865,7 +11125,7 @@
         <v>399.20000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>39464</v>
       </c>
@@ -10893,7 +11153,7 @@
         <v>101.49</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>39467</v>
       </c>
@@ -10921,7 +11181,7 @@
         <v>199.89999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>39470</v>
       </c>
@@ -10949,7 +11209,7 @@
         <v>74.850000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>39473</v>
       </c>
@@ -10977,7 +11237,7 @@
         <v>3875</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>39476</v>
       </c>
@@ -11005,7 +11265,7 @@
         <v>735.54</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>39479</v>
       </c>
@@ -11033,7 +11293,7 @@
         <v>548.39</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>39482</v>
       </c>
@@ -11061,7 +11321,7 @@
         <v>809.1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>39485</v>
       </c>
@@ -11089,7 +11349,7 @@
         <v>859.56999999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>39488</v>
       </c>
@@ -11117,7 +11377,7 @@
         <v>159.68</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>39491</v>
       </c>
@@ -11145,7 +11405,7 @@
         <v>47.730000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>39494</v>
       </c>
@@ -11173,7 +11433,7 @@
         <v>415.74</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>39497</v>
       </c>
@@ -11201,7 +11461,7 @@
         <v>710.21</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>39500</v>
       </c>
@@ -11229,7 +11489,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>39503</v>
       </c>
@@ -11257,7 +11517,7 @@
         <v>134.73000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>39506</v>
       </c>
@@ -11285,7 +11545,7 @@
         <v>99.949999999999989</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>39509</v>
       </c>
@@ -11313,7 +11573,7 @@
         <v>294.41000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>39512</v>
       </c>
@@ -11341,7 +11601,7 @@
         <v>81.59</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>39515</v>
       </c>
@@ -11369,7 +11629,7 @@
         <v>424.15000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>39518</v>
       </c>
@@ -11397,7 +11657,7 @@
         <v>78.69</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>39521</v>
       </c>
@@ -11425,7 +11685,7 @@
         <v>80.91</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>39524</v>
       </c>
@@ -11453,7 +11713,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>39527</v>
       </c>
@@ -11481,7 +11741,7 @@
         <v>374.25</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>39530</v>
       </c>
@@ -11509,7 +11769,7 @@
         <v>1211.53</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>39533</v>
       </c>
@@ -11537,7 +11797,7 @@
         <v>2059.6999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>39536</v>
       </c>
@@ -11565,7 +11825,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>39539</v>
       </c>
@@ -11593,7 +11853,7 @@
         <v>116.10000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>39542</v>
       </c>
@@ -11621,7 +11881,7 @@
         <v>65.67</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>39545</v>
       </c>
@@ -11649,7 +11909,7 @@
         <v>1059.47</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>39548</v>
       </c>
@@ -11677,7 +11937,7 @@
         <v>32.25</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>39551</v>
       </c>
@@ -11705,7 +11965,7 @@
         <v>434.13</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>39554</v>
       </c>
@@ -11733,7 +11993,7 @@
         <v>1899.05</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>39557</v>
       </c>
@@ -11761,7 +12021,7 @@
         <v>339.32</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>39560</v>
       </c>
@@ -11789,7 +12049,7 @@
         <v>94.81</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>39563</v>
       </c>
@@ -11817,7 +12077,7 @@
         <v>113.81</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>39566</v>
       </c>
@@ -11845,7 +12105,7 @@
         <v>113.81</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>39569</v>
       </c>
@@ -11873,7 +12133,7 @@
         <v>94.81</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>39572</v>
       </c>
@@ -11901,7 +12161,7 @@
         <v>94.81</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>39575</v>
       </c>
@@ -11944,9 +12204,9 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="37"/>
+    <col min="1" max="16384" width="8.7265625" style="37"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11962,9 +12222,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="16384" width="9.1796875" style="37"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11981,22 +12241,22 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="32" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="32" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="17.81640625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>175</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
     </row>
-    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>177</v>
       </c>
@@ -12007,7 +12267,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
         <v>171</v>
       </c>
@@ -12018,7 +12278,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
         <v>172</v>
       </c>
@@ -12029,7 +12289,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
         <v>173</v>
       </c>
@@ -12040,7 +12300,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
         <v>174</v>
       </c>
@@ -12051,7 +12311,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
         <v>176</v>
       </c>
@@ -12076,25 +12336,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="16.81640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>180</v>
       </c>
       <c r="B1" s="40"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>181</v>
       </c>
@@ -12102,7 +12362,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>183</v>
       </c>
@@ -12110,7 +12370,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>184</v>
       </c>
@@ -12118,7 +12378,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>185</v>
       </c>
@@ -12126,7 +12386,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>186</v>
       </c>
@@ -12134,7 +12394,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>187</v>
       </c>
@@ -12142,7 +12402,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>188</v>
       </c>
@@ -12174,9 +12434,9 @@
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>194</v>
       </c>
@@ -12195,7 +12455,7 @@
       <c r="N1" s="41"/>
       <c r="O1" s="41"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="41"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -12212,7 +12472,7 @@
       <c r="N2" s="41"/>
       <c r="O2" s="41"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="41"/>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -12229,7 +12489,7 @@
       <c r="N3" s="41"/>
       <c r="O3" s="41"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -12246,7 +12506,7 @@
       <c r="N4" s="41"/>
       <c r="O4" s="41"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -12263,35 +12523,35 @@
       <c r="N5" s="41"/>
       <c r="O5" s="41"/>
     </row>
-    <row r="27" spans="13:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="13:15" ht="17.5" x14ac:dyDescent="0.35">
       <c r="M27" s="42" t="s">
         <v>192</v>
       </c>
       <c r="N27" s="42"/>
       <c r="O27" s="42"/>
     </row>
-    <row r="41" spans="13:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="41" spans="13:15" ht="17.5" x14ac:dyDescent="0.35">
       <c r="M41" s="42" t="s">
         <v>190</v>
       </c>
       <c r="N41" s="42"/>
       <c r="O41" s="42"/>
     </row>
-    <row r="50" spans="2:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B50" s="42" t="s">
         <v>191</v>
       </c>
       <c r="C50" s="42"/>
       <c r="D50" s="42"/>
     </row>
-    <row r="55" spans="2:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" ht="17.5" x14ac:dyDescent="0.35">
       <c r="M55" s="42" t="s">
         <v>193</v>
       </c>
       <c r="N55" s="42"/>
       <c r="O55" s="42"/>
     </row>
-    <row r="69" spans="13:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="69" spans="13:15" ht="17.5" x14ac:dyDescent="0.35">
       <c r="M69" s="42" t="s">
         <v>189</v>
       </c>
@@ -12314,6 +12574,1546 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FE578F-8715-4528-864A-85AF22F542DD}">
+  <dimension ref="A1:N35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.81640625" style="43" customWidth="1"/>
+    <col min="2" max="11" width="10.54296875" style="43" customWidth="1"/>
+    <col min="12" max="12" width="8.453125" style="43" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" style="43" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="N1" s="49" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="49"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="49"/>
+    </row>
+    <row r="4" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="48"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="I5" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="J5" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="L5" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="M5" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="N5" s="45" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="44">
+        <v>99</v>
+      </c>
+      <c r="C6" s="44">
+        <v>97</v>
+      </c>
+      <c r="D6" s="44">
+        <v>93</v>
+      </c>
+      <c r="E6" s="44">
+        <v>100</v>
+      </c>
+      <c r="F6" s="44">
+        <v>91</v>
+      </c>
+      <c r="G6" s="44">
+        <v>92</v>
+      </c>
+      <c r="H6" s="44">
+        <v>92</v>
+      </c>
+      <c r="I6" s="44">
+        <v>95</v>
+      </c>
+      <c r="J6" s="44">
+        <v>91</v>
+      </c>
+      <c r="K6" s="44">
+        <v>89</v>
+      </c>
+      <c r="L6" s="44">
+        <f>SUM(B6:K6)</f>
+        <v>939</v>
+      </c>
+      <c r="M6" s="44">
+        <f>AVERAGE(B6:K6)</f>
+        <v>93.9</v>
+      </c>
+      <c r="N6" s="43">
+        <f>RANK(L6,L6:L35)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="44">
+        <v>86</v>
+      </c>
+      <c r="C7" s="44">
+        <v>88</v>
+      </c>
+      <c r="D7" s="44">
+        <v>90</v>
+      </c>
+      <c r="E7" s="44">
+        <v>92</v>
+      </c>
+      <c r="F7" s="44">
+        <v>91</v>
+      </c>
+      <c r="G7" s="44">
+        <v>87</v>
+      </c>
+      <c r="H7" s="44">
+        <v>96</v>
+      </c>
+      <c r="I7" s="44">
+        <v>75</v>
+      </c>
+      <c r="J7" s="44">
+        <v>80</v>
+      </c>
+      <c r="K7" s="44">
+        <v>92</v>
+      </c>
+      <c r="L7" s="44">
+        <f>SUM(B7:K7)</f>
+        <v>877</v>
+      </c>
+      <c r="M7" s="44">
+        <f>AVERAGE(B7:K7)</f>
+        <v>87.7</v>
+      </c>
+      <c r="N7" s="43">
+        <f>RANK(L7,L6:L35)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="44">
+        <v>91</v>
+      </c>
+      <c r="C8" s="44">
+        <v>92</v>
+      </c>
+      <c r="D8" s="44">
+        <v>97</v>
+      </c>
+      <c r="E8" s="44">
+        <v>94</v>
+      </c>
+      <c r="F8" s="44">
+        <v>91</v>
+      </c>
+      <c r="G8" s="44">
+        <v>92</v>
+      </c>
+      <c r="H8" s="44">
+        <v>95</v>
+      </c>
+      <c r="I8" s="44">
+        <v>99</v>
+      </c>
+      <c r="J8" s="44">
+        <v>100</v>
+      </c>
+      <c r="K8" s="44">
+        <v>94</v>
+      </c>
+      <c r="L8" s="44">
+        <f>SUM(B8:K8)</f>
+        <v>945</v>
+      </c>
+      <c r="M8" s="44">
+        <f>AVERAGE(B8:K8)</f>
+        <v>94.5</v>
+      </c>
+      <c r="N8" s="43">
+        <f>RANK(L8,L6:L35)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="44">
+        <v>64</v>
+      </c>
+      <c r="C9" s="44">
+        <v>71</v>
+      </c>
+      <c r="D9" s="44">
+        <v>82</v>
+      </c>
+      <c r="E9" s="44">
+        <v>80</v>
+      </c>
+      <c r="F9" s="44">
+        <v>63</v>
+      </c>
+      <c r="G9" s="44">
+        <v>71</v>
+      </c>
+      <c r="H9" s="44">
+        <v>88</v>
+      </c>
+      <c r="I9" s="44">
+        <v>78</v>
+      </c>
+      <c r="J9" s="44">
+        <v>76</v>
+      </c>
+      <c r="K9" s="44">
+        <v>83</v>
+      </c>
+      <c r="L9" s="44">
+        <f>SUM(B9:K9)</f>
+        <v>756</v>
+      </c>
+      <c r="M9" s="44">
+        <f>AVERAGE(B9:K9)</f>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="N9" s="43">
+        <f>RANK(L9,L6:L35)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="44">
+        <v>91</v>
+      </c>
+      <c r="C10" s="44">
+        <v>85</v>
+      </c>
+      <c r="D10" s="44">
+        <v>79</v>
+      </c>
+      <c r="E10" s="44">
+        <v>92</v>
+      </c>
+      <c r="F10" s="44">
+        <v>86</v>
+      </c>
+      <c r="G10" s="44">
+        <v>81</v>
+      </c>
+      <c r="H10" s="44">
+        <v>83</v>
+      </c>
+      <c r="I10" s="44">
+        <v>90</v>
+      </c>
+      <c r="J10" s="44">
+        <v>82</v>
+      </c>
+      <c r="K10" s="44">
+        <v>82</v>
+      </c>
+      <c r="L10" s="44">
+        <f>SUM(B10:K10)</f>
+        <v>851</v>
+      </c>
+      <c r="M10" s="44">
+        <f>AVERAGE(B10:K10)</f>
+        <v>85.1</v>
+      </c>
+      <c r="N10" s="43">
+        <f>RANK(L10,L6:L35)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="44">
+        <v>90</v>
+      </c>
+      <c r="C11" s="44">
+        <v>81</v>
+      </c>
+      <c r="D11" s="44">
+        <v>90</v>
+      </c>
+      <c r="E11" s="44">
+        <v>83</v>
+      </c>
+      <c r="F11" s="44">
+        <v>82</v>
+      </c>
+      <c r="G11" s="44">
+        <v>92</v>
+      </c>
+      <c r="H11" s="44">
+        <v>95</v>
+      </c>
+      <c r="I11" s="44">
+        <v>89</v>
+      </c>
+      <c r="J11" s="44">
+        <v>87</v>
+      </c>
+      <c r="K11" s="44">
+        <v>88</v>
+      </c>
+      <c r="L11" s="44">
+        <f>SUM(B11:K11)</f>
+        <v>877</v>
+      </c>
+      <c r="M11" s="44">
+        <f>AVERAGE(B11:K11)</f>
+        <v>87.7</v>
+      </c>
+      <c r="N11" s="43">
+        <f>RANK(L11,L6:L35)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="44">
+        <v>82</v>
+      </c>
+      <c r="C12" s="44">
+        <v>89</v>
+      </c>
+      <c r="D12" s="44">
+        <v>94</v>
+      </c>
+      <c r="E12" s="44">
+        <v>91</v>
+      </c>
+      <c r="F12" s="44">
+        <v>86</v>
+      </c>
+      <c r="G12" s="44">
+        <v>87</v>
+      </c>
+      <c r="H12" s="44">
+        <v>80</v>
+      </c>
+      <c r="I12" s="44">
+        <v>83</v>
+      </c>
+      <c r="J12" s="44">
+        <v>86</v>
+      </c>
+      <c r="K12" s="44">
+        <v>80</v>
+      </c>
+      <c r="L12" s="44">
+        <f>SUM(B12:K12)</f>
+        <v>858</v>
+      </c>
+      <c r="M12" s="44">
+        <f>AVERAGE(B12:K12)</f>
+        <v>85.8</v>
+      </c>
+      <c r="N12" s="43">
+        <f>RANK(L12,L6:L35)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="44">
+        <v>77</v>
+      </c>
+      <c r="C13" s="44">
+        <v>78</v>
+      </c>
+      <c r="D13" s="44">
+        <v>60</v>
+      </c>
+      <c r="E13" s="44">
+        <v>79</v>
+      </c>
+      <c r="F13" s="44">
+        <v>65</v>
+      </c>
+      <c r="G13" s="44">
+        <v>77</v>
+      </c>
+      <c r="H13" s="44">
+        <v>80</v>
+      </c>
+      <c r="I13" s="44">
+        <v>73</v>
+      </c>
+      <c r="J13" s="44">
+        <v>70</v>
+      </c>
+      <c r="K13" s="44">
+        <v>81</v>
+      </c>
+      <c r="L13" s="44">
+        <f>SUM(B13:K13)</f>
+        <v>740</v>
+      </c>
+      <c r="M13" s="44">
+        <f>AVERAGE(B13:K13)</f>
+        <v>74</v>
+      </c>
+      <c r="N13" s="43">
+        <f>RANK(L13,L6:L35)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" s="44">
+        <v>71</v>
+      </c>
+      <c r="C14" s="44">
+        <v>82</v>
+      </c>
+      <c r="D14" s="44">
+        <v>69</v>
+      </c>
+      <c r="E14" s="44">
+        <v>75</v>
+      </c>
+      <c r="F14" s="44">
+        <v>69</v>
+      </c>
+      <c r="G14" s="44">
+        <v>81</v>
+      </c>
+      <c r="H14" s="44">
+        <v>70</v>
+      </c>
+      <c r="I14" s="44">
+        <v>72</v>
+      </c>
+      <c r="J14" s="44">
+        <v>74</v>
+      </c>
+      <c r="K14" s="44">
+        <v>84</v>
+      </c>
+      <c r="L14" s="44">
+        <f>SUM(B14:K14)</f>
+        <v>747</v>
+      </c>
+      <c r="M14" s="44">
+        <f>AVERAGE(B14:K14)</f>
+        <v>74.7</v>
+      </c>
+      <c r="N14" s="43">
+        <f>RANK(L14,L6:L35)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" s="44">
+        <v>85</v>
+      </c>
+      <c r="C15" s="44">
+        <v>81</v>
+      </c>
+      <c r="D15" s="44">
+        <v>84</v>
+      </c>
+      <c r="E15" s="44">
+        <v>88</v>
+      </c>
+      <c r="F15" s="44">
+        <v>83</v>
+      </c>
+      <c r="G15" s="44">
+        <v>81</v>
+      </c>
+      <c r="H15" s="44">
+        <v>89</v>
+      </c>
+      <c r="I15" s="44">
+        <v>88</v>
+      </c>
+      <c r="J15" s="44">
+        <v>82</v>
+      </c>
+      <c r="K15" s="44">
+        <v>85</v>
+      </c>
+      <c r="L15" s="44">
+        <f>SUM(B15:K15)</f>
+        <v>846</v>
+      </c>
+      <c r="M15" s="44">
+        <f>AVERAGE(B15:K15)</f>
+        <v>84.6</v>
+      </c>
+      <c r="N15" s="43">
+        <f>RANK(L15,L6:L35)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" s="44">
+        <v>85</v>
+      </c>
+      <c r="C16" s="44">
+        <v>75</v>
+      </c>
+      <c r="D16" s="44">
+        <v>79</v>
+      </c>
+      <c r="E16" s="44">
+        <v>78</v>
+      </c>
+      <c r="F16" s="44">
+        <v>82</v>
+      </c>
+      <c r="G16" s="44">
+        <v>86</v>
+      </c>
+      <c r="H16" s="44">
+        <v>81</v>
+      </c>
+      <c r="I16" s="44">
+        <v>70</v>
+      </c>
+      <c r="J16" s="44">
+        <v>79</v>
+      </c>
+      <c r="K16" s="44">
+        <v>86</v>
+      </c>
+      <c r="L16" s="44">
+        <f>SUM(B16:K16)</f>
+        <v>801</v>
+      </c>
+      <c r="M16" s="44">
+        <f>AVERAGE(B16:K16)</f>
+        <v>80.099999999999994</v>
+      </c>
+      <c r="N16" s="43">
+        <f>RANK(L16,L6:L35)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="44">
+        <v>91</v>
+      </c>
+      <c r="C17" s="44">
+        <v>92</v>
+      </c>
+      <c r="D17" s="44">
+        <v>90</v>
+      </c>
+      <c r="E17" s="44">
+        <v>100</v>
+      </c>
+      <c r="F17" s="44">
+        <v>91</v>
+      </c>
+      <c r="G17" s="44">
+        <v>91</v>
+      </c>
+      <c r="H17" s="44">
+        <v>92</v>
+      </c>
+      <c r="I17" s="44">
+        <v>92</v>
+      </c>
+      <c r="J17" s="44">
+        <v>92</v>
+      </c>
+      <c r="K17" s="44">
+        <v>91</v>
+      </c>
+      <c r="L17" s="44">
+        <f>SUM(B17:K17)</f>
+        <v>922</v>
+      </c>
+      <c r="M17" s="44">
+        <f>AVERAGE(B17:K17)</f>
+        <v>92.2</v>
+      </c>
+      <c r="N17" s="43">
+        <f>RANK(L17,L6:L35)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" s="44">
+        <v>94</v>
+      </c>
+      <c r="C18" s="44">
+        <v>81</v>
+      </c>
+      <c r="D18" s="44">
+        <v>93</v>
+      </c>
+      <c r="E18" s="44">
+        <v>69</v>
+      </c>
+      <c r="F18" s="44">
+        <v>82</v>
+      </c>
+      <c r="G18" s="44">
+        <v>90</v>
+      </c>
+      <c r="H18" s="44">
+        <v>91</v>
+      </c>
+      <c r="I18" s="44">
+        <v>92</v>
+      </c>
+      <c r="J18" s="44">
+        <v>89</v>
+      </c>
+      <c r="K18" s="44">
+        <v>81</v>
+      </c>
+      <c r="L18" s="44">
+        <f>SUM(B18:K18)</f>
+        <v>862</v>
+      </c>
+      <c r="M18" s="44">
+        <f>AVERAGE(B18:K18)</f>
+        <v>86.2</v>
+      </c>
+      <c r="N18" s="43">
+        <f>RANK(L18,L6:L35)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" s="44">
+        <v>87</v>
+      </c>
+      <c r="C19" s="44">
+        <v>89</v>
+      </c>
+      <c r="D19" s="44">
+        <v>87</v>
+      </c>
+      <c r="E19" s="44">
+        <v>86</v>
+      </c>
+      <c r="F19" s="44">
+        <v>82</v>
+      </c>
+      <c r="G19" s="44">
+        <v>80</v>
+      </c>
+      <c r="H19" s="44">
+        <v>84</v>
+      </c>
+      <c r="I19" s="44">
+        <v>92</v>
+      </c>
+      <c r="J19" s="44">
+        <v>90</v>
+      </c>
+      <c r="K19" s="44">
+        <v>89</v>
+      </c>
+      <c r="L19" s="44">
+        <f>SUM(B19:K19)</f>
+        <v>866</v>
+      </c>
+      <c r="M19" s="44">
+        <f>AVERAGE(B19:K19)</f>
+        <v>86.6</v>
+      </c>
+      <c r="N19" s="43">
+        <f>RANK(L19,L6:L35)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" s="44">
+        <v>78</v>
+      </c>
+      <c r="C20" s="44">
+        <v>75</v>
+      </c>
+      <c r="D20" s="44">
+        <v>71</v>
+      </c>
+      <c r="E20" s="44">
+        <v>75</v>
+      </c>
+      <c r="F20" s="44">
+        <v>79</v>
+      </c>
+      <c r="G20" s="44">
+        <v>70</v>
+      </c>
+      <c r="H20" s="44">
+        <v>72</v>
+      </c>
+      <c r="I20" s="44">
+        <v>73</v>
+      </c>
+      <c r="J20" s="44">
+        <v>76</v>
+      </c>
+      <c r="K20" s="44">
+        <v>77</v>
+      </c>
+      <c r="L20" s="44">
+        <f>SUM(B20:K20)</f>
+        <v>746</v>
+      </c>
+      <c r="M20" s="44">
+        <f>AVERAGE(B20:K20)</f>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="N20" s="43">
+        <f>RANK(L20,L6:L35)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="B21" s="44">
+        <v>93</v>
+      </c>
+      <c r="C21" s="44">
+        <v>91</v>
+      </c>
+      <c r="D21" s="44">
+        <v>90</v>
+      </c>
+      <c r="E21" s="44">
+        <v>89</v>
+      </c>
+      <c r="F21" s="44">
+        <v>82</v>
+      </c>
+      <c r="G21" s="44">
+        <v>85</v>
+      </c>
+      <c r="H21" s="44">
+        <v>87</v>
+      </c>
+      <c r="I21" s="44">
+        <v>88</v>
+      </c>
+      <c r="J21" s="44">
+        <v>87</v>
+      </c>
+      <c r="K21" s="44">
+        <v>84</v>
+      </c>
+      <c r="L21" s="44">
+        <f>SUM(B21:K21)</f>
+        <v>876</v>
+      </c>
+      <c r="M21" s="44">
+        <f>AVERAGE(B21:K21)</f>
+        <v>87.6</v>
+      </c>
+      <c r="N21" s="43">
+        <f>RANK(L21,L6:L35)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" s="44">
+        <v>88</v>
+      </c>
+      <c r="C22" s="44">
+        <v>82</v>
+      </c>
+      <c r="D22" s="44">
+        <v>80</v>
+      </c>
+      <c r="E22" s="44">
+        <v>81</v>
+      </c>
+      <c r="F22" s="44">
+        <v>84</v>
+      </c>
+      <c r="G22" s="44">
+        <v>81</v>
+      </c>
+      <c r="H22" s="44">
+        <v>80</v>
+      </c>
+      <c r="I22" s="44">
+        <v>82</v>
+      </c>
+      <c r="J22" s="44">
+        <v>91</v>
+      </c>
+      <c r="K22" s="44">
+        <v>87</v>
+      </c>
+      <c r="L22" s="44">
+        <f>SUM(B22:K22)</f>
+        <v>836</v>
+      </c>
+      <c r="M22" s="44">
+        <f>AVERAGE(B22:K22)</f>
+        <v>83.6</v>
+      </c>
+      <c r="N22" s="43">
+        <f>RANK(L22,L6:L35)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" s="44">
+        <v>93</v>
+      </c>
+      <c r="C23" s="44">
+        <v>94</v>
+      </c>
+      <c r="D23" s="44">
+        <v>95</v>
+      </c>
+      <c r="E23" s="44">
+        <v>92</v>
+      </c>
+      <c r="F23" s="44">
+        <v>90</v>
+      </c>
+      <c r="G23" s="44">
+        <v>90</v>
+      </c>
+      <c r="H23" s="44">
+        <v>98</v>
+      </c>
+      <c r="I23" s="44">
+        <v>100</v>
+      </c>
+      <c r="J23" s="44">
+        <v>99</v>
+      </c>
+      <c r="K23" s="44">
+        <v>94</v>
+      </c>
+      <c r="L23" s="44">
+        <f>SUM(B23:K23)</f>
+        <v>945</v>
+      </c>
+      <c r="M23" s="44">
+        <f>AVERAGE(B23:K23)</f>
+        <v>94.5</v>
+      </c>
+      <c r="N23" s="43">
+        <f>RANK(L23,L6:L35)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24" s="44">
+        <v>84</v>
+      </c>
+      <c r="C24" s="44">
+        <v>90</v>
+      </c>
+      <c r="D24" s="44">
+        <v>91</v>
+      </c>
+      <c r="E24" s="44">
+        <v>93</v>
+      </c>
+      <c r="F24" s="44">
+        <v>90</v>
+      </c>
+      <c r="G24" s="44">
+        <v>92</v>
+      </c>
+      <c r="H24" s="44">
+        <v>91</v>
+      </c>
+      <c r="I24" s="44">
+        <v>81</v>
+      </c>
+      <c r="J24" s="44">
+        <v>85</v>
+      </c>
+      <c r="K24" s="44">
+        <v>84</v>
+      </c>
+      <c r="L24" s="44">
+        <f>SUM(B24:K24)</f>
+        <v>881</v>
+      </c>
+      <c r="M24" s="44">
+        <f>AVERAGE(B24:K24)</f>
+        <v>88.1</v>
+      </c>
+      <c r="N24" s="43">
+        <f>RANK(L24,L6:L35)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" s="44">
+        <v>83</v>
+      </c>
+      <c r="C25" s="44">
+        <v>75</v>
+      </c>
+      <c r="D25" s="44">
+        <v>74</v>
+      </c>
+      <c r="E25" s="44">
+        <v>76</v>
+      </c>
+      <c r="F25" s="44">
+        <v>78</v>
+      </c>
+      <c r="G25" s="44">
+        <v>89</v>
+      </c>
+      <c r="H25" s="44">
+        <v>90</v>
+      </c>
+      <c r="I25" s="44">
+        <v>87</v>
+      </c>
+      <c r="J25" s="44">
+        <v>82</v>
+      </c>
+      <c r="K25" s="44">
+        <v>88</v>
+      </c>
+      <c r="L25" s="44">
+        <f>SUM(B25:K25)</f>
+        <v>822</v>
+      </c>
+      <c r="M25" s="44">
+        <f>AVERAGE(B25:K25)</f>
+        <v>82.2</v>
+      </c>
+      <c r="N25" s="43">
+        <f>RANK(L25,L6:L35)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" s="44">
+        <v>89</v>
+      </c>
+      <c r="C26" s="44">
+        <v>87</v>
+      </c>
+      <c r="D26" s="44">
+        <v>83</v>
+      </c>
+      <c r="E26" s="44">
+        <v>80</v>
+      </c>
+      <c r="F26" s="44">
+        <v>91</v>
+      </c>
+      <c r="G26" s="44">
+        <v>72</v>
+      </c>
+      <c r="H26" s="44">
+        <v>92</v>
+      </c>
+      <c r="I26" s="44">
+        <v>85</v>
+      </c>
+      <c r="J26" s="44">
+        <v>89</v>
+      </c>
+      <c r="K26" s="44">
+        <v>94</v>
+      </c>
+      <c r="L26" s="44">
+        <f>SUM(B26:K26)</f>
+        <v>862</v>
+      </c>
+      <c r="M26" s="44">
+        <f>AVERAGE(B26:K26)</f>
+        <v>86.2</v>
+      </c>
+      <c r="N26" s="43">
+        <f>RANK(L26,L6:L35)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" s="44">
+        <v>89</v>
+      </c>
+      <c r="C27" s="44">
+        <v>87</v>
+      </c>
+      <c r="D27" s="44">
+        <v>91</v>
+      </c>
+      <c r="E27" s="44">
+        <v>90</v>
+      </c>
+      <c r="F27" s="44">
+        <v>90</v>
+      </c>
+      <c r="G27" s="44">
+        <v>83</v>
+      </c>
+      <c r="H27" s="44">
+        <v>87</v>
+      </c>
+      <c r="I27" s="44">
+        <v>91</v>
+      </c>
+      <c r="J27" s="44">
+        <v>90</v>
+      </c>
+      <c r="K27" s="44">
+        <v>94</v>
+      </c>
+      <c r="L27" s="44">
+        <f>SUM(B27:K27)</f>
+        <v>892</v>
+      </c>
+      <c r="M27" s="44">
+        <f>AVERAGE(B27:K27)</f>
+        <v>89.2</v>
+      </c>
+      <c r="N27" s="43">
+        <f>RANK(L27,L6:L35)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="B28" s="44">
+        <v>87</v>
+      </c>
+      <c r="C28" s="44">
+        <v>91</v>
+      </c>
+      <c r="D28" s="44">
+        <v>90</v>
+      </c>
+      <c r="E28" s="44">
+        <v>90</v>
+      </c>
+      <c r="F28" s="44">
+        <v>81</v>
+      </c>
+      <c r="G28" s="44">
+        <v>79</v>
+      </c>
+      <c r="H28" s="44">
+        <v>78</v>
+      </c>
+      <c r="I28" s="44">
+        <v>79</v>
+      </c>
+      <c r="J28" s="44">
+        <v>80</v>
+      </c>
+      <c r="K28" s="44">
+        <v>87</v>
+      </c>
+      <c r="L28" s="44">
+        <f>SUM(B28:K28)</f>
+        <v>842</v>
+      </c>
+      <c r="M28" s="44">
+        <f>AVERAGE(B28:K28)</f>
+        <v>84.2</v>
+      </c>
+      <c r="N28" s="43">
+        <f>RANK(L28,L6:L35)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" s="44">
+        <v>79</v>
+      </c>
+      <c r="C29" s="44">
+        <v>86</v>
+      </c>
+      <c r="D29" s="44">
+        <v>75</v>
+      </c>
+      <c r="E29" s="44">
+        <v>75</v>
+      </c>
+      <c r="F29" s="44">
+        <v>71</v>
+      </c>
+      <c r="G29" s="44">
+        <v>82</v>
+      </c>
+      <c r="H29" s="44">
+        <v>85</v>
+      </c>
+      <c r="I29" s="44">
+        <v>80</v>
+      </c>
+      <c r="J29" s="44">
+        <v>93</v>
+      </c>
+      <c r="K29" s="44">
+        <v>94</v>
+      </c>
+      <c r="L29" s="44">
+        <f>SUM(B29:K29)</f>
+        <v>820</v>
+      </c>
+      <c r="M29" s="44">
+        <f>AVERAGE(B29:K29)</f>
+        <v>82</v>
+      </c>
+      <c r="N29" s="43">
+        <f>RANK(L29,L6:L35)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" s="44">
+        <v>80</v>
+      </c>
+      <c r="C30" s="44">
+        <v>79</v>
+      </c>
+      <c r="D30" s="44">
+        <v>87</v>
+      </c>
+      <c r="E30" s="44">
+        <v>89</v>
+      </c>
+      <c r="F30" s="44">
+        <v>91</v>
+      </c>
+      <c r="G30" s="44">
+        <v>90</v>
+      </c>
+      <c r="H30" s="44">
+        <v>94</v>
+      </c>
+      <c r="I30" s="44">
+        <v>93</v>
+      </c>
+      <c r="J30" s="44">
+        <v>91</v>
+      </c>
+      <c r="K30" s="44">
+        <v>94</v>
+      </c>
+      <c r="L30" s="44">
+        <f>SUM(B30:K30)</f>
+        <v>888</v>
+      </c>
+      <c r="M30" s="44">
+        <f>AVERAGE(B30:K30)</f>
+        <v>88.8</v>
+      </c>
+      <c r="N30" s="43">
+        <f>RANK(L30,L6:L35)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="44">
+        <v>69</v>
+      </c>
+      <c r="C31" s="44">
+        <v>67</v>
+      </c>
+      <c r="D31" s="44">
+        <v>71</v>
+      </c>
+      <c r="E31" s="44">
+        <v>69</v>
+      </c>
+      <c r="F31" s="44">
+        <v>71</v>
+      </c>
+      <c r="G31" s="44">
+        <v>69</v>
+      </c>
+      <c r="H31" s="44">
+        <v>69</v>
+      </c>
+      <c r="I31" s="44">
+        <v>60</v>
+      </c>
+      <c r="J31" s="44">
+        <v>71</v>
+      </c>
+      <c r="K31" s="44">
+        <v>73</v>
+      </c>
+      <c r="L31" s="44">
+        <f>SUM(B31:K31)</f>
+        <v>689</v>
+      </c>
+      <c r="M31" s="44">
+        <f>AVERAGE(B31:K31)</f>
+        <v>68.900000000000006</v>
+      </c>
+      <c r="N31" s="43">
+        <f>RANK(L31,L6:L35)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="B32" s="44">
+        <v>73</v>
+      </c>
+      <c r="C32" s="44">
+        <v>77</v>
+      </c>
+      <c r="D32" s="44">
+        <v>78</v>
+      </c>
+      <c r="E32" s="44">
+        <v>82</v>
+      </c>
+      <c r="F32" s="44">
+        <v>84</v>
+      </c>
+      <c r="G32" s="44">
+        <v>90</v>
+      </c>
+      <c r="H32" s="44">
+        <v>91</v>
+      </c>
+      <c r="I32" s="44">
+        <v>75</v>
+      </c>
+      <c r="J32" s="44">
+        <v>80</v>
+      </c>
+      <c r="K32" s="44">
+        <v>85</v>
+      </c>
+      <c r="L32" s="44">
+        <f>SUM(B32:K32)</f>
+        <v>815</v>
+      </c>
+      <c r="M32" s="44">
+        <f>AVERAGE(B32:K32)</f>
+        <v>81.5</v>
+      </c>
+      <c r="N32" s="43">
+        <f>RANK(L32,L6:L35)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="B33" s="44">
+        <v>93</v>
+      </c>
+      <c r="C33" s="44">
+        <v>87</v>
+      </c>
+      <c r="D33" s="44">
+        <v>85</v>
+      </c>
+      <c r="E33" s="44">
+        <v>83</v>
+      </c>
+      <c r="F33" s="44">
+        <v>71</v>
+      </c>
+      <c r="G33" s="44">
+        <v>80</v>
+      </c>
+      <c r="H33" s="44">
+        <v>82</v>
+      </c>
+      <c r="I33" s="44">
+        <v>85</v>
+      </c>
+      <c r="J33" s="44">
+        <v>81</v>
+      </c>
+      <c r="K33" s="44">
+        <v>84</v>
+      </c>
+      <c r="L33" s="44">
+        <f>SUM(B33:K33)</f>
+        <v>831</v>
+      </c>
+      <c r="M33" s="44">
+        <f>AVERAGE(B33:K33)</f>
+        <v>83.1</v>
+      </c>
+      <c r="N33" s="43">
+        <f>RANK(L33,L6:L35)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" s="44">
+        <v>85</v>
+      </c>
+      <c r="C34" s="44">
+        <v>90</v>
+      </c>
+      <c r="D34" s="44">
+        <v>93</v>
+      </c>
+      <c r="E34" s="44">
+        <v>91</v>
+      </c>
+      <c r="F34" s="44">
+        <v>91</v>
+      </c>
+      <c r="G34" s="44">
+        <v>92</v>
+      </c>
+      <c r="H34" s="44">
+        <v>87</v>
+      </c>
+      <c r="I34" s="44">
+        <v>85</v>
+      </c>
+      <c r="J34" s="44">
+        <v>85</v>
+      </c>
+      <c r="K34" s="44">
+        <v>80</v>
+      </c>
+      <c r="L34" s="44">
+        <f>SUM(B34:K34)</f>
+        <v>879</v>
+      </c>
+      <c r="M34" s="44">
+        <f>AVERAGE(B34:K34)</f>
+        <v>87.9</v>
+      </c>
+      <c r="N34" s="43">
+        <f>RANK(L34,L6:L35)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" s="44">
+        <v>89</v>
+      </c>
+      <c r="C35" s="44">
+        <v>87</v>
+      </c>
+      <c r="D35" s="44">
+        <v>83</v>
+      </c>
+      <c r="E35" s="44">
+        <v>86</v>
+      </c>
+      <c r="F35" s="44">
+        <v>81</v>
+      </c>
+      <c r="G35" s="44">
+        <v>80</v>
+      </c>
+      <c r="H35" s="44">
+        <v>92</v>
+      </c>
+      <c r="I35" s="44">
+        <v>80</v>
+      </c>
+      <c r="J35" s="44">
+        <v>94</v>
+      </c>
+      <c r="K35" s="44">
+        <v>92</v>
+      </c>
+      <c r="L35" s="44">
+        <f>SUM(B35:K35)</f>
+        <v>864</v>
+      </c>
+      <c r="M35" s="44">
+        <f>AVERAGE(B35:K35)</f>
+        <v>86.4</v>
+      </c>
+      <c r="N35" s="43">
+        <f>RANK(L35,L6:L35)</f>
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="M6:M35">
+    <cfRule type="aboveAverage" dxfId="1" priority="1" aboveAverage="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6:N35">
+    <cfRule type="top10" dxfId="0" priority="2" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C48CC7A-679D-488A-B18E-9E773EC24015}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -12321,17 +14121,17 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="38"/>
+    <col min="1" max="16384" width="8.7265625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>196</v>
       </c>
